--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -12216,7 +12216,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>88</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -4287,43 +4287,43 @@
     <col min="1" max="1" width="78.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="128.4140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="128.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -799,7 +799,7 @@
     <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
-    <t>JP coreでは"active"に固定される。
+    <t>JP Coreでは"active"に固定される。
 オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
-    <t>JP coreでは "order" に固定される。
+    <t>JP Coreでは "order" に固定される。
 投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12440" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12440" uniqueCount="1280">
   <si>
     <t>Property</t>
   </si>
@@ -449,7 +449,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Preparation</t>
+    <t>preparation</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
@@ -529,7 +529,7 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>RpNumber</t>
+    <t>rpNumber</t>
   </si>
   <si>
     <t>処方箋内部の剤グループとしてのRp番号</t>
@@ -736,7 +736,7 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>OrderInRp</t>
+    <t>orderInRp</t>
   </si>
   <si>
     <t>【JP-CORE】同一RP番号（剤グループ）での薬剤の表記順</t>
@@ -763,7 +763,7 @@
     <t>剤グループ内連番。</t>
   </si>
   <si>
-    <t>RequestIdentifier</t>
+    <t>requestIdentifier</t>
   </si>
   <si>
     <t>処方オーダーに対するID</t>
@@ -1728,7 +1728,20 @@
     <t>MedicationRequest.dosageInstruction.extension</t>
   </si>
   <si>
-    <t>UsageDuration</t>
+    <t>periodOfUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
+</t>
+  </si>
+  <si>
+    <t>投与期間の開始日を明示するための拡張</t>
+  </si>
+  <si>
+    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+  </si>
+  <si>
+    <t>usageDuration</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
@@ -1741,20 +1754,7 @@
     <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
   </si>
   <si>
-    <t>PeriodOfUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
-</t>
-  </si>
-  <si>
-    <t>投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>Line</t>
+    <t>line</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
@@ -1767,11 +1767,14 @@
     <t>指示ラインを格納する拡張</t>
   </si>
   <si>
-    <t>Device</t>
+    <t>device</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Device}
 </t>
+  </si>
+  <si>
+    <t>Device</t>
   </si>
   <si>
     <t>投与装置を格納する拡張</t>
@@ -3364,7 +3367,7 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>InstructionForDispense</t>
+    <t>instructionForDispense</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense}
@@ -3410,7 +3413,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>ExpectedRepeatCount</t>
+    <t>expectedRepeatCount</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_ExpectedRepeatCount}
@@ -14512,10 +14515,10 @@
         <v>556</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -14598,11 +14601,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -14624,10 +14627,10 @@
         <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>149</v>
@@ -14682,7 +14685,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -14714,7 +14717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -14737,19 +14740,19 @@
         <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>80</v>
@@ -14798,7 +14801,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -14819,18 +14822,18 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -14856,16 +14859,16 @@
         <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -14914,7 +14917,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -14935,18 +14938,18 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14972,16 +14975,16 @@
         <v>189</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
@@ -15009,10 +15012,10 @@
         <v>265</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>80</v>
@@ -15030,7 +15033,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -15051,18 +15054,18 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -15088,10 +15091,10 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -15174,7 +15177,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -15288,7 +15291,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -15314,16 +15317,16 @@
         <v>327</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>80</v>
@@ -15404,7 +15407,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -15430,10 +15433,10 @@
         <v>90</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -15516,7 +15519,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -15630,7 +15633,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -15656,23 +15659,23 @@
         <v>102</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>80</v>
@@ -15746,7 +15749,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -15772,13 +15775,13 @@
         <v>90</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -15860,7 +15863,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -15886,16 +15889,16 @@
         <v>108</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>80</v>
@@ -15976,7 +15979,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -16002,16 +16005,16 @@
         <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>80</v>
@@ -16092,7 +16095,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -16124,10 +16127,10 @@
         <v>368</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>80</v>
@@ -16208,7 +16211,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -16243,7 +16246,7 @@
         <v>376</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>80</v>
@@ -16324,7 +16327,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -16350,13 +16353,13 @@
         <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -16406,7 +16409,7 @@
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -16427,18 +16430,18 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -16461,19 +16464,19 @@
         <v>89</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>80</v>
@@ -16522,7 +16525,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -16543,7 +16546,7 @@
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>
@@ -16554,7 +16557,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -16580,10 +16583,10 @@
         <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -16666,7 +16669,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -16780,11 +16783,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -16806,10 +16809,10 @@
         <v>133</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>149</v>
@@ -16864,7 +16867,7 @@
         <v>80</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -16896,7 +16899,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -16922,14 +16925,14 @@
         <v>438</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>80</v>
@@ -16978,7 +16981,7 @@
         <v>80</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -16999,7 +17002,7 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
@@ -17010,7 +17013,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -17033,17 +17036,17 @@
         <v>89</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>80</v>
@@ -17092,7 +17095,7 @@
         <v>80</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -17104,7 +17107,7 @@
         <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>80</v>
@@ -17113,7 +17116,7 @@
         <v>80</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
@@ -17124,7 +17127,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -17150,10 +17153,10 @@
         <v>90</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -17236,7 +17239,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -17350,7 +17353,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -17373,13 +17376,13 @@
         <v>89</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -17428,7 +17431,7 @@
         <v>137</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -17449,7 +17452,7 @@
         <v>80</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>80</v>
@@ -17460,10 +17463,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>80</v>
@@ -17485,13 +17488,13 @@
         <v>89</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -17542,7 +17545,7 @@
         <v>80</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -17563,7 +17566,7 @@
         <v>80</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>80</v>
@@ -17574,7 +17577,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -17686,7 +17689,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -17800,7 +17803,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -17823,19 +17826,19 @@
         <v>89</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>80</v>
@@ -17884,7 +17887,7 @@
         <v>80</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -17905,18 +17908,18 @@
         <v>80</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17942,20 +17945,20 @@
         <v>108</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P120" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>80</v>
@@ -17979,10 +17982,10 @@
         <v>183</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>80</v>
@@ -18000,7 +18003,7 @@
         <v>80</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -18021,18 +18024,18 @@
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -18058,21 +18061,21 @@
         <v>90</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="R121" t="s" s="2">
         <v>80</v>
@@ -18114,7 +18117,7 @@
         <v>80</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -18135,18 +18138,18 @@
         <v>80</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -18172,21 +18175,21 @@
         <v>102</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="R122" t="s" s="2">
         <v>80</v>
@@ -18228,7 +18231,7 @@
         <v>80</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -18237,7 +18240,7 @@
         <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>100</v>
@@ -18249,18 +18252,18 @@
         <v>80</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -18286,23 +18289,23 @@
         <v>108</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R123" t="s" s="2">
         <v>80</v>
@@ -18344,7 +18347,7 @@
         <v>80</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>78</v>
@@ -18365,18 +18368,18 @@
         <v>80</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -18399,19 +18402,19 @@
         <v>89</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>80</v>
@@ -18460,7 +18463,7 @@
         <v>80</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -18481,7 +18484,7 @@
         <v>80</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>80</v>
@@ -18492,7 +18495,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -18515,16 +18518,16 @@
         <v>89</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -18574,7 +18577,7 @@
         <v>80</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -18595,7 +18598,7 @@
         <v>80</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>80</v>
@@ -18606,7 +18609,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -18629,19 +18632,19 @@
         <v>89</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>80</v>
@@ -18690,7 +18693,7 @@
         <v>80</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -18711,7 +18714,7 @@
         <v>80</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>80</v>
@@ -18722,7 +18725,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -18745,19 +18748,19 @@
         <v>89</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>80</v>
@@ -18806,7 +18809,7 @@
         <v>80</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -18827,7 +18830,7 @@
         <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>80</v>
@@ -18838,7 +18841,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -18864,13 +18867,13 @@
         <v>108</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -18899,10 +18902,10 @@
         <v>183</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>80</v>
@@ -18920,7 +18923,7 @@
         <v>80</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -18941,7 +18944,7 @@
         <v>80</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>80</v>
@@ -18952,7 +18955,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18975,23 +18978,23 @@
         <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>80</v>
@@ -19036,7 +19039,7 @@
         <v>80</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>78</v>
@@ -19057,7 +19060,7 @@
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>80</v>
@@ -19068,7 +19071,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -19091,16 +19094,16 @@
         <v>89</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -19150,7 +19153,7 @@
         <v>80</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>78</v>
@@ -19171,7 +19174,7 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>80</v>
@@ -19182,7 +19185,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -19205,16 +19208,16 @@
         <v>89</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -19264,7 +19267,7 @@
         <v>80</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>78</v>
@@ -19285,7 +19288,7 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>80</v>
@@ -19296,7 +19299,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -19319,16 +19322,16 @@
         <v>89</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -19378,7 +19381,7 @@
         <v>80</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>78</v>
@@ -19399,7 +19402,7 @@
         <v>80</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>80</v>
@@ -19410,7 +19413,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -19436,13 +19439,13 @@
         <v>108</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -19471,10 +19474,10 @@
         <v>183</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>80</v>
@@ -19492,7 +19495,7 @@
         <v>80</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>78</v>
@@ -19513,7 +19516,7 @@
         <v>80</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>80</v>
@@ -19524,7 +19527,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -19550,13 +19553,13 @@
         <v>108</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -19586,7 +19589,7 @@
       </c>
       <c r="X134" s="2"/>
       <c r="Y134" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>80</v>
@@ -19604,7 +19607,7 @@
         <v>80</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>78</v>
@@ -19636,7 +19639,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -19659,16 +19662,16 @@
         <v>89</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -19718,7 +19721,7 @@
         <v>80</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>78</v>
@@ -19750,7 +19753,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -19776,16 +19779,16 @@
         <v>108</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>80</v>
@@ -19813,10 +19816,10 @@
         <v>183</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>80</v>
@@ -19834,7 +19837,7 @@
         <v>80</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>78</v>
@@ -19855,7 +19858,7 @@
         <v>80</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>80</v>
@@ -19866,7 +19869,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -19889,16 +19892,16 @@
         <v>89</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -19948,7 +19951,7 @@
         <v>80</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>78</v>
@@ -19969,7 +19972,7 @@
         <v>80</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>80</v>
@@ -19980,7 +19983,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -20006,13 +20009,13 @@
         <v>189</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -20041,10 +20044,10 @@
         <v>112</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>80</v>
@@ -20062,7 +20065,7 @@
         <v>80</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>78</v>
@@ -20083,7 +20086,7 @@
         <v>80</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>80</v>
@@ -20094,7 +20097,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -20120,13 +20123,13 @@
         <v>298</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -20176,7 +20179,7 @@
         <v>80</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>78</v>
@@ -20197,18 +20200,18 @@
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -20234,16 +20237,16 @@
         <v>189</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>80</v>
@@ -20271,10 +20274,10 @@
         <v>265</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>80</v>
@@ -20292,7 +20295,7 @@
         <v>80</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>78</v>
@@ -20313,18 +20316,18 @@
         <v>80</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -20350,10 +20353,10 @@
         <v>90</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -20436,7 +20439,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -20550,7 +20553,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -20576,16 +20579,16 @@
         <v>327</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>80</v>
@@ -20666,7 +20669,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -20692,10 +20695,10 @@
         <v>90</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -20778,7 +20781,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20892,7 +20895,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20918,23 +20921,23 @@
         <v>102</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="R146" t="s" s="2">
         <v>80</v>
@@ -21008,7 +21011,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -21034,13 +21037,13 @@
         <v>90</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -21122,7 +21125,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -21148,16 +21151,16 @@
         <v>108</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>80</v>
@@ -21238,7 +21241,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -21264,16 +21267,16 @@
         <v>90</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>80</v>
@@ -21354,7 +21357,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -21386,10 +21389,10 @@
         <v>368</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>80</v>
@@ -21470,7 +21473,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -21505,7 +21508,7 @@
         <v>376</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>80</v>
@@ -21586,7 +21589,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -21612,16 +21615,16 @@
         <v>189</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>80</v>
@@ -21649,10 +21652,10 @@
         <v>265</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>80</v>
@@ -21670,7 +21673,7 @@
         <v>80</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>78</v>
@@ -21691,18 +21694,18 @@
         <v>80</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -21728,10 +21731,10 @@
         <v>90</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -21814,7 +21817,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21928,7 +21931,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21954,16 +21957,16 @@
         <v>327</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>80</v>
@@ -22044,7 +22047,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -22070,10 +22073,10 @@
         <v>90</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -22156,7 +22159,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -22270,7 +22273,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -22296,23 +22299,23 @@
         <v>102</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="R158" t="s" s="2">
         <v>80</v>
@@ -22386,7 +22389,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -22412,13 +22415,13 @@
         <v>90</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -22500,7 +22503,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22526,16 +22529,16 @@
         <v>108</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>80</v>
@@ -22616,7 +22619,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22642,16 +22645,16 @@
         <v>90</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>80</v>
@@ -22732,7 +22735,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22764,10 +22767,10 @@
         <v>368</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>80</v>
@@ -22848,7 +22851,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22874,16 +22877,16 @@
         <v>90</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>376</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>80</v>
@@ -22964,7 +22967,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22990,16 +22993,16 @@
         <v>189</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>80</v>
@@ -23027,10 +23030,10 @@
         <v>265</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>80</v>
@@ -23048,7 +23051,7 @@
         <v>80</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>78</v>
@@ -23069,18 +23072,18 @@
         <v>80</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -23106,10 +23109,10 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -23192,7 +23195,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23306,7 +23309,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -23332,13 +23335,13 @@
         <v>327</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N167" t="s" s="2">
         <v>331</v>
@@ -23420,10 +23423,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>80</v>
@@ -23448,16 +23451,16 @@
         <v>327</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>80</v>
@@ -23538,7 +23541,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23564,10 +23567,10 @@
         <v>90</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -23650,7 +23653,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23764,7 +23767,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23790,23 +23793,23 @@
         <v>102</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>80</v>
@@ -23880,7 +23883,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23906,13 +23909,13 @@
         <v>90</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -23994,7 +23997,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -24020,16 +24023,16 @@
         <v>108</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>80</v>
@@ -24110,7 +24113,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24136,16 +24139,16 @@
         <v>90</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>80</v>
@@ -24226,7 +24229,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24258,10 +24261,10 @@
         <v>368</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>80</v>
@@ -24342,10 +24345,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>80</v>
@@ -24370,16 +24373,16 @@
         <v>327</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>80</v>
@@ -24460,7 +24463,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24486,10 +24489,10 @@
         <v>90</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -24572,7 +24575,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24686,7 +24689,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24712,23 +24715,23 @@
         <v>102</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="R179" t="s" s="2">
         <v>80</v>
@@ -24802,7 +24805,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24828,13 +24831,13 @@
         <v>90</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
@@ -24916,7 +24919,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24942,16 +24945,16 @@
         <v>108</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>80</v>
@@ -25032,7 +25035,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25058,16 +25061,16 @@
         <v>90</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>80</v>
@@ -25148,7 +25151,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25180,10 +25183,10 @@
         <v>368</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>80</v>
@@ -25264,7 +25267,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25290,16 +25293,16 @@
         <v>90</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M184" t="s" s="2">
         <v>376</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>80</v>
@@ -25380,7 +25383,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25403,13 +25406,13 @@
         <v>89</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -25460,7 +25463,7 @@
         <v>80</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>78</v>
@@ -25487,12 +25490,12 @@
         <v>80</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25518,10 +25521,10 @@
         <v>90</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -25604,7 +25607,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25718,7 +25721,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25744,16 +25747,16 @@
         <v>189</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25781,10 +25784,10 @@
         <v>265</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>80</v>
@@ -25802,7 +25805,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25829,12 +25832,12 @@
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25860,10 +25863,10 @@
         <v>90</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -25946,7 +25949,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -26060,7 +26063,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -26086,16 +26089,16 @@
         <v>327</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>80</v>
@@ -26176,7 +26179,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26202,10 +26205,10 @@
         <v>90</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -26288,7 +26291,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26402,7 +26405,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26428,23 +26431,23 @@
         <v>102</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="R194" t="s" s="2">
         <v>80</v>
@@ -26518,7 +26521,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26544,13 +26547,13 @@
         <v>90</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
@@ -26632,7 +26635,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26658,16 +26661,16 @@
         <v>108</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>80</v>
@@ -26748,7 +26751,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26774,16 +26777,16 @@
         <v>90</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>80</v>
@@ -26864,7 +26867,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26896,10 +26899,10 @@
         <v>368</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>80</v>
@@ -26980,7 +26983,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -27015,7 +27018,7 @@
         <v>376</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>80</v>
@@ -27096,7 +27099,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27119,19 +27122,19 @@
         <v>80</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27180,7 +27183,7 @@
         <v>80</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27192,7 +27195,7 @@
         <v>144</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>80</v>
@@ -27201,18 +27204,18 @@
         <v>80</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27324,7 +27327,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27438,7 +27441,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27461,19 +27464,19 @@
         <v>89</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>80</v>
@@ -27522,7 +27525,7 @@
         <v>80</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>78</v>
@@ -27543,18 +27546,18 @@
         <v>80</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27580,20 +27583,20 @@
         <v>108</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P204" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q204" t="s" s="2">
         <v>80</v>
@@ -27617,10 +27620,10 @@
         <v>183</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>80</v>
@@ -27638,7 +27641,7 @@
         <v>80</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>78</v>
@@ -27659,18 +27662,18 @@
         <v>80</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27696,14 +27699,14 @@
         <v>90</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>80</v>
@@ -27752,7 +27755,7 @@
         <v>80</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>78</v>
@@ -27773,18 +27776,18 @@
         <v>80</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27810,21 +27813,21 @@
         <v>102</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="R206" t="s" s="2">
         <v>80</v>
@@ -27866,7 +27869,7 @@
         <v>80</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>78</v>
@@ -27875,7 +27878,7 @@
         <v>88</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>100</v>
@@ -27887,18 +27890,18 @@
         <v>80</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27924,16 +27927,16 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>80</v>
@@ -27982,7 +27985,7 @@
         <v>80</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>78</v>
@@ -28003,18 +28006,18 @@
         <v>80</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -28037,19 +28040,19 @@
         <v>89</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -28098,7 +28101,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -28119,18 +28122,18 @@
         <v>80</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28242,7 +28245,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28356,7 +28359,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28379,13 +28382,13 @@
         <v>89</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
@@ -28436,7 +28439,7 @@
         <v>80</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>78</v>
@@ -28457,7 +28460,7 @@
         <v>80</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>80</v>
@@ -28468,7 +28471,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28580,7 +28583,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28694,7 +28697,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28717,19 +28720,19 @@
         <v>89</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>80</v>
@@ -28778,7 +28781,7 @@
         <v>80</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>78</v>
@@ -28799,18 +28802,18 @@
         <v>80</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28836,20 +28839,20 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P215" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q215" t="s" s="2">
         <v>80</v>
@@ -28873,10 +28876,10 @@
         <v>183</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28894,7 +28897,7 @@
         <v>80</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>78</v>
@@ -28915,18 +28918,18 @@
         <v>80</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28952,14 +28955,14 @@
         <v>90</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -29008,7 +29011,7 @@
         <v>80</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -29029,18 +29032,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29066,21 +29069,21 @@
         <v>102</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M217" s="2"/>
       <c r="N217" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="R217" t="s" s="2">
         <v>80</v>
@@ -29122,7 +29125,7 @@
         <v>80</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>78</v>
@@ -29131,7 +29134,7 @@
         <v>88</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>100</v>
@@ -29143,18 +29146,18 @@
         <v>80</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29180,16 +29183,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29238,7 +29241,7 @@
         <v>80</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>78</v>
@@ -29259,18 +29262,18 @@
         <v>80</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29293,13 +29296,13 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -29350,7 +29353,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29371,7 +29374,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29382,7 +29385,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29494,7 +29497,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29608,7 +29611,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29631,19 +29634,19 @@
         <v>89</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>80</v>
@@ -29692,7 +29695,7 @@
         <v>80</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>78</v>
@@ -29713,18 +29716,18 @@
         <v>80</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN222" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29750,20 +29753,20 @@
         <v>108</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P223" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q223" t="s" s="2">
         <v>80</v>
@@ -29787,10 +29790,10 @@
         <v>183</v>
       </c>
       <c r="X223" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z223" t="s" s="2">
         <v>80</v>
@@ -29808,7 +29811,7 @@
         <v>80</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>78</v>
@@ -29829,18 +29832,18 @@
         <v>80</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29866,21 +29869,21 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P224" s="2"/>
       <c r="Q224" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="R224" t="s" s="2">
         <v>80</v>
@@ -29922,7 +29925,7 @@
         <v>80</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>78</v>
@@ -29943,18 +29946,18 @@
         <v>80</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29980,21 +29983,21 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P225" s="2"/>
       <c r="Q225" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="R225" t="s" s="2">
         <v>80</v>
@@ -30036,7 +30039,7 @@
         <v>80</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>78</v>
@@ -30045,7 +30048,7 @@
         <v>88</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI225" t="s" s="2">
         <v>100</v>
@@ -30057,18 +30060,18 @@
         <v>80</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30094,23 +30097,23 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P226" s="2"/>
       <c r="Q226" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R226" t="s" s="2">
         <v>80</v>
@@ -30152,7 +30155,7 @@
         <v>80</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>78</v>
@@ -30173,18 +30176,18 @@
         <v>80</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN226" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30207,19 +30210,19 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30268,7 +30271,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30289,18 +30292,18 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30326,10 +30329,10 @@
         <v>90</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -30412,7 +30415,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30526,7 +30529,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30549,16 +30552,16 @@
         <v>89</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
@@ -30608,7 +30611,7 @@
         <v>80</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>78</v>
@@ -30629,7 +30632,7 @@
         <v>80</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>80</v>
@@ -30640,7 +30643,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30666,10 +30669,10 @@
         <v>90</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -30752,7 +30755,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30866,7 +30869,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30889,19 +30892,19 @@
         <v>89</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>80</v>
@@ -30950,7 +30953,7 @@
         <v>80</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>78</v>
@@ -30971,18 +30974,18 @@
         <v>80</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -31008,22 +31011,22 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P234" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q234" t="s" s="2">
         <v>80</v>
@@ -31047,10 +31050,10 @@
         <v>183</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>80</v>
@@ -31068,7 +31071,7 @@
         <v>80</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>78</v>
@@ -31089,18 +31092,18 @@
         <v>80</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31126,16 +31129,16 @@
         <v>90</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>80</v>
@@ -31184,7 +31187,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31205,18 +31208,18 @@
         <v>80</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN235" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31242,16 +31245,16 @@
         <v>102</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M236" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>80</v>
@@ -31300,7 +31303,7 @@
         <v>80</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>78</v>
@@ -31309,7 +31312,7 @@
         <v>88</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI236" t="s" s="2">
         <v>100</v>
@@ -31321,18 +31324,18 @@
         <v>80</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN236" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31358,16 +31361,16 @@
         <v>108</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>80</v>
@@ -31416,7 +31419,7 @@
         <v>80</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>78</v>
@@ -31437,18 +31440,18 @@
         <v>80</v>
       </c>
       <c r="AL237" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM237" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN237" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -31471,16 +31474,16 @@
         <v>89</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
@@ -31530,7 +31533,7 @@
         <v>80</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>78</v>
@@ -31551,7 +31554,7 @@
         <v>80</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>80</v>
@@ -31562,7 +31565,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31588,10 +31591,10 @@
         <v>90</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -31674,7 +31677,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31788,7 +31791,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31811,19 +31814,19 @@
         <v>89</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>80</v>
@@ -31872,7 +31875,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>78</v>
@@ -31893,18 +31896,18 @@
         <v>80</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN241" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31930,22 +31933,22 @@
         <v>108</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P242" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q242" t="s" s="2">
         <v>80</v>
@@ -31969,10 +31972,10 @@
         <v>183</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>80</v>
@@ -31990,7 +31993,7 @@
         <v>80</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -32011,18 +32014,18 @@
         <v>80</v>
       </c>
       <c r="AL242" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM242" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -32048,16 +32051,16 @@
         <v>90</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>80</v>
@@ -32106,7 +32109,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32127,18 +32130,18 @@
         <v>80</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN243" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32164,16 +32167,16 @@
         <v>102</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M244" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>80</v>
@@ -32222,7 +32225,7 @@
         <v>80</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>78</v>
@@ -32231,7 +32234,7 @@
         <v>88</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI244" t="s" s="2">
         <v>100</v>
@@ -32243,18 +32246,18 @@
         <v>80</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN244" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32280,16 +32283,16 @@
         <v>108</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>80</v>
@@ -32338,7 +32341,7 @@
         <v>80</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>78</v>
@@ -32359,18 +32362,18 @@
         <v>80</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN245" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32393,19 +32396,19 @@
         <v>89</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>80</v>
@@ -32454,7 +32457,7 @@
         <v>80</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>78</v>
@@ -32475,7 +32478,7 @@
         <v>80</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>80</v>
@@ -32486,7 +32489,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32512,10 +32515,10 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -32598,7 +32601,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -32712,7 +32715,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32735,19 +32738,19 @@
         <v>89</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>80</v>
@@ -32796,7 +32799,7 @@
         <v>80</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>78</v>
@@ -32817,18 +32820,18 @@
         <v>80</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM249" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN249" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32854,22 +32857,22 @@
         <v>108</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P250" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q250" t="s" s="2">
         <v>80</v>
@@ -32893,10 +32896,10 @@
         <v>183</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>80</v>
@@ -32914,7 +32917,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32935,18 +32938,18 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN250" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32972,16 +32975,16 @@
         <v>90</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>80</v>
@@ -33030,7 +33033,7 @@
         <v>80</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>78</v>
@@ -33051,18 +33054,18 @@
         <v>80</v>
       </c>
       <c r="AL251" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM251" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN251" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33088,16 +33091,16 @@
         <v>102</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M252" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>80</v>
@@ -33146,7 +33149,7 @@
         <v>80</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>78</v>
@@ -33155,7 +33158,7 @@
         <v>88</v>
       </c>
       <c r="AH252" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI252" t="s" s="2">
         <v>100</v>
@@ -33167,18 +33170,18 @@
         <v>80</v>
       </c>
       <c r="AL252" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM252" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN252" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33204,16 +33207,16 @@
         <v>108</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>80</v>
@@ -33262,7 +33265,7 @@
         <v>80</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>78</v>
@@ -33283,18 +33286,18 @@
         <v>80</v>
       </c>
       <c r="AL253" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM253" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN253" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33317,19 +33320,19 @@
         <v>89</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>80</v>
@@ -33378,7 +33381,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33399,7 +33402,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33410,7 +33413,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33436,10 +33439,10 @@
         <v>90</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -33522,7 +33525,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33636,7 +33639,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33659,19 +33662,19 @@
         <v>89</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33720,7 +33723,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33741,18 +33744,18 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33778,22 +33781,22 @@
         <v>108</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P258" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q258" t="s" s="2">
         <v>80</v>
@@ -33817,10 +33820,10 @@
         <v>183</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>80</v>
@@ -33838,7 +33841,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33859,18 +33862,18 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33896,16 +33899,16 @@
         <v>90</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>80</v>
@@ -33954,7 +33957,7 @@
         <v>80</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>78</v>
@@ -33975,18 +33978,18 @@
         <v>80</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN259" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -34012,16 +34015,16 @@
         <v>102</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M260" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>80</v>
@@ -34070,7 +34073,7 @@
         <v>80</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>78</v>
@@ -34079,7 +34082,7 @@
         <v>88</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI260" t="s" s="2">
         <v>100</v>
@@ -34091,18 +34094,18 @@
         <v>80</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN260" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34128,16 +34131,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34186,7 +34189,7 @@
         <v>80</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>78</v>
@@ -34207,18 +34210,18 @@
         <v>80</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN261" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34241,13 +34244,13 @@
         <v>80</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -34298,7 +34301,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34316,10 +34319,10 @@
         <v>80</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34330,7 +34333,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34359,7 +34362,7 @@
         <v>394</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -34442,7 +34445,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34552,10 +34555,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C265" t="s" s="2">
         <v>80</v>
@@ -34577,13 +34580,13 @@
         <v>80</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
@@ -34666,7 +34669,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34778,7 +34781,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34890,7 +34893,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34916,13 +34919,13 @@
         <v>102</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" t="s" s="2">
@@ -34930,7 +34933,7 @@
       </c>
       <c r="P268" s="2"/>
       <c r="Q268" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="R268" t="s" s="2">
         <v>80</v>
@@ -34972,7 +34975,7 @@
         <v>80</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>88</v>
@@ -35004,7 +35007,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -35030,10 +35033,10 @@
         <v>189</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
@@ -35084,7 +35087,7 @@
         <v>80</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>78</v>
@@ -35116,10 +35119,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C270" t="s" s="2">
         <v>80</v>
@@ -35141,13 +35144,13 @@
         <v>80</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -35230,11 +35233,11 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -35256,10 +35259,10 @@
         <v>133</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M271" t="s" s="2">
         <v>149</v>
@@ -35314,7 +35317,7 @@
         <v>80</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>78</v>
@@ -35346,7 +35349,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35369,16 +35372,16 @@
         <v>80</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" t="s" s="2">
@@ -35428,7 +35431,7 @@
         <v>80</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>78</v>
@@ -35449,7 +35452,7 @@
         <v>80</v>
       </c>
       <c r="AL272" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="AM272" t="s" s="2">
         <v>80</v>
@@ -35460,7 +35463,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35489,7 +35492,7 @@
         <v>394</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -35572,7 +35575,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35686,11 +35689,11 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -35712,10 +35715,10 @@
         <v>133</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M275" t="s" s="2">
         <v>149</v>
@@ -35770,7 +35773,7 @@
         <v>80</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>78</v>
@@ -35802,7 +35805,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35825,16 +35828,16 @@
         <v>80</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
@@ -35884,7 +35887,7 @@
         <v>80</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>78</v>
@@ -35905,7 +35908,7 @@
         <v>80</v>
       </c>
       <c r="AL276" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="AM276" t="s" s="2">
         <v>80</v>
@@ -35916,7 +35919,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35942,10 +35945,10 @@
         <v>90</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -36028,7 +36031,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36142,7 +36145,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36165,19 +36168,19 @@
         <v>89</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>80</v>
@@ -36226,7 +36229,7 @@
         <v>80</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>78</v>
@@ -36247,18 +36250,18 @@
         <v>80</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN279" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36284,22 +36287,22 @@
         <v>108</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P280" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q280" t="s" s="2">
         <v>80</v>
@@ -36323,10 +36326,10 @@
         <v>183</v>
       </c>
       <c r="X280" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>80</v>
@@ -36344,7 +36347,7 @@
         <v>80</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>78</v>
@@ -36365,18 +36368,18 @@
         <v>80</v>
       </c>
       <c r="AL280" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM280" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN280" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36402,16 +36405,16 @@
         <v>90</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36460,7 +36463,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36481,18 +36484,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36518,16 +36521,16 @@
         <v>102</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M282" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>80</v>
@@ -36576,7 +36579,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36585,7 +36588,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36597,18 +36600,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36634,16 +36637,16 @@
         <v>108</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>80</v>
@@ -36692,7 +36695,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36713,18 +36716,18 @@
         <v>80</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36747,16 +36750,16 @@
         <v>80</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
@@ -36806,7 +36809,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36827,7 +36830,7 @@
         <v>80</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
@@ -36838,7 +36841,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36864,10 +36867,10 @@
         <v>90</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -36950,7 +36953,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -37064,7 +37067,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37087,19 +37090,19 @@
         <v>89</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>80</v>
@@ -37148,7 +37151,7 @@
         <v>80</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>78</v>
@@ -37169,18 +37172,18 @@
         <v>80</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37206,22 +37209,22 @@
         <v>108</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P288" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q288" t="s" s="2">
         <v>80</v>
@@ -37245,10 +37248,10 @@
         <v>183</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>80</v>
@@ -37266,7 +37269,7 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>78</v>
@@ -37287,18 +37290,18 @@
         <v>80</v>
       </c>
       <c r="AL288" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN288" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37324,16 +37327,16 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>80</v>
@@ -37382,7 +37385,7 @@
         <v>80</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37403,18 +37406,18 @@
         <v>80</v>
       </c>
       <c r="AL289" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37440,16 +37443,16 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>80</v>
@@ -37498,7 +37501,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37507,7 +37510,7 @@
         <v>88</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>100</v>
@@ -37519,18 +37522,18 @@
         <v>80</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM290" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN290" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37556,16 +37559,16 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -37614,7 +37617,7 @@
         <v>80</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>78</v>
@@ -37635,18 +37638,18 @@
         <v>80</v>
       </c>
       <c r="AL291" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM291" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN291" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37669,16 +37672,16 @@
         <v>80</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
@@ -37728,7 +37731,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37749,7 +37752,7 @@
         <v>80</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
@@ -37760,7 +37763,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37786,10 +37789,10 @@
         <v>90</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
@@ -37872,7 +37875,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37986,7 +37989,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -38009,19 +38012,19 @@
         <v>89</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>80</v>
@@ -38070,7 +38073,7 @@
         <v>80</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>78</v>
@@ -38091,18 +38094,18 @@
         <v>80</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38128,22 +38131,22 @@
         <v>108</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P296" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q296" t="s" s="2">
         <v>80</v>
@@ -38167,10 +38170,10 @@
         <v>183</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>80</v>
@@ -38188,7 +38191,7 @@
         <v>80</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>78</v>
@@ -38209,18 +38212,18 @@
         <v>80</v>
       </c>
       <c r="AL296" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN296" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38246,16 +38249,16 @@
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>80</v>
@@ -38304,7 +38307,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38325,18 +38328,18 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN297" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38362,16 +38365,16 @@
         <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>80</v>
@@ -38420,7 +38423,7 @@
         <v>80</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>78</v>
@@ -38429,7 +38432,7 @@
         <v>88</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>100</v>
@@ -38441,18 +38444,18 @@
         <v>80</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN298" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38478,16 +38481,16 @@
         <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
@@ -38536,7 +38539,7 @@
         <v>80</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>78</v>
@@ -38557,18 +38560,18 @@
         <v>80</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN299" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38594,16 +38597,16 @@
         <v>218</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>80</v>
@@ -38652,7 +38655,7 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>78</v>
@@ -38670,10 +38673,10 @@
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>80</v>
@@ -38684,7 +38687,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38710,10 +38713,10 @@
         <v>90</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38796,7 +38799,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38910,7 +38913,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38936,13 +38939,13 @@
         <v>438</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="N303" s="2"/>
       <c r="O303" t="s" s="2">
@@ -38992,7 +38995,7 @@
         <v>80</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>78</v>
@@ -39001,7 +39004,7 @@
         <v>88</v>
       </c>
       <c r="AH303" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="AI303" t="s" s="2">
         <v>100</v>
@@ -39013,18 +39016,18 @@
         <v>80</v>
       </c>
       <c r="AL303" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="AM303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN303" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39050,20 +39053,20 @@
         <v>438</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="N304" s="2"/>
       <c r="O304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P304" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q304" t="s" s="2">
         <v>80</v>
@@ -39108,7 +39111,7 @@
         <v>80</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>78</v>
@@ -39117,7 +39120,7 @@
         <v>88</v>
       </c>
       <c r="AH304" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="AI304" t="s" s="2">
         <v>100</v>
@@ -39129,18 +39132,18 @@
         <v>80</v>
       </c>
       <c r="AL304" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="AM304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN304" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39163,16 +39166,16 @@
         <v>80</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39222,7 +39225,7 @@
         <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>78</v>
@@ -39240,21 +39243,21 @@
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39277,16 +39280,16 @@
         <v>80</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N306" s="2"/>
       <c r="O306" t="s" s="2">
@@ -39336,7 +39339,7 @@
         <v>80</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>78</v>
@@ -39354,21 +39357,21 @@
         <v>80</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="AL306" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="AM306" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN306" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39394,10 +39397,10 @@
         <v>90</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
@@ -39480,7 +39483,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39594,7 +39597,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39617,19 +39620,19 @@
         <v>89</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>80</v>
@@ -39678,7 +39681,7 @@
         <v>80</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>78</v>
@@ -39699,18 +39702,18 @@
         <v>80</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM309" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN309" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39736,22 +39739,22 @@
         <v>108</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P310" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q310" t="s" s="2">
         <v>80</v>
@@ -39775,10 +39778,10 @@
         <v>183</v>
       </c>
       <c r="X310" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z310" t="s" s="2">
         <v>80</v>
@@ -39796,7 +39799,7 @@
         <v>80</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>78</v>
@@ -39817,18 +39820,18 @@
         <v>80</v>
       </c>
       <c r="AL310" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM310" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN310" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39854,16 +39857,16 @@
         <v>90</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>80</v>
@@ -39912,7 +39915,7 @@
         <v>80</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>78</v>
@@ -39933,18 +39936,18 @@
         <v>80</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN311" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39970,23 +39973,23 @@
         <v>102</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M312" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P312" s="2"/>
       <c r="Q312" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="R312" t="s" s="2">
         <v>80</v>
@@ -40028,7 +40031,7 @@
         <v>80</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>78</v>
@@ -40037,7 +40040,7 @@
         <v>88</v>
       </c>
       <c r="AH312" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI312" t="s" s="2">
         <v>100</v>
@@ -40049,18 +40052,18 @@
         <v>80</v>
       </c>
       <c r="AL312" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM312" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN312" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40086,16 +40089,16 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>80</v>
@@ -40144,7 +40147,7 @@
         <v>80</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>78</v>
@@ -40165,18 +40168,18 @@
         <v>80</v>
       </c>
       <c r="AL313" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM313" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN313" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40199,16 +40202,16 @@
         <v>80</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" t="s" s="2">
@@ -40258,7 +40261,7 @@
         <v>80</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>78</v>
@@ -40276,10 +40279,10 @@
         <v>80</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="AM314" t="s" s="2">
         <v>80</v>
@@ -40290,7 +40293,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40316,10 +40319,10 @@
         <v>90</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
@@ -40402,7 +40405,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40516,7 +40519,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40539,19 +40542,19 @@
         <v>89</v>
       </c>
       <c r="J317" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>80</v>
@@ -40600,7 +40603,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40621,18 +40624,18 @@
         <v>80</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN317" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40658,22 +40661,22 @@
         <v>108</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P318" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q318" t="s" s="2">
         <v>80</v>
@@ -40697,10 +40700,10 @@
         <v>183</v>
       </c>
       <c r="X318" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y318" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z318" t="s" s="2">
         <v>80</v>
@@ -40718,7 +40721,7 @@
         <v>80</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>78</v>
@@ -40739,18 +40742,18 @@
         <v>80</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN318" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40776,23 +40779,23 @@
         <v>90</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="R319" t="s" s="2">
         <v>80</v>
@@ -40834,7 +40837,7 @@
         <v>80</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>78</v>
@@ -40855,18 +40858,18 @@
         <v>80</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN319" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40892,23 +40895,23 @@
         <v>102</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="M320" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="R320" t="s" s="2">
         <v>80</v>
@@ -40950,7 +40953,7 @@
         <v>80</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>78</v>
@@ -40959,7 +40962,7 @@
         <v>88</v>
       </c>
       <c r="AH320" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AI320" t="s" s="2">
         <v>100</v>
@@ -40971,18 +40974,18 @@
         <v>80</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN320" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -41008,23 +41011,23 @@
         <v>108</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P321" s="2"/>
       <c r="Q321" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R321" t="s" s="2">
         <v>80</v>
@@ -41066,7 +41069,7 @@
         <v>80</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>78</v>
@@ -41087,18 +41090,18 @@
         <v>80</v>
       </c>
       <c r="AL321" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM321" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN321" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -41124,10 +41127,10 @@
         <v>225</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="M322" t="s" s="2">
         <v>434</v>
@@ -41180,7 +41183,7 @@
         <v>80</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>78</v>
@@ -41201,7 +41204,7 @@
         <v>80</v>
       </c>
       <c r="AL322" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="AM322" t="s" s="2">
         <v>472</v>
@@ -41212,7 +41215,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41235,13 +41238,13 @@
         <v>80</v>
       </c>
       <c r="J323" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -41292,7 +41295,7 @@
         <v>80</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>78</v>
@@ -41310,10 +41313,10 @@
         <v>80</v>
       </c>
       <c r="AK323" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AL323" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="AM323" t="s" s="2">
         <v>80</v>
@@ -41324,7 +41327,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41436,7 +41439,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41550,11 +41553,11 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -41576,10 +41579,10 @@
         <v>133</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M326" t="s" s="2">
         <v>149</v>
@@ -41634,7 +41637,7 @@
         <v>80</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>78</v>
@@ -41666,7 +41669,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41692,13 +41695,13 @@
         <v>189</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" t="s" s="2">
@@ -41727,10 +41730,10 @@
         <v>265</v>
       </c>
       <c r="X327" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="Y327" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="Z327" t="s" s="2">
         <v>80</v>
@@ -41748,7 +41751,7 @@
         <v>80</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>88</v>
@@ -41766,21 +41769,21 @@
         <v>80</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN327" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -41892,7 +41895,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -42006,7 +42009,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -42032,13 +42035,13 @@
         <v>327</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N330" t="s" s="2">
         <v>331</v>
@@ -42122,7 +42125,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -42234,7 +42237,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -42348,7 +42351,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -42374,10 +42377,10 @@
         <v>102</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="M333" t="s" s="2">
         <v>340</v>
@@ -42390,7 +42393,7 @@
       </c>
       <c r="P333" s="2"/>
       <c r="Q333" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="R333" t="s" s="2">
         <v>80</v>
@@ -42464,7 +42467,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -42578,7 +42581,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -42604,10 +42607,10 @@
         <v>108</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="M335" s="2"/>
       <c r="N335" t="s" s="2">
@@ -42692,7 +42695,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -42718,10 +42721,10 @@
         <v>90</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
@@ -42806,7 +42809,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -42832,13 +42835,13 @@
         <v>298</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="N337" t="s" s="2">
         <v>369</v>
@@ -42922,7 +42925,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -42948,13 +42951,13 @@
         <v>90</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="N338" t="s" s="2">
         <v>377</v>
@@ -43038,7 +43041,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -43064,13 +43067,13 @@
         <v>189</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" t="s" s="2">
@@ -43099,10 +43102,10 @@
         <v>265</v>
       </c>
       <c r="X339" t="s" s="2">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="Y339" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="Z339" t="s" s="2">
         <v>80</v>
@@ -43120,7 +43123,7 @@
         <v>80</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>78</v>
@@ -43138,21 +43141,21 @@
         <v>80</v>
       </c>
       <c r="AK339" t="s" s="2">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AL339" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AM339" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN339" t="s" s="2">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -43175,13 +43178,13 @@
         <v>80</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="M340" t="s" s="2">
         <v>434</v>
@@ -43234,7 +43237,7 @@
         <v>80</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>78</v>
@@ -43249,13 +43252,13 @@
         <v>100</v>
       </c>
       <c r="AJ340" t="s" s="2">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="AK340" t="s" s="2">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AL340" t="s" s="2">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AM340" t="s" s="2">
         <v>80</v>
@@ -43266,11 +43269,11 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -43289,16 +43292,16 @@
         <v>80</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="N341" s="2"/>
       <c r="O341" t="s" s="2">
@@ -43348,7 +43351,7 @@
         <v>80</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>78</v>
@@ -43369,7 +43372,7 @@
         <v>80</v>
       </c>
       <c r="AL341" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="AM341" t="s" s="2">
         <v>80</v>
@@ -43380,7 +43383,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -43403,16 +43406,16 @@
         <v>80</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="N342" s="2"/>
       <c r="O342" t="s" s="2">
@@ -43462,7 +43465,7 @@
         <v>80</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>78</v>
@@ -43477,13 +43480,13 @@
         <v>100</v>
       </c>
       <c r="AJ342" t="s" s="2">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="AK342" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL342" t="s" s="2">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AM342" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -638,10 +638,10 @@
     <t>MedicationRequest.identifier.system</t>
   </si>
   <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)についてのsystem値</t>
-  </si>
-  <si>
-    <t>【JP-CORE】ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -668,13 +668,13 @@
     <t>MedicationRequest.identifier.value</t>
   </si>
   <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)</t>
-  </si>
-  <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)。"1"など。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
   </si>
   <si>
     <t>123456</t>
@@ -739,16 +739,16 @@
     <t>orderInRp</t>
   </si>
   <si>
-    <t>【JP-CORE】同一RP番号（剤グループ）での薬剤の表記順</t>
-  </si>
-  <si>
-    <t>【JP-CORE】同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】RP番号内（剤グループ内）の連番を示すsystem値</t>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
   </si>
   <si>
     <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
@@ -757,7 +757,7 @@
     <t>urn:oid:1.2.392.100495.20.3.82</t>
   </si>
   <si>
-    <t>【JP-CORE】RP番号内（剤グループ内）の連番</t>
+    <t>RP番号内（剤グループ内）の連番</t>
   </si>
   <si>
     <t>剤グループ内連番。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1849,10 +1849,10 @@
     <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
   </si>
   <si>
-    <t>患者に対する補足指示や注意。たとえば、「食事と一緒に」「眠くなることがあります」</t>
-  </si>
-  <si>
-    <t>どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがあります」や「日光や紫外線が皮膚にあたららないようにすること」）</t>
+    <t>患者に対する補足指示や注意。たとえば、「食事と一緒に」「眠くなることがある」</t>
+  </si>
+  <si>
+    <t>どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがある」や「日光や紫外線が皮膚にあたららないようにすること」）</t>
   </si>
   <si>
     <t>薬剤投与や調剤についての情報（たとえば、「腹膜内ポートに可能な限り迅速に注入」や「薬剤Xの直後に」）であり、dosage.textにも複製されるべきである。</t>
@@ -2489,7 +2489,7 @@
     <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
-    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれません)はコードを上書きして適用される。</t>
+    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
   </si>
   <si>
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
@@ -2938,7 +2938,7 @@
     <t>1回投与量</t>
   </si>
   <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができます。</t>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -3625,13 +3625,13 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t>許可された払い出し回数</t>
-  </si>
-  <si>
-    <t>最初の払い出しに追加で許可された払い出し回数（リフィル、日本では分割処方であるが制度的に一致しない)を示す整数であり、患者が処方された薬を受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回繰り返し調剤可」であれば、このオーダーで合計4回、120錠が患者に受け渡される。処方者は0回のリフィルが許可されていると示すことで、初回の払い出し以外を認めないことを明示することができる。</t>
-  </si>
-  <si>
-    <t>もし、許可された払い出し回数を表示するのであれば、この数字に1を足すこと。</t>
+    <t>許可されたリフィル回数</t>
+  </si>
+  <si>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+  </si>
+  <si>
+    <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12440" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12439" uniqueCount="1280">
   <si>
     <t>Property</t>
   </si>
@@ -4211,9 +4211,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -265,8 +265,8 @@
     <t>患者への薬の供給と内服・外用薬剤処方の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +310,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +349,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,13 +381,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -445,8 +445,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>preparation</t>
@@ -473,17 +473,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -544,10 +545,10 @@
     <t>MedicationRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -559,10 +560,10 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -574,22 +575,22 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -608,22 +609,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -644,10 +645,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -696,10 +697,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -718,13 +719,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -772,31 +773,31 @@
     <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+    <t>アクティブ|オンホールド|キャンセル|完了|エラーに入った|停止|ドラフト|わからない / active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
     <t>JP Coreでは"active"に固定される。
@@ -806,7 +807,7 @@
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
   </si>
   <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+    <t>処方イベントの状態を指定するコード化された概念。処方箋のライフサイクルについて説明します。 / A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
@@ -839,7 +840,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Identifies the reasons for a given status.</t>
+    <t>特定のステータスの理由を特定します。 / Identifies the reasons for a given status.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
@@ -854,7 +855,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>提案|計画|注文|オリジナルオーダー|反射順|フィラーオーダー|インスタンスオーダー|オプション / proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>JP Coreでは "order" に固定される。
@@ -870,7 +871,7 @@
     <t>order</t>
   </si>
   <si>
-    <t>The kind of medication order.</t>
+    <t>種類の薬順。 / The kind of medication order.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
@@ -919,7 +920,7 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
+    <t>ルーチン|緊急|できるだけ早く|統計 / routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
@@ -928,7 +929,7 @@
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
   </si>
   <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+    <t>リクエストの実行に割り当てられる重要性のレベルを特定します。 / Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
@@ -985,16 +986,16 @@
 Reference</t>
   </si>
   <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
+    <t>服用する薬 / Medication to be taken</t>
+  </si>
+  <si>
+    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1063,7 +1064,7 @@
 【JP-CORE】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1084,16 +1085,16 @@
     <t>MedicationRequest.medication[x].coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1108,13 +1109,13 @@
     <t>MedicationRequest.medication[x].coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1129,13 +1130,13 @@
     <t>MedicationRequest.medication[x].coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1150,13 +1151,13 @@
     <t>MedicationRequest.medication[x].coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1177,7 +1178,7 @@
     <t>ユーザーが直接コーディングしたかどうかを示す。たとえば、有効な項目のリスト（コードか表現）から選択したかどうか。</t>
   </si>
   <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1201,7 +1202,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1301,7 +1302,7 @@
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
   </si>
   <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1334,13 +1335,13 @@
     <t>MedicationRequest.subject.display</t>
   </si>
   <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+    <t>リソースのテキスト代替 / Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>リソースリファレンスに加えてリソースを識別するプレーンテキストの叙述(Narative)。 / Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>これは通常、参照されるリソースのリソース.textと同じではありません。目的は、参照されているものを完全に説明するのではなく、特定することです。 / This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1479,7 +1480,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>Identifies the type of individual that is desired to administer the medication.</t>
+    <t>薬を投与することが望まれる個人のタイプを識別します。 / Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
@@ -1524,7 +1525,7 @@
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
   </si>
   <si>
-    <t>A coded concept indicating why the medication was ordered.</t>
+    <t>薬が注文された理由を示すコード化された概念。 / A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -1647,7 +1648,7 @@
     <t>この属性は薬剤プロトコールと混同してはならない。</t>
   </si>
   <si>
-    <t>Identifies the overall pattern of medication administratio.</t>
+    <t>投薬投与の全体的なパターンを特定します。 / Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
@@ -1787,10 +1788,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1861,7 +1863,7 @@
     <t>補足指示はコード化されるように意図されているが、コードがない場合はエレメントはテキストだけで表現することができる。たとえば、「大量の水で服用する」という指示はコード化されていることもあれば、されていないことおある。</t>
   </si>
   <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+    <t>「水で取る」や「重機の操作を避ける」などの追加の指示を識別するコード化された概念。 / A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
@@ -2030,7 +2032,7 @@
     <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
-    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -2058,8 +2060,8 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -2097,10 +2099,10 @@
 </t>
   </si>
   <si>
-    <t>Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+    <t>長さ/長さの範囲、または（開始および/または終了）制限 / Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>タイミングスケジュールの長さの期間、可能な長さの範囲、またはタイミングスケジュールの開始および/または終了制限の外側の境界のいずれか。 / Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].id</t>
@@ -2119,10 +2121,10 @@
     <t>投薬日数</t>
   </si>
   <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -2137,19 +2139,19 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -2173,7 +2175,7 @@
     <t>投薬日数の単位文字列。日で固定される</t>
   </si>
   <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -2197,7 +2199,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -2222,10 +2224,10 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -2253,7 +2255,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
+    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -2313,13 +2315,13 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
   </si>
   <si>
-    <t>A unit of time (units from UCUM).</t>
+    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -2343,7 +2345,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -2403,7 +2405,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
+    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -2452,7 +2454,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>Real world event relating to the schedule.</t>
+    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -2486,7 +2488,7 @@
     <t>MedicationRequest.dosageInstruction.timing.code</t>
   </si>
   <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -2495,7 +2497,7 @@
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
   </si>
   <si>
-    <t>Code for a known / defined timing pattern.</t>
+    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -2517,7 +2519,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -2541,10 +2543,10 @@
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。</t>
   </si>
   <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -2628,7 +2630,7 @@
     <t>治療薬剤が患者の体内に投与される生理学的な経路を特定するためのコード。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -2715,7 +2717,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -2739,13 +2741,13 @@
     <t>MedicationRequest.dosageInstruction.method.coding</t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -2868,7 +2870,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>The kind of dose or rate specified.</t>
+    <t>指定された用量またはレートの種類。 / The kind of dose or rate specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
@@ -2941,14 +2943,14 @@
     <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
+    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -2969,16 +2971,16 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].comparator</t>
   </si>
   <si>
-    <t>Not allowed to be used in this context</t>
+    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
+    <t>ユニット表現 / Unit representation</t>
+  </si>
+  <si>
+    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
@@ -3389,13 +3391,13 @@
     <t>MedicationRequest.dispenseRequest.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense</t>
@@ -3555,10 +3557,10 @@
     <t>このエレメントは処方の有効期間（処方が失効する日）を示す。</t>
   </si>
   <si>
-    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+    <t>それは、処方箋の妥当性に対する処方者の視点を反映しています。この期間以外の処方箋に対して分配してはなりません。分配ウィンドウの下限は、処方箋が初めて満たすことができる最も早い日付を意味します。上限が指定されていない場合、処方箋はオープンエンドであるか、規制に基づいて古い日付にデフォルトになります。 / It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>処方箋がいつ有効になるか、そしてそれが不可欠な処方箋であることを停止することを示します。 / Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
@@ -3610,7 +3612,7 @@
     <t>終了時刻は全ての日付・時刻に対応する。たとえば、2012-02-03T10:00:00は2012-02-03を終了時刻(end)の値とする期間を示す。</t>
   </si>
   <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
+    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -3797,7 +3799,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>Identifies the type of substitution allowed.</t>
+    <t>許可された置換の種類を識別します。 / Identifies the type of substitution allowed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -3860,25 +3862,25 @@
     <t>MedicationRequest.substitution.allowed[x].coding.userSelected</t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x].text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -3893,7 +3895,7 @@
     <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -4295,7 +4297,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="133.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4308,7 +4310,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -265,8 +265,8 @@
     <t>患者への薬の供給と内服・外用薬剤処方の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +310,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +349,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,13 +381,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -445,8 +445,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>preparation</t>
@@ -473,18 +473,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -545,10 +544,10 @@
     <t>MedicationRequest.identifier.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -560,10 +559,10 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -575,22 +574,22 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>この識別子の目的。 / The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -609,22 +608,22 @@
 </t>
   </si>
   <si>
-    <t>識別子の説明 / Description of identifier</t>
-  </si>
-  <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -645,10 +644,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -697,10 +696,10 @@
 </t>
   </si>
   <si>
-    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -719,13 +718,13 @@
 </t>
   </si>
   <si>
-    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -773,31 +772,31 @@
     <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
-    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>識別子値の名前空間 / The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
-    <t>一意の値 / The value that is unique</t>
-  </si>
-  <si>
-    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>アクティブ|オンホールド|キャンセル|完了|エラーに入った|停止|ドラフト|わからない / active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
     <t>JP Coreでは"active"に固定される。
@@ -807,7 +806,7 @@
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
   </si>
   <si>
-    <t>処方イベントの状態を指定するコード化された概念。処方箋のライフサイクルについて説明します。 / A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
@@ -840,7 +839,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>特定のステータスの理由を特定します。 / Identifies the reasons for a given status.</t>
+    <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
@@ -855,7 +854,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>提案|計画|注文|オリジナルオーダー|反射順|フィラーオーダー|インスタンスオーダー|オプション / proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>JP Coreでは "order" に固定される。
@@ -871,7 +870,7 @@
     <t>order</t>
   </si>
   <si>
-    <t>種類の薬順。 / The kind of medication order.</t>
+    <t>The kind of medication order.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
@@ -920,7 +919,7 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>ルーチン|緊急|できるだけ早く|統計 / routine | urgent | asap | stat</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
@@ -929,7 +928,7 @@
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
   </si>
   <si>
-    <t>リクエストの実行に割り当てられる重要性のレベルを特定します。 / Identifies the level of importance to be assigned to actioning the request.</t>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
@@ -986,16 +985,16 @@
 Reference</t>
   </si>
   <si>
-    <t>服用する薬 / Medication to be taken</t>
-  </si>
-  <si>
-    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1064,7 +1063,7 @@
 【JP-CORE】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1085,16 +1084,16 @@
     <t>MedicationRequest.medication[x].coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1109,13 +1108,13 @@
     <t>MedicationRequest.medication[x].coding.version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1130,13 +1129,13 @@
     <t>MedicationRequest.medication[x].coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1151,13 +1150,13 @@
     <t>MedicationRequest.medication[x].coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1178,7 +1177,7 @@
     <t>ユーザーが直接コーディングしたかどうかを示す。たとえば、有効な項目のリスト（コードか表現）から選択したかどうか。</t>
   </si>
   <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1202,7 +1201,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1302,7 +1301,7 @@
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
   </si>
   <si>
-    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1335,13 +1334,13 @@
     <t>MedicationRequest.subject.display</t>
   </si>
   <si>
-    <t>リソースのテキスト代替 / Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>リソースリファレンスに加えてリソースを識別するプレーンテキストの叙述(Narative)。 / Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>これは通常、参照されるリソースのリソース.textと同じではありません。目的は、参照されているものを完全に説明するのではなく、特定することです。 / This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1480,7 +1479,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>薬を投与することが望まれる個人のタイプを識別します。 / Identifies the type of individual that is desired to administer the medication.</t>
+    <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
@@ -1525,7 +1524,7 @@
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
   </si>
   <si>
-    <t>薬が注文された理由を示すコード化された概念。 / A coded concept indicating why the medication was ordered.</t>
+    <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -1648,7 +1647,7 @@
     <t>この属性は薬剤プロトコールと混同してはならない。</t>
   </si>
   <si>
-    <t>投薬投与の全体的なパターンを特定します。 / Identifies the overall pattern of medication administratio.</t>
+    <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
@@ -1788,11 +1787,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1863,7 +1861,7 @@
     <t>補足指示はコード化されるように意図されているが、コードがない場合はエレメントはテキストだけで表現することができる。たとえば、「大量の水で服用する」という指示はコード化されていることもあれば、されていないことおある。</t>
   </si>
   <si>
-    <t>「水で取る」や「重機の操作を避ける」などの追加の指示を識別するコード化された概念。 / A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
@@ -2032,7 +2030,7 @@
     <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
-    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -2060,8 +2058,8 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -2099,10 +2097,10 @@
 </t>
   </si>
   <si>
-    <t>長さ/長さの範囲、または（開始および/または終了）制限 / Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>タイミングスケジュールの長さの期間、可能な長さの範囲、またはタイミングスケジュールの開始および/または終了制限の外側の境界のいずれか。 / Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+    <t>Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].id</t>
@@ -2121,10 +2119,10 @@
     <t>投薬日数</t>
   </si>
   <si>
-    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -2139,19 +2137,19 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].comparator</t>
   </si>
   <si>
-    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -2175,7 +2173,7 @@
     <t>投薬日数の単位文字列。日で固定される</t>
   </si>
   <si>
-    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -2199,7 +2197,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
+    <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -2224,10 +2222,10 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -2255,7 +2253,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -2315,13 +2313,13 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
   </si>
   <si>
-    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
+    <t>A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -2345,7 +2343,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -2405,7 +2403,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -2454,7 +2452,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
+    <t>Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -2488,7 +2486,7 @@
     <t>MedicationRequest.dosageInstruction.timing.code</t>
   </si>
   <si>
-    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -2497,7 +2495,7 @@
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
   </si>
   <si>
-    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
+    <t>Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -2519,7 +2517,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -2543,10 +2541,10 @@
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。</t>
   </si>
   <si>
-    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -2630,7 +2628,7 @@
     <t>治療薬剤が患者の体内に投与される生理学的な経路を特定するためのコード。</t>
   </si>
   <si>
-    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -2717,7 +2715,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -2741,13 +2739,13 @@
     <t>MedicationRequest.dosageInstruction.method.coding</t>
   </si>
   <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -2870,7 +2868,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>指定された用量またはレートの種類。 / The kind of dose or rate specified.</t>
+    <t>The kind of dose or rate specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
@@ -2943,14 +2941,14 @@
     <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
-    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -2971,16 +2969,16 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].comparator</t>
   </si>
   <si>
-    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
+    <t>Not allowed to be used in this context</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>ユニット表現 / Unit representation</t>
-  </si>
-  <si>
-    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
@@ -3391,13 +3389,13 @@
     <t>MedicationRequest.dispenseRequest.extension.url</t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense</t>
@@ -3557,10 +3555,10 @@
     <t>このエレメントは処方の有効期間（処方が失効する日）を示す。</t>
   </si>
   <si>
-    <t>それは、処方箋の妥当性に対する処方者の視点を反映しています。この期間以外の処方箋に対して分配してはなりません。分配ウィンドウの下限は、処方箋が初めて満たすことができる最も早い日付を意味します。上限が指定されていない場合、処方箋はオープンエンドであるか、規制に基づいて古い日付にデフォルトになります。 / It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>処方箋がいつ有効になるか、そしてそれが不可欠な処方箋であることを停止することを示します。 / Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
@@ -3612,7 +3610,7 @@
     <t>終了時刻は全ての日付・時刻に対応する。たとえば、2012-02-03T10:00:00は2012-02-03を終了時刻(end)の値とする期間を示す。</t>
   </si>
   <si>
-    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -3799,7 +3797,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>許可された置換の種類を識別します。 / Identifies the type of substitution allowed.</t>
+    <t>Identifies the type of substitution allowed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -3862,25 +3860,25 @@
     <t>MedicationRequest.substitution.allowed[x].coding.userSelected</t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x].text</t>
   </si>
   <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -3895,7 +3893,7 @@
     <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
-    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -4297,7 +4295,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="133.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4310,7 +4308,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -2673,7 +2673,7 @@
     <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1060,7 +1060,7 @@
   </si>
   <si>
     <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP-CORE】Medication要素の説明を参照のこと。</t>
+【JP-Core仕様】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -736,6 +736,36 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダーに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>orderInRp</t>
   </si>
   <si>
@@ -761,36 +791,6 @@
   </si>
   <si>
     <t>剤グループ内連番。</t>
-  </si>
-  <si>
-    <t>requestIdentifier</t>
-  </si>
-  <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -6737,10 +6737,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -7080,7 +7080,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -7196,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>88</v>
@@ -7449,7 +7449,7 @@
         <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -7542,7 +7542,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -7654,7 +7654,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -7760,17 +7760,17 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -7785,13 +7785,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -8110,7 +8110,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -8226,7 +8226,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -8357,10 +8357,10 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>202</v>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -8473,13 +8473,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -8572,7 +8572,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -8684,7 +8684,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -27825,10 +27825,10 @@
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R206" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="R206" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>80</v>
@@ -29081,10 +29081,10 @@
       </c>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R217" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="R217" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>80</v>
@@ -39987,10 +39987,10 @@
       </c>
       <c r="P312" s="2"/>
       <c r="Q312" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R312" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="R312" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S312" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -833,7 +833,7 @@
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreaseonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -922,7 +922,7 @@
     <t>routine | urgent | asap | stat</t>
   </si>
   <si>
-    <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -1295,7 +1295,7 @@
   <si>
     <t>参照されるPatientが型として示される。
 一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させるべきである(SHALL)。
-型はResouce Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resouceに対しては指定できない。</t>
+型はResource Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resourceに対しては指定できない。</t>
   </si>
   <si>
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
@@ -1316,7 +1316,7 @@
     <t>文字列による参照が不明な場合の論理参照</t>
   </si>
   <si>
-    <t>対象となるresouceへのID。FHIRサーバを経由してこの参照が指定するEntityが指定できないか、実際の位置を示す既知のIDへとResourceを変換できない場合のように、ほかのresourceを直接参照することができない場合に使われる。Reference.identifireがFHIRインスタンスである何かを実際に示している必要はないが、FHIRインスタンスとして表現されると想定される業務概念を示されなくてはらならず(SHALL)、そのインスタンスは参照先のFHIRのResource型である必要がある。</t>
+    <t>対象となるresourceへのID。FHIRサーバを経由してこの参照が指定するEntityが指定できないか、実際の位置を示す既知のIDへとResourceを変換できない場合のように、ほかのresourceを直接参照することができない場合に使われる。Reference.identifierがFHIRインスタンスである何かを実際に示している必要はないが、FHIRインスタンスとして表現されると想定される業務概念を示されなくてはらならず(SHALL)、そのインスタンスは参照先のFHIRのResource型である必要がある。</t>
   </si>
   <si>
     <t>IDが参照として与えられている場合には、参照を処理するシステムはIDをIDが利用される業務コンテキストがわかっているかどうか参照を解決するためにしか利用することができない。このIDはグローバル(たとえば国民ID）であることもあるが、そうでないこともある。そのため、この参照を利用する有効な機構（たとえば、データを連鎖させたり、包含させるなど）、サーバが参照を解決することができるとも期待できない。サーバは到達できなかったり、解決できないあるいは拒否されるような参照でもIDとして受け取ることができる。CapabilityStatement.rest.resource.referencePolicyを参照のこと。
@@ -1388,7 +1388,7 @@
     <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
-    <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resouce型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
+    <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
   </si>
   <si>
     <t>Request.supportingInfo</t>
@@ -1620,7 +1620,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRerquestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダーを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1738,7 +1738,7 @@
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>usageDuration</t>
@@ -2667,10 +2667,10 @@
     <t>MedicationRequest.dosageInstruction.route.coding.system</t>
   </si>
   <si>
-    <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表</t>
-  </si>
-  <si>
-    <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
+    <t>HL7v2-0162表をベースにしたJP Coreでの投与経路コード表</t>
+  </si>
+  <si>
+    <t>HL7v2-0162表をベースにしたJP Coreでの投与経路コード表を示すURL</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
@@ -2938,7 +2938,7 @@
     <t>1回投与量</t>
   </si>
   <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
@@ -3013,7 +3013,7 @@
   </si>
   <si>
     <t>JP Coreでは日本ではまだ一般的に利用されている一日量での処方のためにrateRatioを用いる。
-薬剤の詳細な投与法、提供方法を伝えるために、投与速度(rate)とdoseQuantityの両方の情報を提供することができる。もし、投与速度が変更されるようであれば、ローカルルールや制限に基づいて、全ての変更は新しいバージョンのMeddicationRequestに更新された投与速度を記録するか、MedicationRequestの新しいインスタンスに新しい投与速度を記録されるようにするべきである。
+薬剤の詳細な投与法、提供方法を伝えるために、投与速度(rate)とdoseQuantityの両方の情報を提供することができる。もし、投与速度が変更されるようであれば、ローカルルールや制限に基づいて、全ての変更は新しいバージョンのMedicationRequestに更新された投与速度を記録するか、MedicationRequestの新しいインスタンスに新しい投与速度を記録されるようにするべきである。
 rateRatioとrateQuantityのいずれかを使って時間内の投与速度（たとえば100ml/hour)を指定することができる。rateQuantityを使うには、ml/hourが投与速度の単位と言うだけではなく、時間が分母として指定されているということを示しているというようなUCUM単位の文法をシステムがパース可能であることが求められる。500mlを2時間でというような投与速度指示では、rateRatioがrateQuantityで250mg/hourとするよりもセマンティクスを正確に伝えることができるかもしれない。</t>
   </si>
   <si>
@@ -3918,7 +3918,7 @@
     <t>前回のオーダー/処方</t>
   </si>
   <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resouceへのリンク。</t>
+    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -3963,7 +3963,7 @@
     <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
-    <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResouceに関連したProvenance resouceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
+    <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
   </si>
   <si>
     <t>Request.relevantHistory</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -900,7 +900,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>MedicationRequest Resourceの区分を示すコード化された概念。たとえば、どこで服薬あるいは投与されるか、治療の種別はどうかについて。FHIRでは</t>
+    <t>MedicationRequest Resourceの区分を示すコード化された概念。たとえば、どこで服薬あるいは投与されるか、治療の種別はどうかについて。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -21946,10 +21946,10 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>80</v>
@@ -26078,10 +26078,10 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>80</v>
@@ -43392,10 +43392,10 @@
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F342" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G342" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -26078,10 +26078,10 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1060,7 +1060,7 @@
   </si>
   <si>
     <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP-Core仕様】Medication要素の説明を参照のこと。</t>
+【JP Core仕様】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13334" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13330" uniqueCount="1298">
   <si>
     <t>Property</t>
   </si>
@@ -2999,7 +2999,7 @@
     <t>医薬品単位略号を識別するOID。固定値。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
@@ -3018,9 +3018,6 @@
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
@@ -3755,6 +3752,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -27493,7 +27493,7 @@
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F203" t="s" s="2">
         <v>88</v>
@@ -27725,7 +27725,7 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F205" t="s" s="2">
         <v>88</v>
@@ -27839,7 +27839,7 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F206" t="s" s="2">
         <v>88</v>
@@ -27874,28 +27874,26 @@
         <v>80</v>
       </c>
       <c r="R206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X206" s="2"/>
+      <c r="Y206" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S206" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T206" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U206" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V206" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W206" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X206" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y206" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>80</v>
@@ -28413,7 +28411,7 @@
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F211" t="s" s="2">
         <v>88</v>
@@ -28645,7 +28643,7 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F213" t="s" s="2">
         <v>88</v>
@@ -28759,7 +28757,7 @@
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F214" t="s" s="2">
         <v>88</v>
@@ -28794,28 +28792,26 @@
         <v>80</v>
       </c>
       <c r="R214" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S214" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X214" s="2"/>
+      <c r="Y214" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S214" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T214" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U214" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V214" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W214" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X214" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y214" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z214" t="s" s="2">
         <v>80</v>
@@ -28929,7 +28925,7 @@
       </c>
       <c r="X215" s="2"/>
       <c r="Y215" t="s" s="2">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28979,7 +28975,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -29002,19 +28998,19 @@
         <v>89</v>
       </c>
       <c r="J216" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="K216" t="s" s="2">
         <v>969</v>
       </c>
-      <c r="K216" t="s" s="2">
+      <c r="L216" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="M216" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -29061,7 +29057,7 @@
         <v>316</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -29082,18 +29078,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN216" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN216" t="s" s="2">
-        <v>976</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29205,7 +29201,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29319,7 +29315,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29327,7 +29323,7 @@
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F219" t="s" s="2">
         <v>88</v>
@@ -29345,10 +29341,10 @@
         <v>941</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -29399,7 +29395,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29420,7 +29416,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29431,7 +29427,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29543,7 +29539,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29657,7 +29653,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29665,7 +29661,7 @@
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F222" t="s" s="2">
         <v>88</v>
@@ -29683,10 +29679,10 @@
         <v>667</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>669</v>
@@ -29773,7 +29769,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29889,7 +29885,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29897,7 +29893,7 @@
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F224" t="s" s="2">
         <v>88</v>
@@ -29915,10 +29911,10 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
@@ -30003,7 +29999,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -30011,7 +30007,7 @@
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F225" t="s" s="2">
         <v>88</v>
@@ -30029,7 +30025,7 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L225" t="s" s="2">
         <v>959</v>
@@ -30046,28 +30042,26 @@
         <v>80</v>
       </c>
       <c r="R225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X225" s="2"/>
+      <c r="Y225" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -30117,7 +30111,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30233,7 +30227,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30259,10 +30253,10 @@
         <v>941</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>994</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>995</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -30313,7 +30307,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30334,7 +30328,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30345,10 +30339,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C228" t="s" s="2">
         <v>80</v>
@@ -30370,19 +30364,19 @@
         <v>89</v>
       </c>
       <c r="J228" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="K228" t="s" s="2">
         <v>969</v>
       </c>
-      <c r="K228" t="s" s="2">
+      <c r="L228" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="L228" t="s" s="2">
+      <c r="M228" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>80</v>
@@ -30431,7 +30425,7 @@
         <v>80</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>78</v>
@@ -30452,18 +30446,18 @@
         <v>80</v>
       </c>
       <c r="AL228" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN228" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="AM228" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>976</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30575,7 +30569,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30689,7 +30683,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30697,7 +30691,7 @@
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F231" t="s" s="2">
         <v>88</v>
@@ -30715,10 +30709,10 @@
         <v>941</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -30769,7 +30763,7 @@
         <v>80</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>78</v>
@@ -30790,7 +30784,7 @@
         <v>80</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>80</v>
@@ -30801,7 +30795,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30913,7 +30907,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -31027,7 +31021,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -31035,7 +31029,7 @@
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F234" t="s" s="2">
         <v>88</v>
@@ -31053,10 +31047,10 @@
         <v>667</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M234" t="s" s="2">
         <v>669</v>
@@ -31143,7 +31137,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31259,7 +31253,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31267,7 +31261,7 @@
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F236" t="s" s="2">
         <v>88</v>
@@ -31285,10 +31279,10 @@
         <v>90</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L236" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="L236" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
@@ -31373,7 +31367,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31381,7 +31375,7 @@
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F237" t="s" s="2">
         <v>88</v>
@@ -31399,7 +31393,7 @@
         <v>102</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L237" t="s" s="2">
         <v>959</v>
@@ -31416,28 +31410,26 @@
         <v>80</v>
       </c>
       <c r="R237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X237" s="2"/>
+      <c r="Y237" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y237" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z237" t="s" s="2">
         <v>80</v>
@@ -31487,7 +31479,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -31551,7 +31543,7 @@
       </c>
       <c r="X238" s="2"/>
       <c r="Y238" t="s" s="2">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="Z238" t="s" s="2">
         <v>80</v>
@@ -31601,7 +31593,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31627,10 +31619,10 @@
         <v>941</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>999</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>1000</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -31681,7 +31673,7 @@
         <v>80</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>78</v>
@@ -31702,7 +31694,7 @@
         <v>80</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AM239" t="s" s="2">
         <v>80</v>
@@ -31713,7 +31705,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31825,7 +31817,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31939,7 +31931,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31965,10 +31957,10 @@
         <v>667</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M242" t="s" s="2">
         <v>669</v>
@@ -32055,7 +32047,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -32171,7 +32163,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32197,10 +32189,10 @@
         <v>90</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
@@ -32285,7 +32277,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32311,10 +32303,10 @@
         <v>102</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
@@ -32399,7 +32391,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32425,10 +32417,10 @@
         <v>108</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L246" t="s" s="2">
         <v>1012</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>1013</v>
       </c>
       <c r="M246" t="s" s="2">
         <v>703</v>
@@ -32515,7 +32507,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32538,19 +32530,19 @@
         <v>89</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M247" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="L247" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="M247" t="s" s="2">
+      <c r="N247" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>80</v>
@@ -32599,7 +32591,7 @@
         <v>80</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>78</v>
@@ -32620,18 +32612,18 @@
         <v>80</v>
       </c>
       <c r="AL247" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="AM247" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN247" t="s" s="2">
         <v>1019</v>
-      </c>
-      <c r="AM247" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN247" t="s" s="2">
-        <v>1020</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -32743,7 +32735,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32857,7 +32849,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32883,13 +32875,13 @@
         <v>941</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="M250" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32939,7 +32931,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32960,7 +32952,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32971,7 +32963,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -33083,7 +33075,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33197,7 +33189,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33223,13 +33215,13 @@
         <v>667</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L253" t="s" s="2">
+      <c r="M253" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M253" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>670</v>
@@ -33313,7 +33305,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33339,16 +33331,16 @@
         <v>108</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>80</v>
@@ -33431,7 +33423,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33457,16 +33449,16 @@
         <v>90</v>
       </c>
       <c r="K255" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L255" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L255" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M255" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>80</v>
@@ -33547,7 +33539,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33573,16 +33565,16 @@
         <v>102</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M256" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>80</v>
@@ -33663,7 +33655,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33689,16 +33681,16 @@
         <v>108</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="M257" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="N257" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33779,7 +33771,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33805,13 +33797,13 @@
         <v>941</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
@@ -33861,7 +33853,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33882,7 +33874,7 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
@@ -33893,7 +33885,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -34005,7 +33997,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -34119,7 +34111,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34145,13 +34137,13 @@
         <v>667</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M261" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N261" t="s" s="2">
         <v>670</v>
@@ -34235,7 +34227,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34261,16 +34253,16 @@
         <v>108</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>80</v>
@@ -34353,7 +34345,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34379,16 +34371,16 @@
         <v>90</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>80</v>
@@ -34469,7 +34461,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34495,16 +34487,16 @@
         <v>102</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L264" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M264" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>80</v>
@@ -34585,7 +34577,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34611,16 +34603,16 @@
         <v>108</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L265" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L265" t="s" s="2">
+      <c r="M265" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M265" t="s" s="2">
+      <c r="N265" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34701,7 +34693,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34724,19 +34716,19 @@
         <v>89</v>
       </c>
       <c r="J266" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="K266" t="s" s="2">
         <v>1059</v>
       </c>
-      <c r="K266" t="s" s="2">
+      <c r="L266" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="M266" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="L266" t="s" s="2">
-        <v>1060</v>
-      </c>
-      <c r="M266" t="s" s="2">
+      <c r="N266" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
@@ -34785,7 +34777,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34806,7 +34798,7 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
@@ -34817,7 +34809,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34929,7 +34921,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -35043,7 +35035,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -35069,13 +35061,13 @@
         <v>667</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N269" t="s" s="2">
         <v>670</v>
@@ -35159,7 +35151,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35185,16 +35177,16 @@
         <v>108</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>80</v>
@@ -35277,7 +35269,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35303,16 +35295,16 @@
         <v>90</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M271" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>80</v>
@@ -35393,7 +35385,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35419,16 +35411,16 @@
         <v>102</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M272" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>80</v>
@@ -35509,7 +35501,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35535,16 +35527,16 @@
         <v>108</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L273" t="s" s="2">
+      <c r="M273" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M273" t="s" s="2">
+      <c r="N273" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35625,7 +35617,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35648,19 +35640,19 @@
         <v>89</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="L274" t="s" s="2">
         <v>1073</v>
       </c>
-      <c r="L274" t="s" s="2">
+      <c r="M274" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="N274" t="s" s="2">
         <v>1074</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>1075</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
@@ -35709,7 +35701,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35730,7 +35722,7 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
@@ -35741,7 +35733,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35853,7 +35845,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35967,7 +35959,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35993,13 +35985,13 @@
         <v>667</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="M277" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N277" t="s" s="2">
         <v>670</v>
@@ -36083,7 +36075,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36109,16 +36101,16 @@
         <v>108</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36201,7 +36193,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36227,16 +36219,16 @@
         <v>90</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M279" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>80</v>
@@ -36317,7 +36309,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36343,16 +36335,16 @@
         <v>102</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M280" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>80</v>
@@ -36433,7 +36425,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36459,16 +36451,16 @@
         <v>108</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M281" t="s" s="2">
+      <c r="N281" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36549,7 +36541,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36572,13 +36564,13 @@
         <v>80</v>
       </c>
       <c r="J282" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="K282" t="s" s="2">
         <v>1085</v>
       </c>
-      <c r="K282" t="s" s="2">
+      <c r="L282" t="s" s="2">
         <v>1086</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>1087</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -36629,7 +36621,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36647,10 +36639,10 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="AL282" t="s" s="2">
         <v>1088</v>
-      </c>
-      <c r="AL282" t="s" s="2">
-        <v>1089</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
@@ -36661,7 +36653,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36773,7 +36765,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36883,10 +36875,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B285" t="s" s="2">
         <v>1091</v>
-      </c>
-      <c r="B285" t="s" s="2">
-        <v>1092</v>
       </c>
       <c r="C285" t="s" s="2">
         <v>80</v>
@@ -36908,13 +36900,13 @@
         <v>80</v>
       </c>
       <c r="J285" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="K285" t="s" s="2">
         <v>1093</v>
       </c>
-      <c r="K285" t="s" s="2">
+      <c r="L285" t="s" s="2">
         <v>1094</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>1095</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -36997,7 +36989,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -37109,7 +37101,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37221,7 +37213,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37247,13 +37239,13 @@
         <v>102</v>
       </c>
       <c r="K288" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>1099</v>
       </c>
-      <c r="L288" t="s" s="2">
+      <c r="M288" t="s" s="2">
         <v>1100</v>
-      </c>
-      <c r="M288" t="s" s="2">
-        <v>1101</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
@@ -37261,49 +37253,49 @@
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="R288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE288" t="s" s="2">
         <v>1102</v>
-      </c>
-      <c r="R288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE288" t="s" s="2">
-        <v>1103</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>88</v>
@@ -37335,7 +37327,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37361,10 +37353,10 @@
         <v>189</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -37413,7 +37405,7 @@
         <v>316</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37445,10 +37437,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C290" t="s" s="2">
         <v>80</v>
@@ -37473,10 +37465,10 @@
         <v>189</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>1108</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>1109</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -37527,7 +37519,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37559,7 +37551,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37671,7 +37663,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37785,7 +37777,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37849,7 +37841,7 @@
       </c>
       <c r="X293" s="2"/>
       <c r="Y293" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>80</v>
@@ -37899,7 +37891,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37925,13 +37917,13 @@
         <v>90</v>
       </c>
       <c r="K294" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="L294" t="s" s="2">
         <v>1115</v>
       </c>
-      <c r="L294" t="s" s="2">
+      <c r="M294" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="M294" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>377</v>
@@ -38015,10 +38007,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C295" t="s" s="2">
         <v>80</v>
@@ -38040,13 +38032,13 @@
         <v>80</v>
       </c>
       <c r="J295" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="K295" t="s" s="2">
         <v>1119</v>
       </c>
-      <c r="K295" t="s" s="2">
-        <v>1120</v>
-      </c>
       <c r="L295" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -38129,7 +38121,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38245,7 +38237,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38268,16 +38260,16 @@
         <v>80</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>1123</v>
       </c>
-      <c r="L297" t="s" s="2">
+      <c r="M297" t="s" s="2">
         <v>1124</v>
-      </c>
-      <c r="M297" t="s" s="2">
-        <v>1125</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" t="s" s="2">
@@ -38327,7 +38319,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38348,7 +38340,7 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
@@ -38359,7 +38351,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38471,7 +38463,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38585,7 +38577,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38701,7 +38693,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38724,16 +38716,16 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K301" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>1131</v>
       </c>
-      <c r="L301" t="s" s="2">
-        <v>1132</v>
-      </c>
       <c r="M301" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" t="s" s="2">
@@ -38783,7 +38775,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38804,7 +38796,7 @@
         <v>80</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38815,7 +38807,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38927,7 +38919,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -39041,7 +39033,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39067,13 +39059,13 @@
         <v>667</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L304" t="s" s="2">
+      <c r="M304" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M304" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N304" t="s" s="2">
         <v>670</v>
@@ -39157,7 +39149,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39183,16 +39175,16 @@
         <v>108</v>
       </c>
       <c r="K305" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L305" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L305" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>80</v>
@@ -39275,7 +39267,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39301,16 +39293,16 @@
         <v>90</v>
       </c>
       <c r="K306" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L306" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L306" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M306" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>80</v>
@@ -39391,7 +39383,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39417,16 +39409,16 @@
         <v>102</v>
       </c>
       <c r="K307" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L307" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M307" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>80</v>
@@ -39507,7 +39499,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39533,16 +39525,16 @@
         <v>108</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L308" t="s" s="2">
+      <c r="M308" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M308" t="s" s="2">
+      <c r="N308" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>80</v>
@@ -39623,7 +39615,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39649,13 +39641,13 @@
         <v>661</v>
       </c>
       <c r="K309" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="L309" t="s" s="2">
         <v>1142</v>
       </c>
-      <c r="L309" t="s" s="2">
-        <v>1143</v>
-      </c>
       <c r="M309" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N309" s="2"/>
       <c r="O309" t="s" s="2">
@@ -39705,7 +39697,7 @@
         <v>80</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>78</v>
@@ -39726,7 +39718,7 @@
         <v>80</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AM309" t="s" s="2">
         <v>80</v>
@@ -39737,7 +39729,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39849,7 +39841,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39963,7 +39955,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39989,13 +39981,13 @@
         <v>667</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L312" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L312" t="s" s="2">
+      <c r="M312" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N312" t="s" s="2">
         <v>670</v>
@@ -40079,7 +40071,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40105,16 +40097,16 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M313" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>80</v>
@@ -40197,7 +40189,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40223,16 +40215,16 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L314" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>80</v>
@@ -40313,7 +40305,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40339,16 +40331,16 @@
         <v>102</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L315" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M315" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>80</v>
@@ -40429,7 +40421,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40455,16 +40447,16 @@
         <v>108</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="M316" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>80</v>
@@ -40545,7 +40537,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40571,13 +40563,13 @@
         <v>661</v>
       </c>
       <c r="K317" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="L317" t="s" s="2">
         <v>1153</v>
       </c>
-      <c r="L317" t="s" s="2">
-        <v>1154</v>
-      </c>
       <c r="M317" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40627,7 +40619,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40648,7 +40640,7 @@
         <v>80</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
@@ -40659,7 +40651,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40771,7 +40763,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40885,7 +40877,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40911,13 +40903,13 @@
         <v>667</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L320" t="s" s="2">
+      <c r="M320" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M320" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N320" t="s" s="2">
         <v>670</v>
@@ -41001,7 +40993,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -41027,16 +41019,16 @@
         <v>108</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M321" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>80</v>
@@ -41119,7 +41111,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -41145,16 +41137,16 @@
         <v>90</v>
       </c>
       <c r="K322" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L322" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M322" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>80</v>
@@ -41235,7 +41227,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41261,16 +41253,16 @@
         <v>102</v>
       </c>
       <c r="K323" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L323" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L323" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M323" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>80</v>
@@ -41351,7 +41343,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41377,16 +41369,16 @@
         <v>108</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L324" t="s" s="2">
+      <c r="M324" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M324" t="s" s="2">
+      <c r="N324" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>80</v>
@@ -41467,7 +41459,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41493,16 +41485,16 @@
         <v>218</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>1163</v>
       </c>
-      <c r="L325" t="s" s="2">
+      <c r="M325" t="s" s="2">
         <v>1164</v>
       </c>
-      <c r="M325" t="s" s="2">
+      <c r="N325" t="s" s="2">
         <v>1165</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>1166</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>80</v>
@@ -41551,7 +41543,7 @@
         <v>80</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>78</v>
@@ -41569,10 +41561,10 @@
         <v>80</v>
       </c>
       <c r="AK325" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="AL325" t="s" s="2">
         <v>1167</v>
-      </c>
-      <c r="AL325" t="s" s="2">
-        <v>1168</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>80</v>
@@ -41583,7 +41575,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -41695,7 +41687,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41809,7 +41801,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -41835,13 +41827,13 @@
         <v>438</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>1172</v>
       </c>
-      <c r="L328" t="s" s="2">
+      <c r="M328" t="s" s="2">
         <v>1173</v>
-      </c>
-      <c r="M328" t="s" s="2">
-        <v>1174</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
@@ -41891,16 +41883,16 @@
         <v>80</v>
       </c>
       <c r="AE328" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="AF328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG328" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH328" t="s" s="2">
         <v>1175</v>
-      </c>
-      <c r="AF328" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG328" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH328" t="s" s="2">
-        <v>1176</v>
       </c>
       <c r="AI328" t="s" s="2">
         <v>100</v>
@@ -41912,18 +41904,18 @@
         <v>80</v>
       </c>
       <c r="AL328" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="AM328" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN328" t="s" s="2">
         <v>1177</v>
-      </c>
-      <c r="AM328" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN328" t="s" s="2">
-        <v>1178</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -41949,66 +41941,66 @@
         <v>438</v>
       </c>
       <c r="K329" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="L329" t="s" s="2">
         <v>1180</v>
       </c>
-      <c r="L329" t="s" s="2">
+      <c r="M329" t="s" s="2">
         <v>1181</v>
-      </c>
-      <c r="M329" t="s" s="2">
-        <v>1182</v>
       </c>
       <c r="N329" s="2"/>
       <c r="O329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P329" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="Q329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE329" t="s" s="2">
         <v>1183</v>
       </c>
-      <c r="Q329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE329" t="s" s="2">
-        <v>1184</v>
-      </c>
       <c r="AF329" t="s" s="2">
         <v>78</v>
       </c>
@@ -42016,7 +42008,7 @@
         <v>88</v>
       </c>
       <c r="AH329" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AI329" t="s" s="2">
         <v>100</v>
@@ -42028,18 +42020,18 @@
         <v>80</v>
       </c>
       <c r="AL329" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="AM329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN329" t="s" s="2">
         <v>1185</v>
-      </c>
-      <c r="AM329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN329" t="s" s="2">
-        <v>1186</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -42065,13 +42057,13 @@
         <v>784</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>1187</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>1188</v>
       </c>
-      <c r="L330" t="s" s="2">
+      <c r="M330" t="s" s="2">
         <v>1189</v>
-      </c>
-      <c r="M330" t="s" s="2">
-        <v>1190</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" t="s" s="2">
@@ -42121,7 +42113,7 @@
         <v>80</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>78</v>
@@ -42139,21 +42131,21 @@
         <v>80</v>
       </c>
       <c r="AK330" t="s" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AL330" t="s" s="2">
         <v>1191</v>
       </c>
-      <c r="AL330" t="s" s="2">
+      <c r="AM330" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN330" t="s" s="2">
         <v>1192</v>
-      </c>
-      <c r="AM330" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN330" t="s" s="2">
-        <v>1193</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -42176,16 +42168,16 @@
         <v>80</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>1195</v>
       </c>
-      <c r="L331" t="s" s="2">
-        <v>1196</v>
-      </c>
       <c r="M331" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N331" s="2"/>
       <c r="O331" t="s" s="2">
@@ -42235,7 +42227,7 @@
         <v>80</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>78</v>
@@ -42253,21 +42245,21 @@
         <v>80</v>
       </c>
       <c r="AK331" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="AL331" t="s" s="2">
         <v>1197</v>
       </c>
-      <c r="AL331" t="s" s="2">
+      <c r="AM331" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN331" t="s" s="2">
         <v>1198</v>
-      </c>
-      <c r="AM331" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN331" t="s" s="2">
-        <v>1199</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -42379,7 +42371,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -42493,7 +42485,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -42519,13 +42511,13 @@
         <v>667</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="N334" t="s" s="2">
         <v>670</v>
@@ -42609,7 +42601,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -42635,16 +42627,16 @@
         <v>108</v>
       </c>
       <c r="K335" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L335" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M335" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>80</v>
@@ -42727,7 +42719,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -42753,16 +42745,16 @@
         <v>90</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M336" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>80</v>
@@ -42843,7 +42835,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -42869,16 +42861,16 @@
         <v>102</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="L337" t="s" s="2">
         <v>1208</v>
-      </c>
-      <c r="L337" t="s" s="2">
-        <v>1209</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>80</v>
@@ -42888,7 +42880,7 @@
         <v>80</v>
       </c>
       <c r="R337" t="s" s="2">
-        <v>960</v>
+        <v>1209</v>
       </c>
       <c r="S337" t="s" s="2">
         <v>80</v>
@@ -42991,10 +42983,10 @@
         <v>1211</v>
       </c>
       <c r="M338" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="N338" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N338" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>80</v>
@@ -43023,7 +43015,7 @@
       </c>
       <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>80</v>
@@ -43445,7 +43437,7 @@
         <v>1213</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="N342" t="s" s="2">
         <v>670</v>
@@ -43555,16 +43547,16 @@
         <v>108</v>
       </c>
       <c r="K343" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L343" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L343" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M343" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>80</v>
@@ -43682,7 +43674,7 @@
         <v>576</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>80</v>
@@ -43789,7 +43781,7 @@
         <v>102</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L345" t="s" s="2">
         <v>1226</v>
@@ -43798,7 +43790,7 @@
         <v>500</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>80</v>
@@ -43911,10 +43903,10 @@
         <v>1229</v>
       </c>
       <c r="M346" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="N346" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>80</v>
@@ -44132,7 +44124,7 @@
         <v>80</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>1235</v>
@@ -45843,13 +45835,13 @@
         <v>90</v>
       </c>
       <c r="K363" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>1115</v>
       </c>
-      <c r="L363" t="s" s="2">
+      <c r="M363" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="M363" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="N363" t="s" s="2">
         <v>377</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13330" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13325" uniqueCount="1298">
   <si>
     <t>Property</t>
   </si>
@@ -3251,6 +3251,9 @@
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
   </si>
   <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator.code</t>
   </si>
   <si>
@@ -3752,9 +3755,6 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -33599,13 +33599,11 @@
         <v>80</v>
       </c>
       <c r="W256" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X256" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X256" s="2"/>
       <c r="Y256" t="s" s="2">
-        <v>80</v>
+        <v>1043</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>80</v>
@@ -33655,7 +33653,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33681,16 +33679,16 @@
         <v>108</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33771,7 +33769,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33797,10 +33795,10 @@
         <v>941</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>1024</v>
@@ -33885,7 +33883,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33997,7 +33995,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -34111,7 +34109,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34227,7 +34225,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34345,7 +34343,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34461,7 +34459,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34521,13 +34519,11 @@
         <v>80</v>
       </c>
       <c r="W264" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X264" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X264" s="2"/>
       <c r="Y264" t="s" s="2">
-        <v>80</v>
+        <v>1043</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>80</v>
@@ -34577,7 +34573,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34603,16 +34599,16 @@
         <v>108</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34693,7 +34689,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34716,19 +34712,19 @@
         <v>89</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
@@ -34777,7 +34773,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34798,7 +34794,7 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
@@ -34809,7 +34805,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34921,7 +34917,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -35035,7 +35031,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -35151,7 +35147,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35269,7 +35265,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35385,7 +35381,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35445,13 +35441,11 @@
         <v>80</v>
       </c>
       <c r="W272" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X272" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X272" s="2"/>
       <c r="Y272" t="s" s="2">
-        <v>80</v>
+        <v>1043</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>80</v>
@@ -35501,7 +35495,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35527,16 +35521,16 @@
         <v>108</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35617,7 +35611,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35640,19 +35634,19 @@
         <v>89</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>1024</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
@@ -35701,7 +35695,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35722,7 +35716,7 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
@@ -35733,7 +35727,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35845,7 +35839,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35959,7 +35953,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -36075,7 +36069,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36193,7 +36187,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36309,7 +36303,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36369,13 +36363,11 @@
         <v>80</v>
       </c>
       <c r="W280" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X280" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X280" s="2"/>
       <c r="Y280" t="s" s="2">
-        <v>80</v>
+        <v>1043</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>80</v>
@@ -36425,7 +36417,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36451,16 +36443,16 @@
         <v>108</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36541,7 +36533,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36564,13 +36556,13 @@
         <v>80</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -36621,7 +36613,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36639,10 +36631,10 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
@@ -36653,7 +36645,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36765,7 +36757,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36875,10 +36867,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C285" t="s" s="2">
         <v>80</v>
@@ -36900,13 +36892,13 @@
         <v>80</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -36989,7 +36981,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -37101,7 +37093,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37213,7 +37205,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37239,13 +37231,13 @@
         <v>102</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
@@ -37253,7 +37245,7 @@
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="R288" t="s" s="2">
         <v>80</v>
@@ -37295,7 +37287,7 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>88</v>
@@ -37327,7 +37319,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37353,10 +37345,10 @@
         <v>189</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -37405,7 +37397,7 @@
         <v>316</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37437,10 +37429,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C290" t="s" s="2">
         <v>80</v>
@@ -37465,10 +37457,10 @@
         <v>189</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -37519,7 +37511,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37551,7 +37543,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37663,7 +37655,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37777,7 +37769,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37841,7 +37833,7 @@
       </c>
       <c r="X293" s="2"/>
       <c r="Y293" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>80</v>
@@ -37891,7 +37883,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37917,13 +37909,13 @@
         <v>90</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>377</v>
@@ -38007,10 +37999,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C295" t="s" s="2">
         <v>80</v>
@@ -38032,13 +38024,13 @@
         <v>80</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -38121,7 +38113,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38237,7 +38229,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38260,16 +38252,16 @@
         <v>80</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" t="s" s="2">
@@ -38319,7 +38311,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38340,7 +38332,7 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
@@ -38351,7 +38343,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38463,7 +38455,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38577,7 +38569,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38693,7 +38685,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38716,13 +38708,13 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="M301" t="s" s="2">
         <v>1024</v>
@@ -38775,7 +38767,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38796,7 +38788,7 @@
         <v>80</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38807,7 +38799,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38919,7 +38911,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -39033,7 +39025,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39149,7 +39141,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39267,7 +39259,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39383,7 +39375,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39443,13 +39435,11 @@
         <v>80</v>
       </c>
       <c r="W307" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X307" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X307" s="2"/>
       <c r="Y307" t="s" s="2">
-        <v>80</v>
+        <v>1043</v>
       </c>
       <c r="Z307" t="s" s="2">
         <v>80</v>
@@ -39499,7 +39489,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39525,16 +39515,16 @@
         <v>108</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>80</v>
@@ -39615,7 +39605,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39641,10 +39631,10 @@
         <v>661</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="M309" t="s" s="2">
         <v>1024</v>
@@ -39697,7 +39687,7 @@
         <v>80</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>78</v>
@@ -39718,7 +39708,7 @@
         <v>80</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AM309" t="s" s="2">
         <v>80</v>
@@ -39729,7 +39719,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39841,7 +39831,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39955,7 +39945,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -40071,7 +40061,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40189,7 +40179,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40305,7 +40295,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40421,7 +40411,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40447,16 +40437,16 @@
         <v>108</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>80</v>
@@ -40537,7 +40527,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40563,10 +40553,10 @@
         <v>661</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="M317" t="s" s="2">
         <v>1024</v>
@@ -40619,7 +40609,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40640,7 +40630,7 @@
         <v>80</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
@@ -40651,7 +40641,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40763,7 +40753,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40877,7 +40867,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40993,7 +40983,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -41111,7 +41101,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -41227,7 +41217,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41343,7 +41333,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41369,16 +41359,16 @@
         <v>108</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>80</v>
@@ -41459,7 +41449,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41485,16 +41475,16 @@
         <v>218</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>80</v>
@@ -41543,7 +41533,7 @@
         <v>80</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>78</v>
@@ -41561,10 +41551,10 @@
         <v>80</v>
       </c>
       <c r="AK325" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="AL325" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>80</v>
@@ -41575,7 +41565,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -41687,7 +41677,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41801,7 +41791,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -41827,13 +41817,13 @@
         <v>438</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
@@ -41883,7 +41873,7 @@
         <v>80</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>78</v>
@@ -41892,7 +41882,7 @@
         <v>88</v>
       </c>
       <c r="AH328" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="AI328" t="s" s="2">
         <v>100</v>
@@ -41904,18 +41894,18 @@
         <v>80</v>
       </c>
       <c r="AL328" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="AM328" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN328" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -41941,20 +41931,20 @@
         <v>438</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="N329" s="2"/>
       <c r="O329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P329" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="Q329" t="s" s="2">
         <v>80</v>
@@ -41999,7 +41989,7 @@
         <v>80</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>78</v>
@@ -42008,7 +41998,7 @@
         <v>88</v>
       </c>
       <c r="AH329" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="AI329" t="s" s="2">
         <v>100</v>
@@ -42020,18 +42010,18 @@
         <v>80</v>
       </c>
       <c r="AL329" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="AM329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN329" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -42057,13 +42047,13 @@
         <v>784</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" t="s" s="2">
@@ -42113,7 +42103,7 @@
         <v>80</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>78</v>
@@ -42131,21 +42121,21 @@
         <v>80</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AL330" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AM330" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN330" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -42168,13 +42158,13 @@
         <v>80</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="M331" t="s" s="2">
         <v>1024</v>
@@ -42227,7 +42217,7 @@
         <v>80</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>78</v>
@@ -42245,21 +42235,21 @@
         <v>80</v>
       </c>
       <c r="AK331" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="AL331" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="AM331" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN331" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -42371,7 +42361,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -42485,7 +42475,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -42511,10 +42501,10 @@
         <v>667</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="M334" t="s" s="2">
         <v>1030</v>
@@ -42601,7 +42591,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -42719,7 +42709,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -42745,10 +42735,10 @@
         <v>90</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M336" t="s" s="2">
         <v>576</v>
@@ -42835,7 +42825,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -42861,10 +42851,10 @@
         <v>102</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>500</v>
@@ -42880,7 +42870,7 @@
         <v>80</v>
       </c>
       <c r="R337" t="s" s="2">
-        <v>1209</v>
+        <v>1043</v>
       </c>
       <c r="S337" t="s" s="2">
         <v>80</v>
@@ -42983,10 +42973,10 @@
         <v>1211</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>80</v>
@@ -43903,10 +43893,10 @@
         <v>1229</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>80</v>
@@ -44124,7 +44114,7 @@
         <v>80</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>1235</v>
@@ -45835,13 +45825,13 @@
         <v>90</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N363" t="s" s="2">
         <v>377</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -3251,9 +3251,6 @@
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator.code</t>
   </si>
   <si>
@@ -3755,6 +3752,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -33603,7 +33603,7 @@
       </c>
       <c r="X256" s="2"/>
       <c r="Y256" t="s" s="2">
-        <v>1043</v>
+        <v>960</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>80</v>
@@ -33653,7 +33653,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33679,16 +33679,16 @@
         <v>108</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="M257" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="N257" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33769,7 +33769,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33795,10 +33795,10 @@
         <v>941</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>1024</v>
@@ -33883,7 +33883,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33995,7 +33995,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -34109,7 +34109,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34225,7 +34225,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34343,7 +34343,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34459,7 +34459,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="X264" s="2"/>
       <c r="Y264" t="s" s="2">
-        <v>1043</v>
+        <v>960</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>80</v>
@@ -34573,7 +34573,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34599,16 +34599,16 @@
         <v>108</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L265" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L265" t="s" s="2">
+      <c r="M265" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M265" t="s" s="2">
+      <c r="N265" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34689,7 +34689,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34712,19 +34712,19 @@
         <v>89</v>
       </c>
       <c r="J266" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="K266" t="s" s="2">
         <v>1059</v>
       </c>
-      <c r="K266" t="s" s="2">
+      <c r="L266" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="M266" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="L266" t="s" s="2">
-        <v>1060</v>
-      </c>
-      <c r="M266" t="s" s="2">
+      <c r="N266" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
@@ -34773,7 +34773,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34794,7 +34794,7 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
@@ -34805,7 +34805,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34917,7 +34917,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -35031,7 +35031,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -35147,7 +35147,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35265,7 +35265,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35381,7 +35381,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35445,7 +35445,7 @@
       </c>
       <c r="X272" s="2"/>
       <c r="Y272" t="s" s="2">
-        <v>1043</v>
+        <v>960</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>80</v>
@@ -35495,7 +35495,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35521,16 +35521,16 @@
         <v>108</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L273" t="s" s="2">
+      <c r="M273" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M273" t="s" s="2">
+      <c r="N273" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35611,7 +35611,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35634,19 +35634,19 @@
         <v>89</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="L274" t="s" s="2">
         <v>1073</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>1074</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>1024</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
@@ -35695,7 +35695,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35716,7 +35716,7 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
@@ -35727,7 +35727,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35839,7 +35839,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35953,7 +35953,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -36069,7 +36069,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36187,7 +36187,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36303,7 +36303,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36367,7 +36367,7 @@
       </c>
       <c r="X280" s="2"/>
       <c r="Y280" t="s" s="2">
-        <v>1043</v>
+        <v>960</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>80</v>
@@ -36417,7 +36417,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36443,16 +36443,16 @@
         <v>108</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M281" t="s" s="2">
+      <c r="N281" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36533,7 +36533,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36556,13 +36556,13 @@
         <v>80</v>
       </c>
       <c r="J282" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="K282" t="s" s="2">
         <v>1085</v>
       </c>
-      <c r="K282" t="s" s="2">
+      <c r="L282" t="s" s="2">
         <v>1086</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>1087</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -36613,7 +36613,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36631,10 +36631,10 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="AL282" t="s" s="2">
         <v>1088</v>
-      </c>
-      <c r="AL282" t="s" s="2">
-        <v>1089</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
@@ -36645,7 +36645,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36757,7 +36757,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36867,10 +36867,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B285" t="s" s="2">
         <v>1091</v>
-      </c>
-      <c r="B285" t="s" s="2">
-        <v>1092</v>
       </c>
       <c r="C285" t="s" s="2">
         <v>80</v>
@@ -36892,13 +36892,13 @@
         <v>80</v>
       </c>
       <c r="J285" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="K285" t="s" s="2">
         <v>1093</v>
       </c>
-      <c r="K285" t="s" s="2">
+      <c r="L285" t="s" s="2">
         <v>1094</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>1095</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -36981,7 +36981,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -37093,7 +37093,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37205,7 +37205,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37231,13 +37231,13 @@
         <v>102</v>
       </c>
       <c r="K288" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>1099</v>
       </c>
-      <c r="L288" t="s" s="2">
+      <c r="M288" t="s" s="2">
         <v>1100</v>
-      </c>
-      <c r="M288" t="s" s="2">
-        <v>1101</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
@@ -37245,49 +37245,49 @@
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="R288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE288" t="s" s="2">
         <v>1102</v>
-      </c>
-      <c r="R288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE288" t="s" s="2">
-        <v>1103</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>88</v>
@@ -37319,7 +37319,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37345,10 +37345,10 @@
         <v>189</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -37397,7 +37397,7 @@
         <v>316</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37429,10 +37429,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C290" t="s" s="2">
         <v>80</v>
@@ -37457,10 +37457,10 @@
         <v>189</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>1108</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>1109</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -37511,7 +37511,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37543,7 +37543,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37655,7 +37655,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37769,7 +37769,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37833,7 +37833,7 @@
       </c>
       <c r="X293" s="2"/>
       <c r="Y293" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>80</v>
@@ -37883,7 +37883,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37909,13 +37909,13 @@
         <v>90</v>
       </c>
       <c r="K294" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="L294" t="s" s="2">
         <v>1115</v>
       </c>
-      <c r="L294" t="s" s="2">
+      <c r="M294" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="M294" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>377</v>
@@ -37999,10 +37999,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C295" t="s" s="2">
         <v>80</v>
@@ -38024,13 +38024,13 @@
         <v>80</v>
       </c>
       <c r="J295" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="K295" t="s" s="2">
         <v>1119</v>
       </c>
-      <c r="K295" t="s" s="2">
-        <v>1120</v>
-      </c>
       <c r="L295" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -38113,7 +38113,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38229,7 +38229,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38252,16 +38252,16 @@
         <v>80</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>1123</v>
       </c>
-      <c r="L297" t="s" s="2">
+      <c r="M297" t="s" s="2">
         <v>1124</v>
-      </c>
-      <c r="M297" t="s" s="2">
-        <v>1125</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" t="s" s="2">
@@ -38311,7 +38311,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38332,7 +38332,7 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
@@ -38343,7 +38343,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38455,7 +38455,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38569,7 +38569,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38685,7 +38685,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38708,13 +38708,13 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K301" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>1131</v>
-      </c>
-      <c r="L301" t="s" s="2">
-        <v>1132</v>
       </c>
       <c r="M301" t="s" s="2">
         <v>1024</v>
@@ -38767,7 +38767,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38788,7 +38788,7 @@
         <v>80</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38799,7 +38799,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38911,7 +38911,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -39025,7 +39025,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39141,7 +39141,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39259,7 +39259,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39375,7 +39375,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39439,7 +39439,7 @@
       </c>
       <c r="X307" s="2"/>
       <c r="Y307" t="s" s="2">
-        <v>1043</v>
+        <v>960</v>
       </c>
       <c r="Z307" t="s" s="2">
         <v>80</v>
@@ -39489,7 +39489,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39515,16 +39515,16 @@
         <v>108</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L308" t="s" s="2">
+      <c r="M308" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M308" t="s" s="2">
+      <c r="N308" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>80</v>
@@ -39605,7 +39605,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39631,10 +39631,10 @@
         <v>661</v>
       </c>
       <c r="K309" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="L309" t="s" s="2">
         <v>1142</v>
-      </c>
-      <c r="L309" t="s" s="2">
-        <v>1143</v>
       </c>
       <c r="M309" t="s" s="2">
         <v>1024</v>
@@ -39687,7 +39687,7 @@
         <v>80</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>78</v>
@@ -39708,7 +39708,7 @@
         <v>80</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AM309" t="s" s="2">
         <v>80</v>
@@ -39719,7 +39719,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39831,7 +39831,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39945,7 +39945,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -40061,7 +40061,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40179,7 +40179,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40295,7 +40295,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40411,7 +40411,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40437,16 +40437,16 @@
         <v>108</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="M316" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>80</v>
@@ -40527,7 +40527,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40553,10 +40553,10 @@
         <v>661</v>
       </c>
       <c r="K317" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="L317" t="s" s="2">
         <v>1153</v>
-      </c>
-      <c r="L317" t="s" s="2">
-        <v>1154</v>
       </c>
       <c r="M317" t="s" s="2">
         <v>1024</v>
@@ -40609,7 +40609,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40630,7 +40630,7 @@
         <v>80</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
@@ -40641,7 +40641,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40753,7 +40753,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40867,7 +40867,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40983,7 +40983,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -41101,7 +41101,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -41217,7 +41217,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41333,7 +41333,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41359,16 +41359,16 @@
         <v>108</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L324" t="s" s="2">
+      <c r="M324" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M324" t="s" s="2">
+      <c r="N324" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>80</v>
@@ -41449,7 +41449,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41475,16 +41475,16 @@
         <v>218</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>1163</v>
       </c>
-      <c r="L325" t="s" s="2">
+      <c r="M325" t="s" s="2">
         <v>1164</v>
       </c>
-      <c r="M325" t="s" s="2">
+      <c r="N325" t="s" s="2">
         <v>1165</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>1166</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>80</v>
@@ -41533,7 +41533,7 @@
         <v>80</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>78</v>
@@ -41551,10 +41551,10 @@
         <v>80</v>
       </c>
       <c r="AK325" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="AL325" t="s" s="2">
         <v>1167</v>
-      </c>
-      <c r="AL325" t="s" s="2">
-        <v>1168</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>80</v>
@@ -41565,7 +41565,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -41677,7 +41677,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41791,7 +41791,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -41817,13 +41817,13 @@
         <v>438</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>1172</v>
       </c>
-      <c r="L328" t="s" s="2">
+      <c r="M328" t="s" s="2">
         <v>1173</v>
-      </c>
-      <c r="M328" t="s" s="2">
-        <v>1174</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
@@ -41873,16 +41873,16 @@
         <v>80</v>
       </c>
       <c r="AE328" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="AF328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG328" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH328" t="s" s="2">
         <v>1175</v>
-      </c>
-      <c r="AF328" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG328" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH328" t="s" s="2">
-        <v>1176</v>
       </c>
       <c r="AI328" t="s" s="2">
         <v>100</v>
@@ -41894,18 +41894,18 @@
         <v>80</v>
       </c>
       <c r="AL328" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="AM328" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN328" t="s" s="2">
         <v>1177</v>
-      </c>
-      <c r="AM328" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN328" t="s" s="2">
-        <v>1178</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -41931,66 +41931,66 @@
         <v>438</v>
       </c>
       <c r="K329" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="L329" t="s" s="2">
         <v>1180</v>
       </c>
-      <c r="L329" t="s" s="2">
+      <c r="M329" t="s" s="2">
         <v>1181</v>
-      </c>
-      <c r="M329" t="s" s="2">
-        <v>1182</v>
       </c>
       <c r="N329" s="2"/>
       <c r="O329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P329" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="Q329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE329" t="s" s="2">
         <v>1183</v>
       </c>
-      <c r="Q329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE329" t="s" s="2">
-        <v>1184</v>
-      </c>
       <c r="AF329" t="s" s="2">
         <v>78</v>
       </c>
@@ -41998,7 +41998,7 @@
         <v>88</v>
       </c>
       <c r="AH329" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AI329" t="s" s="2">
         <v>100</v>
@@ -42010,18 +42010,18 @@
         <v>80</v>
       </c>
       <c r="AL329" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="AM329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN329" t="s" s="2">
         <v>1185</v>
-      </c>
-      <c r="AM329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN329" t="s" s="2">
-        <v>1186</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -42047,13 +42047,13 @@
         <v>784</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>1187</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>1188</v>
       </c>
-      <c r="L330" t="s" s="2">
+      <c r="M330" t="s" s="2">
         <v>1189</v>
-      </c>
-      <c r="M330" t="s" s="2">
-        <v>1190</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" t="s" s="2">
@@ -42103,7 +42103,7 @@
         <v>80</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>78</v>
@@ -42121,21 +42121,21 @@
         <v>80</v>
       </c>
       <c r="AK330" t="s" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AL330" t="s" s="2">
         <v>1191</v>
       </c>
-      <c r="AL330" t="s" s="2">
+      <c r="AM330" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN330" t="s" s="2">
         <v>1192</v>
-      </c>
-      <c r="AM330" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN330" t="s" s="2">
-        <v>1193</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -42158,13 +42158,13 @@
         <v>80</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="L331" t="s" s="2">
-        <v>1196</v>
       </c>
       <c r="M331" t="s" s="2">
         <v>1024</v>
@@ -42217,7 +42217,7 @@
         <v>80</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>78</v>
@@ -42235,21 +42235,21 @@
         <v>80</v>
       </c>
       <c r="AK331" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="AL331" t="s" s="2">
         <v>1197</v>
       </c>
-      <c r="AL331" t="s" s="2">
+      <c r="AM331" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN331" t="s" s="2">
         <v>1198</v>
-      </c>
-      <c r="AM331" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN331" t="s" s="2">
-        <v>1199</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -42361,7 +42361,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -42475,7 +42475,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -42501,10 +42501,10 @@
         <v>667</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M334" t="s" s="2">
         <v>1030</v>
@@ -42591,7 +42591,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -42709,7 +42709,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -42735,10 +42735,10 @@
         <v>90</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M336" t="s" s="2">
         <v>576</v>
@@ -42825,7 +42825,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -42851,10 +42851,10 @@
         <v>102</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="L337" t="s" s="2">
         <v>1208</v>
-      </c>
-      <c r="L337" t="s" s="2">
-        <v>1209</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>500</v>
@@ -42870,7 +42870,7 @@
         <v>80</v>
       </c>
       <c r="R337" t="s" s="2">
-        <v>1043</v>
+        <v>1209</v>
       </c>
       <c r="S337" t="s" s="2">
         <v>80</v>
@@ -42973,10 +42973,10 @@
         <v>1211</v>
       </c>
       <c r="M338" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="N338" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N338" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>80</v>
@@ -43893,10 +43893,10 @@
         <v>1229</v>
       </c>
       <c r="M346" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="N346" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>80</v>
@@ -44114,7 +44114,7 @@
         <v>80</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>1235</v>
@@ -45825,13 +45825,13 @@
         <v>90</v>
       </c>
       <c r="K363" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>1115</v>
       </c>
-      <c r="L363" t="s" s="2">
+      <c r="M363" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="M363" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="N363" t="s" s="2">
         <v>377</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1297,7 +1297,7 @@
   </si>
   <si>
     <t>参照されるPatientが型として示される。
-一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させるべきである(SHALL)。
+一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させなければならない(SHALL)。
 型はResource Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resourceに対しては指定できない。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13322" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13322" uniqueCount="1288">
   <si>
     <t>Property</t>
   </si>
@@ -2854,10 +2854,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>The kind of dose or rate specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
@@ -2878,9 +2875,6 @@
     <t>力価区分コード</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.type.coding.id</t>
   </si>
   <si>
@@ -2894,9 +2888,6 @@
   </si>
   <si>
     <t>力価区分コードのコード体系を識別するURI。固定値。</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.2.22</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.type.coding.version</t>
@@ -25751,7 +25742,7 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F188" t="s" s="2">
         <v>88</v>
@@ -25803,31 +25794,29 @@
         <v>80</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="X188" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X188" s="2"/>
+      <c r="Y188" t="s" s="2">
         <v>912</v>
       </c>
-      <c r="Y188" t="s" s="2">
+      <c r="Z188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE188" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25854,12 +25843,12 @@
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25971,7 +25960,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -26085,7 +26074,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -26093,10 +26082,10 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>80</v>
@@ -26111,10 +26100,10 @@
         <v>327</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>594</v>
@@ -26145,11 +26134,13 @@
         <v>80</v>
       </c>
       <c r="W191" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X191" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y191" t="s" s="2">
-        <v>920</v>
+        <v>80</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>80</v>
@@ -26199,7 +26190,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26311,7 +26302,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26425,7 +26416,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26433,7 +26424,7 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F194" t="s" s="2">
         <v>88</v>
@@ -26451,10 +26442,10 @@
         <v>102</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="M194" t="s" s="2">
         <v>599</v>
@@ -26467,7 +26458,7 @@
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
-        <v>926</v>
+        <v>80</v>
       </c>
       <c r="R194" t="s" s="2">
         <v>80</v>
@@ -26541,7 +26532,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26655,7 +26646,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26663,7 +26654,7 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F196" t="s" s="2">
         <v>88</v>
@@ -26681,10 +26672,10 @@
         <v>108</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M196" t="s" s="2">
         <v>575</v>
@@ -26771,7 +26762,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26797,10 +26788,10 @@
         <v>90</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="M197" t="s" s="2">
         <v>575</v>
@@ -26887,7 +26878,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -27003,7 +26994,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -27119,7 +27110,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27142,19 +27133,19 @@
         <v>80</v>
       </c>
       <c r="J200" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="K200" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27201,7 +27192,7 @@
         <v>315</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27213,7 +27204,7 @@
         <v>144</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>80</v>
@@ -27222,18 +27213,18 @@
         <v>80</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27345,7 +27336,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27459,7 +27450,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27485,10 +27476,10 @@
         <v>660</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>662</v>
@@ -27575,7 +27566,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27604,7 +27595,7 @@
         <v>668</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
@@ -27691,7 +27682,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27717,10 +27708,10 @@
         <v>90</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
@@ -27805,7 +27796,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27831,10 +27822,10 @@
         <v>102</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
@@ -27867,7 +27858,7 @@
       </c>
       <c r="X206" s="2"/>
       <c r="Y206" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>80</v>
@@ -27917,7 +27908,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27943,10 +27934,10 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>696</v>
@@ -28033,10 +28024,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C208" t="s" s="2">
         <v>80</v>
@@ -28058,19 +28049,19 @@
         <v>80</v>
       </c>
       <c r="J208" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="N208" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="K208" t="s" s="2">
-        <v>957</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -28119,7 +28110,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -28131,7 +28122,7 @@
         <v>144</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>80</v>
@@ -28140,18 +28131,18 @@
         <v>80</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28263,7 +28254,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28377,7 +28368,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28403,10 +28394,10 @@
         <v>660</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>662</v>
@@ -28493,7 +28484,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28522,7 +28513,7 @@
         <v>668</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
@@ -28609,7 +28600,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28635,10 +28626,10 @@
         <v>90</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
@@ -28723,7 +28714,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28749,10 +28740,10 @@
         <v>102</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
@@ -28785,7 +28776,7 @@
       </c>
       <c r="X214" s="2"/>
       <c r="Y214" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z214" t="s" s="2">
         <v>80</v>
@@ -28835,7 +28826,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28861,10 +28852,10 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>696</v>
@@ -28899,7 +28890,7 @@
       </c>
       <c r="X215" s="2"/>
       <c r="Y215" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28949,7 +28940,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28972,19 +28963,19 @@
         <v>89</v>
       </c>
       <c r="J216" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="K216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>963</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>964</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -29031,7 +29022,7 @@
         <v>315</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -29052,18 +29043,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29175,7 +29166,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29289,7 +29280,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29312,13 +29303,13 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -29369,7 +29360,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29390,7 +29381,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29401,7 +29392,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29513,7 +29504,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29627,7 +29618,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29653,10 +29644,10 @@
         <v>660</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>662</v>
@@ -29743,7 +29734,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29859,7 +29850,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29885,10 +29876,10 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
@@ -29973,7 +29964,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29999,10 +29990,10 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" t="s" s="2">
@@ -30035,7 +30026,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -30085,7 +30076,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30111,10 +30102,10 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="M226" t="s" s="2">
         <v>696</v>
@@ -30201,7 +30192,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30224,13 +30215,13 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -30281,7 +30272,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30302,7 +30293,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30313,10 +30304,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C228" t="s" s="2">
         <v>80</v>
@@ -30338,19 +30329,19 @@
         <v>89</v>
       </c>
       <c r="J228" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="M228" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="K228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>963</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>964</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>80</v>
@@ -30399,7 +30390,7 @@
         <v>80</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>78</v>
@@ -30420,18 +30411,18 @@
         <v>80</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="AM228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30543,7 +30534,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30657,7 +30648,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30680,13 +30671,13 @@
         <v>89</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -30737,7 +30728,7 @@
         <v>80</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>78</v>
@@ -30758,7 +30749,7 @@
         <v>80</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>80</v>
@@ -30769,7 +30760,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30881,7 +30872,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30995,7 +30986,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -31021,10 +31012,10 @@
         <v>660</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="M234" t="s" s="2">
         <v>662</v>
@@ -31111,7 +31102,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31227,7 +31218,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31253,10 +31244,10 @@
         <v>90</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
@@ -31341,7 +31332,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31367,10 +31358,10 @@
         <v>102</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
@@ -31403,7 +31394,7 @@
       </c>
       <c r="X237" s="2"/>
       <c r="Y237" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z237" t="s" s="2">
         <v>80</v>
@@ -31453,7 +31444,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -31479,10 +31470,10 @@
         <v>108</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>696</v>
@@ -31517,7 +31508,7 @@
       </c>
       <c r="X238" s="2"/>
       <c r="Y238" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z238" t="s" s="2">
         <v>80</v>
@@ -31567,7 +31558,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31590,13 +31581,13 @@
         <v>89</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -31647,7 +31638,7 @@
         <v>80</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>78</v>
@@ -31668,7 +31659,7 @@
         <v>80</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AM239" t="s" s="2">
         <v>80</v>
@@ -31679,7 +31670,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31791,7 +31782,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31905,7 +31896,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31931,10 +31922,10 @@
         <v>660</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="M242" t="s" s="2">
         <v>662</v>
@@ -32021,7 +32012,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -32137,7 +32128,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32163,10 +32154,10 @@
         <v>90</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
@@ -32251,7 +32242,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32277,10 +32268,10 @@
         <v>102</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
@@ -32365,7 +32356,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32391,10 +32382,10 @@
         <v>108</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="M246" t="s" s="2">
         <v>696</v>
@@ -32481,7 +32472,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32504,19 +32495,19 @@
         <v>89</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>80</v>
@@ -32565,7 +32556,7 @@
         <v>80</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>78</v>
@@ -32586,18 +32577,18 @@
         <v>80</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN247" t="s" s="2">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -32709,7 +32700,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32823,7 +32814,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32846,16 +32837,16 @@
         <v>89</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32905,7 +32896,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32926,7 +32917,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32937,7 +32928,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -33049,7 +33040,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33163,7 +33154,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33189,13 +33180,13 @@
         <v>660</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>663</v>
@@ -33279,7 +33270,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33305,16 +33296,16 @@
         <v>108</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>80</v>
@@ -33397,7 +33388,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33423,16 +33414,16 @@
         <v>90</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M255" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>80</v>
@@ -33513,7 +33504,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33539,16 +33530,16 @@
         <v>102</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M256" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>80</v>
@@ -33577,7 +33568,7 @@
       </c>
       <c r="X256" s="2"/>
       <c r="Y256" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>80</v>
@@ -33627,7 +33618,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33653,16 +33644,16 @@
         <v>108</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L257" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M257" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N257" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33743,7 +33734,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33766,16 +33757,16 @@
         <v>89</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
@@ -33825,7 +33816,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33846,7 +33837,7 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
@@ -33857,7 +33848,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33969,7 +33960,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -34083,7 +34074,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34109,13 +34100,13 @@
         <v>660</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N261" t="s" s="2">
         <v>663</v>
@@ -34199,7 +34190,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34225,16 +34216,16 @@
         <v>108</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>80</v>
@@ -34317,7 +34308,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34343,16 +34334,16 @@
         <v>90</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>80</v>
@@ -34433,7 +34424,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34459,16 +34450,16 @@
         <v>102</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M264" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>80</v>
@@ -34497,7 +34488,7 @@
       </c>
       <c r="X264" s="2"/>
       <c r="Y264" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>80</v>
@@ -34547,7 +34538,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34573,16 +34564,16 @@
         <v>108</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L265" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M265" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N265" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34663,7 +34654,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34686,19 +34677,19 @@
         <v>89</v>
       </c>
       <c r="J266" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="K266" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="L266" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="M266" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="N266" t="s" s="2">
         <v>1051</v>
-      </c>
-      <c r="K266" t="s" s="2">
-        <v>1052</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>1052</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>1053</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>1054</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
@@ -34747,7 +34738,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34768,7 +34759,7 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
@@ -34779,7 +34770,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34891,7 +34882,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -35005,7 +34996,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -35031,13 +35022,13 @@
         <v>660</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N269" t="s" s="2">
         <v>663</v>
@@ -35121,7 +35112,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35147,16 +35138,16 @@
         <v>108</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>80</v>
@@ -35239,7 +35230,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35265,16 +35256,16 @@
         <v>90</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M271" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>80</v>
@@ -35355,7 +35346,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35381,16 +35372,16 @@
         <v>102</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M272" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>80</v>
@@ -35419,7 +35410,7 @@
       </c>
       <c r="X272" s="2"/>
       <c r="Y272" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>80</v>
@@ -35469,7 +35460,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35495,16 +35486,16 @@
         <v>108</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L273" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M273" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N273" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M273" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35585,7 +35576,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35608,19 +35599,19 @@
         <v>89</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
@@ -35669,7 +35660,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35690,7 +35681,7 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
@@ -35701,7 +35692,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35813,7 +35804,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35927,7 +35918,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35953,13 +35944,13 @@
         <v>660</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N277" t="s" s="2">
         <v>663</v>
@@ -36043,7 +36034,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36069,16 +36060,16 @@
         <v>108</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36161,7 +36152,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36187,16 +36178,16 @@
         <v>90</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M279" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>80</v>
@@ -36277,7 +36268,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36303,16 +36294,16 @@
         <v>102</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M280" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>80</v>
@@ -36341,7 +36332,7 @@
       </c>
       <c r="X280" s="2"/>
       <c r="Y280" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>80</v>
@@ -36391,7 +36382,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36417,16 +36408,16 @@
         <v>108</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L281" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M281" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N281" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36507,7 +36498,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36530,13 +36521,13 @@
         <v>80</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -36587,7 +36578,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36605,10 +36596,10 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
@@ -36619,7 +36610,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36731,7 +36722,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36841,10 +36832,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C285" t="s" s="2">
         <v>80</v>
@@ -36866,13 +36857,13 @@
         <v>80</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -36955,7 +36946,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -37067,7 +37058,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37179,7 +37170,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37205,13 +37196,13 @@
         <v>102</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
@@ -37219,7 +37210,7 @@
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="R288" t="s" s="2">
         <v>80</v>
@@ -37261,7 +37252,7 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>88</v>
@@ -37293,7 +37284,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37319,10 +37310,10 @@
         <v>189</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -37371,7 +37362,7 @@
         <v>315</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37403,10 +37394,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
+        <v>1093</v>
+      </c>
+      <c r="B290" t="s" s="2">
         <v>1096</v>
-      </c>
-      <c r="B290" t="s" s="2">
-        <v>1099</v>
       </c>
       <c r="C290" t="s" s="2">
         <v>80</v>
@@ -37431,10 +37422,10 @@
         <v>189</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -37485,7 +37476,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37517,7 +37508,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37629,7 +37620,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37743,7 +37734,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37807,7 +37798,7 @@
       </c>
       <c r="X293" s="2"/>
       <c r="Y293" t="s" s="2">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>80</v>
@@ -37857,7 +37848,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37883,13 +37874,13 @@
         <v>90</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>377</v>
@@ -37973,10 +37964,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C295" t="s" s="2">
         <v>80</v>
@@ -37998,13 +37989,13 @@
         <v>80</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -38087,7 +38078,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38203,7 +38194,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38226,16 +38217,16 @@
         <v>80</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" t="s" s="2">
@@ -38285,7 +38276,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38306,7 +38297,7 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
@@ -38317,7 +38308,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38429,7 +38420,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38543,7 +38534,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38659,7 +38650,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38682,16 +38673,16 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" t="s" s="2">
@@ -38741,7 +38732,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38762,7 +38753,7 @@
         <v>80</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38773,7 +38764,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38885,7 +38876,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38999,7 +38990,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39025,13 +39016,13 @@
         <v>660</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N304" t="s" s="2">
         <v>663</v>
@@ -39115,7 +39106,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39141,16 +39132,16 @@
         <v>108</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>80</v>
@@ -39233,7 +39224,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39259,16 +39250,16 @@
         <v>90</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M306" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>80</v>
@@ -39349,7 +39340,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39375,16 +39366,16 @@
         <v>102</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M307" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>80</v>
@@ -39413,7 +39404,7 @@
       </c>
       <c r="X307" s="2"/>
       <c r="Y307" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z307" t="s" s="2">
         <v>80</v>
@@ -39463,7 +39454,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39489,16 +39480,16 @@
         <v>108</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L308" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M308" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N308" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L308" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M308" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>80</v>
@@ -39579,7 +39570,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39605,13 +39596,13 @@
         <v>654</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="N309" s="2"/>
       <c r="O309" t="s" s="2">
@@ -39661,7 +39652,7 @@
         <v>80</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>78</v>
@@ -39682,7 +39673,7 @@
         <v>80</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="AM309" t="s" s="2">
         <v>80</v>
@@ -39693,7 +39684,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39805,7 +39796,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39919,7 +39910,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39945,13 +39936,13 @@
         <v>660</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N312" t="s" s="2">
         <v>663</v>
@@ -40035,7 +40026,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40061,16 +40052,16 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M313" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>80</v>
@@ -40153,7 +40144,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40179,16 +40170,16 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>80</v>
@@ -40269,7 +40260,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40295,16 +40286,16 @@
         <v>102</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M315" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>80</v>
@@ -40385,7 +40376,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40411,16 +40402,16 @@
         <v>108</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N316" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L316" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M316" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>80</v>
@@ -40501,7 +40492,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40527,13 +40518,13 @@
         <v>654</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40583,7 +40574,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40604,7 +40595,7 @@
         <v>80</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
@@ -40615,7 +40606,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40727,7 +40718,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40841,7 +40832,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40867,13 +40858,13 @@
         <v>660</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N320" t="s" s="2">
         <v>663</v>
@@ -40957,7 +40948,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -40983,16 +40974,16 @@
         <v>108</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M321" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>80</v>
@@ -41075,7 +41066,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -41101,16 +41092,16 @@
         <v>90</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M322" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>80</v>
@@ -41191,7 +41182,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41217,16 +41208,16 @@
         <v>102</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M323" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>80</v>
@@ -41307,7 +41298,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41333,16 +41324,16 @@
         <v>108</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M324" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N324" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>80</v>
@@ -41423,7 +41414,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41449,16 +41440,16 @@
         <v>218</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="L325" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="M325" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="N325" t="s" s="2">
         <v>1155</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>1156</v>
-      </c>
-      <c r="M325" t="s" s="2">
-        <v>1157</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>1158</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>80</v>
@@ -41507,7 +41498,7 @@
         <v>80</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>78</v>
@@ -41525,10 +41516,10 @@
         <v>80</v>
       </c>
       <c r="AK325" t="s" s="2">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AL325" t="s" s="2">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>80</v>
@@ -41539,7 +41530,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -41651,7 +41642,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41765,7 +41756,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -41791,13 +41782,13 @@
         <v>438</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
@@ -41847,7 +41838,7 @@
         <v>80</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>78</v>
@@ -41856,7 +41847,7 @@
         <v>88</v>
       </c>
       <c r="AH328" t="s" s="2">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="AI328" t="s" s="2">
         <v>100</v>
@@ -41868,18 +41859,18 @@
         <v>80</v>
       </c>
       <c r="AL328" t="s" s="2">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="AM328" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN328" t="s" s="2">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -41905,20 +41896,20 @@
         <v>438</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N329" s="2"/>
       <c r="O329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P329" t="s" s="2">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="Q329" t="s" s="2">
         <v>80</v>
@@ -41963,7 +41954,7 @@
         <v>80</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>78</v>
@@ -41972,7 +41963,7 @@
         <v>88</v>
       </c>
       <c r="AH329" t="s" s="2">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="AI329" t="s" s="2">
         <v>100</v>
@@ -41984,18 +41975,18 @@
         <v>80</v>
       </c>
       <c r="AL329" t="s" s="2">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="AM329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN329" t="s" s="2">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -42021,13 +42012,13 @@
         <v>777</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" t="s" s="2">
@@ -42077,7 +42068,7 @@
         <v>80</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>78</v>
@@ -42095,21 +42086,21 @@
         <v>80</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="AL330" t="s" s="2">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="AM330" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN330" t="s" s="2">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -42132,16 +42123,16 @@
         <v>80</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="N331" s="2"/>
       <c r="O331" t="s" s="2">
@@ -42191,7 +42182,7 @@
         <v>80</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>78</v>
@@ -42209,21 +42200,21 @@
         <v>80</v>
       </c>
       <c r="AK331" t="s" s="2">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="AL331" t="s" s="2">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="AM331" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN331" t="s" s="2">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -42335,7 +42326,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -42449,7 +42440,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -42475,13 +42466,13 @@
         <v>660</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N334" t="s" s="2">
         <v>663</v>
@@ -42565,7 +42556,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -42591,16 +42582,16 @@
         <v>108</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M335" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>80</v>
@@ -42683,7 +42674,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -42709,16 +42700,16 @@
         <v>90</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="M336" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>80</v>
@@ -42799,7 +42790,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -42825,16 +42816,16 @@
         <v>102</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>80</v>
@@ -42844,7 +42835,7 @@
         <v>80</v>
       </c>
       <c r="R337" t="s" s="2">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="S337" t="s" s="2">
         <v>80</v>
@@ -42915,7 +42906,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -42941,16 +42932,16 @@
         <v>108</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>80</v>
@@ -42979,7 +42970,7 @@
       </c>
       <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>80</v>
@@ -43029,7 +43020,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -43055,13 +43046,13 @@
         <v>654</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" t="s" s="2">
@@ -43111,7 +43102,7 @@
         <v>80</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>78</v>
@@ -43129,10 +43120,10 @@
         <v>80</v>
       </c>
       <c r="AK339" t="s" s="2">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="AL339" t="s" s="2">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="AM339" t="s" s="2">
         <v>80</v>
@@ -43143,7 +43134,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -43255,7 +43246,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -43369,7 +43360,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -43395,13 +43386,13 @@
         <v>660</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="N342" t="s" s="2">
         <v>663</v>
@@ -43485,7 +43476,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -43511,16 +43502,16 @@
         <v>108</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M343" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>80</v>
@@ -43603,7 +43594,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -43629,16 +43620,16 @@
         <v>90</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="M344" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>80</v>
@@ -43719,7 +43710,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -43745,16 +43736,16 @@
         <v>102</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="M345" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>80</v>
@@ -43835,7 +43826,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -43861,16 +43852,16 @@
         <v>108</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>80</v>
@@ -43951,7 +43942,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -43977,10 +43968,10 @@
         <v>225</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M347" t="s" s="2">
         <v>434</v>
@@ -44033,7 +44024,7 @@
         <v>80</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>78</v>
@@ -44054,7 +44045,7 @@
         <v>80</v>
       </c>
       <c r="AL347" t="s" s="2">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="AM347" t="s" s="2">
         <v>471</v>
@@ -44065,7 +44056,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -44088,13 +44079,13 @@
         <v>80</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
@@ -44145,7 +44136,7 @@
         <v>80</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>78</v>
@@ -44163,10 +44154,10 @@
         <v>80</v>
       </c>
       <c r="AK348" t="s" s="2">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="AL348" t="s" s="2">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="AM348" t="s" s="2">
         <v>80</v>
@@ -44177,7 +44168,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -44289,7 +44280,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -44403,7 +44394,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -44519,7 +44510,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -44545,13 +44536,13 @@
         <v>189</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="N352" s="2"/>
       <c r="O352" t="s" s="2">
@@ -44581,7 +44572,7 @@
       </c>
       <c r="X352" s="2"/>
       <c r="Y352" t="s" s="2">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="Z352" t="s" s="2">
         <v>80</v>
@@ -44599,7 +44590,7 @@
         <v>80</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>88</v>
@@ -44617,21 +44608,21 @@
         <v>80</v>
       </c>
       <c r="AK352" t="s" s="2">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="AL352" t="s" s="2">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="AM352" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN352" t="s" s="2">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -44743,7 +44734,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -44857,7 +44848,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -44883,10 +44874,10 @@
         <v>327</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M355" t="s" s="2">
         <v>869</v>
@@ -44973,7 +44964,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -45085,7 +45076,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -45199,7 +45190,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -45225,10 +45216,10 @@
         <v>102</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="M358" t="s" s="2">
         <v>340</v>
@@ -45241,7 +45232,7 @@
       </c>
       <c r="P358" s="2"/>
       <c r="Q358" t="s" s="2">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="R358" t="s" s="2">
         <v>80</v>
@@ -45315,7 +45306,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -45429,7 +45420,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -45455,10 +45446,10 @@
         <v>108</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
@@ -45543,7 +45534,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -45569,10 +45560,10 @@
         <v>90</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
@@ -45657,7 +45648,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -45683,13 +45674,13 @@
         <v>297</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="N362" t="s" s="2">
         <v>369</v>
@@ -45773,7 +45764,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -45799,13 +45790,13 @@
         <v>90</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="N363" t="s" s="2">
         <v>377</v>
@@ -45889,7 +45880,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -45915,13 +45906,13 @@
         <v>189</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="N364" s="2"/>
       <c r="O364" t="s" s="2">
@@ -45950,10 +45941,10 @@
         <v>265</v>
       </c>
       <c r="X364" t="s" s="2">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="Y364" t="s" s="2">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="Z364" t="s" s="2">
         <v>80</v>
@@ -45971,7 +45962,7 @@
         <v>80</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>78</v>
@@ -45989,21 +45980,21 @@
         <v>80</v>
       </c>
       <c r="AK364" t="s" s="2">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AL364" t="s" s="2">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="AM364" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN364" t="s" s="2">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -46026,13 +46017,13 @@
         <v>80</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="M365" t="s" s="2">
         <v>434</v>
@@ -46085,7 +46076,7 @@
         <v>80</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>78</v>
@@ -46100,13 +46091,13 @@
         <v>100</v>
       </c>
       <c r="AJ365" t="s" s="2">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="AK365" t="s" s="2">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AL365" t="s" s="2">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="AM365" t="s" s="2">
         <v>80</v>
@@ -46117,11 +46108,11 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -46140,16 +46131,16 @@
         <v>80</v>
       </c>
       <c r="J366" t="s" s="2">
+        <v>1276</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>1277</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>1278</v>
+      </c>
+      <c r="M366" t="s" s="2">
         <v>1279</v>
-      </c>
-      <c r="K366" t="s" s="2">
-        <v>1280</v>
-      </c>
-      <c r="L366" t="s" s="2">
-        <v>1281</v>
-      </c>
-      <c r="M366" t="s" s="2">
-        <v>1282</v>
       </c>
       <c r="N366" s="2"/>
       <c r="O366" t="s" s="2">
@@ -46199,7 +46190,7 @@
         <v>80</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>78</v>
@@ -46220,7 +46211,7 @@
         <v>80</v>
       </c>
       <c r="AL366" t="s" s="2">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AM366" t="s" s="2">
         <v>80</v>
@@ -46231,7 +46222,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -46254,16 +46245,16 @@
         <v>80</v>
       </c>
       <c r="J367" t="s" s="2">
+        <v>1282</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>1283</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>1284</v>
+      </c>
+      <c r="M367" t="s" s="2">
         <v>1285</v>
-      </c>
-      <c r="K367" t="s" s="2">
-        <v>1286</v>
-      </c>
-      <c r="L367" t="s" s="2">
-        <v>1287</v>
-      </c>
-      <c r="M367" t="s" s="2">
-        <v>1288</v>
       </c>
       <c r="N367" s="2"/>
       <c r="O367" t="s" s="2">
@@ -46313,7 +46304,7 @@
         <v>80</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>78</v>
@@ -46328,13 +46319,13 @@
         <v>100</v>
       </c>
       <c r="AJ367" t="s" s="2">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="AK367" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL367" t="s" s="2">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="AM367" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13576" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13575" uniqueCount="1284">
   <si>
     <t>Property</t>
   </si>
@@ -2472,13 +2472,11 @@
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
   </si>
   <si>
-    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
-  </si>
-  <si>
-    <t>Code for a known / defined timing pattern.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
+    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
+【JP Core仕様】JAMI標準用法コード(16桁)を使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMI_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -20054,29 +20052,27 @@
       <c r="W138" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X138" t="s" s="2">
+      <c r="X138" s="2"/>
+      <c r="Y138" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="Y138" t="s" s="2">
+      <c r="Z138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE138" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>78</v>
@@ -20097,7 +20093,7 @@
         <v>80</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>80</v>
@@ -20108,7 +20104,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -20134,13 +20130,13 @@
         <v>297</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -20190,7 +20186,7 @@
         <v>80</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>78</v>
@@ -20211,18 +20207,18 @@
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN139" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>796</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -20248,16 +20244,16 @@
         <v>189</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="M140" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>80</v>
@@ -20286,25 +20282,25 @@
       </c>
       <c r="X140" s="2"/>
       <c r="Y140" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE140" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>78</v>
@@ -20325,18 +20321,18 @@
         <v>80</v>
       </c>
       <c r="AL140" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN140" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>805</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -20448,7 +20444,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -20562,7 +20558,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -20588,10 +20584,10 @@
         <v>327</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>810</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>594</v>
@@ -20678,7 +20674,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -20790,7 +20786,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20904,7 +20900,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -21020,7 +21016,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -21134,7 +21130,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -21250,7 +21246,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -21366,7 +21362,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -21482,7 +21478,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -21598,7 +21594,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -21624,16 +21620,16 @@
         <v>189</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="L152" t="s" s="2">
+      <c r="M152" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>80</v>
@@ -21662,25 +21658,25 @@
       </c>
       <c r="X152" s="2"/>
       <c r="Y152" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE152" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>78</v>
@@ -21701,18 +21697,18 @@
         <v>80</v>
       </c>
       <c r="AL152" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN152" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>827</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -21824,7 +21820,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21938,7 +21934,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21964,10 +21960,10 @@
         <v>327</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M155" t="s" s="2">
         <v>594</v>
@@ -22054,7 +22050,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -22166,7 +22162,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -22280,7 +22276,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -22396,7 +22392,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -22510,7 +22506,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22626,7 +22622,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22742,7 +22738,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22858,7 +22854,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22884,10 +22880,10 @@
         <v>90</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>840</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>376</v>
@@ -22974,7 +22970,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -23000,16 +22996,16 @@
         <v>189</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>843</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="M164" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>80</v>
@@ -23037,28 +23033,28 @@
         <v>265</v>
       </c>
       <c r="X164" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="Y164" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="Y164" t="s" s="2">
+      <c r="Z164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE164" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>78</v>
@@ -23079,18 +23075,18 @@
         <v>80</v>
       </c>
       <c r="AL164" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN164" t="s" s="2">
         <v>850</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN164" t="s" s="2">
-        <v>851</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -23202,7 +23198,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23316,7 +23312,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -23342,13 +23338,13 @@
         <v>327</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N167" t="s" s="2">
         <v>331</v>
@@ -23430,10 +23426,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>80</v>
@@ -23458,10 +23454,10 @@
         <v>327</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>857</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>858</v>
       </c>
       <c r="M168" t="s" s="2">
         <v>594</v>
@@ -23496,7 +23492,7 @@
       </c>
       <c r="X168" s="2"/>
       <c r="Y168" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>80</v>
@@ -23546,7 +23542,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23658,7 +23654,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23772,7 +23768,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23798,10 +23794,10 @@
         <v>102</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="M171" t="s" s="2">
         <v>599</v>
@@ -23814,7 +23810,7 @@
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>80</v>
@@ -23888,7 +23884,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -24002,7 +23998,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -24028,10 +24024,10 @@
         <v>108</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>575</v>
@@ -24118,7 +24114,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24144,10 +24140,10 @@
         <v>90</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>575</v>
@@ -24234,7 +24230,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24350,10 +24346,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>80</v>
@@ -24378,10 +24374,10 @@
         <v>327</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>594</v>
@@ -24416,7 +24412,7 @@
       </c>
       <c r="X176" s="2"/>
       <c r="Y176" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>80</v>
@@ -24466,7 +24462,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24578,7 +24574,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24692,7 +24688,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24718,10 +24714,10 @@
         <v>102</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>599</v>
@@ -24734,7 +24730,7 @@
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R179" t="s" s="2">
         <v>80</v>
@@ -24808,7 +24804,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24922,7 +24918,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24948,10 +24944,10 @@
         <v>108</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="L181" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="M181" t="s" s="2">
         <v>575</v>
@@ -25038,7 +25034,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25064,10 +25060,10 @@
         <v>90</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>575</v>
@@ -25154,7 +25150,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25270,7 +25266,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25296,10 +25292,10 @@
         <v>90</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="M184" t="s" s="2">
         <v>376</v>
@@ -25386,7 +25382,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25412,10 +25408,10 @@
         <v>638</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -25466,7 +25462,7 @@
         <v>80</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>78</v>
@@ -25493,12 +25489,12 @@
         <v>80</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25610,7 +25606,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25724,7 +25720,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25750,16 +25746,16 @@
         <v>189</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="L188" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25788,25 +25784,25 @@
       </c>
       <c r="X188" s="2"/>
       <c r="Y188" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE188" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>899</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25833,12 +25829,12 @@
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25950,7 +25946,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -26064,7 +26060,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -26090,10 +26086,10 @@
         <v>327</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>594</v>
@@ -26180,7 +26176,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26292,7 +26288,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26406,7 +26402,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26432,10 +26428,10 @@
         <v>102</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="M194" t="s" s="2">
         <v>599</v>
@@ -26522,7 +26518,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26636,7 +26632,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26662,10 +26658,10 @@
         <v>108</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M196" t="s" s="2">
         <v>575</v>
@@ -26752,7 +26748,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26778,10 +26774,10 @@
         <v>90</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M197" t="s" s="2">
         <v>575</v>
@@ -26868,7 +26864,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26984,7 +26980,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -27100,7 +27096,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27123,19 +27119,19 @@
         <v>80</v>
       </c>
       <c r="J200" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="K200" t="s" s="2">
         <v>917</v>
       </c>
-      <c r="K200" t="s" s="2">
+      <c r="L200" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>918</v>
       </c>
-      <c r="L200" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>920</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27182,7 +27178,7 @@
         <v>315</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27194,27 +27190,27 @@
         <v>144</v>
       </c>
       <c r="AI200" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL200" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="AJ200" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK200" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL200" t="s" s="2">
+      <c r="AM200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN200" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="AM200" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN200" t="s" s="2">
-        <v>924</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27326,7 +27322,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27440,7 +27436,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27466,10 +27462,10 @@
         <v>660</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>662</v>
@@ -27556,7 +27552,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27585,7 +27581,7 @@
         <v>668</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
@@ -27672,7 +27668,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27698,10 +27694,10 @@
         <v>90</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
@@ -27786,7 +27782,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27812,10 +27808,10 @@
         <v>102</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
@@ -27848,7 +27844,7 @@
       </c>
       <c r="X206" s="2"/>
       <c r="Y206" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>80</v>
@@ -27898,7 +27894,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27924,10 +27920,10 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>696</v>
@@ -28014,10 +28010,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C208" t="s" s="2">
         <v>80</v>
@@ -28039,19 +28035,19 @@
         <v>80</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>941</v>
       </c>
-      <c r="M208" t="s" s="2">
-        <v>942</v>
-      </c>
       <c r="N208" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -28100,7 +28096,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -28112,27 +28108,27 @@
         <v>144</v>
       </c>
       <c r="AI208" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL208" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="AJ208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL208" t="s" s="2">
+      <c r="AM208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN208" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="AM208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN208" t="s" s="2">
-        <v>924</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28244,7 +28240,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28358,7 +28354,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28384,10 +28380,10 @@
         <v>660</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="L211" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>944</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>662</v>
@@ -28474,7 +28470,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28503,7 +28499,7 @@
         <v>668</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
@@ -28590,7 +28586,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28616,10 +28612,10 @@
         <v>90</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
@@ -28704,7 +28700,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28730,10 +28726,10 @@
         <v>102</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L214" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
@@ -28818,7 +28814,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28844,10 +28840,10 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>696</v>
@@ -28882,7 +28878,7 @@
       </c>
       <c r="X215" s="2"/>
       <c r="Y215" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28932,7 +28928,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28955,19 +28951,19 @@
         <v>89</v>
       </c>
       <c r="J216" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="K216" t="s" s="2">
         <v>950</v>
       </c>
-      <c r="K216" t="s" s="2">
+      <c r="L216" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="M216" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -29014,7 +29010,7 @@
         <v>315</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -29035,18 +29031,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN216" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN216" t="s" s="2">
-        <v>957</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29158,7 +29154,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29272,7 +29268,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29295,13 +29291,13 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="K219" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="K219" t="s" s="2">
-        <v>962</v>
-      </c>
       <c r="L219" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -29352,7 +29348,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29373,7 +29369,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29384,7 +29380,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29496,7 +29492,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29610,7 +29606,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29636,10 +29632,10 @@
         <v>660</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>662</v>
@@ -29726,7 +29722,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29842,7 +29838,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29868,10 +29864,10 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>970</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>971</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
@@ -29956,7 +29952,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29982,10 +29978,10 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" t="s" s="2">
@@ -30018,7 +30014,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -30068,7 +30064,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30094,10 +30090,10 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M226" t="s" s="2">
         <v>696</v>
@@ -30184,7 +30180,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30207,13 +30203,13 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -30264,7 +30260,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30285,7 +30281,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30296,7 +30292,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30408,7 +30404,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30522,7 +30518,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30548,10 +30544,10 @@
         <v>660</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="L230" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>944</v>
       </c>
       <c r="M230" t="s" s="2">
         <v>662</v>
@@ -30638,7 +30634,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30754,7 +30750,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30780,10 +30776,10 @@
         <v>90</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L232" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
@@ -30868,7 +30864,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30894,10 +30890,10 @@
         <v>102</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" t="s" s="2">
@@ -30982,7 +30978,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -31008,10 +31004,10 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M234" t="s" s="2">
         <v>696</v>
@@ -31098,10 +31094,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C235" t="s" s="2">
         <v>80</v>
@@ -31123,19 +31119,19 @@
         <v>89</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L235" t="s" s="2">
+      <c r="M235" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>80</v>
@@ -31184,7 +31180,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31205,18 +31201,18 @@
         <v>80</v>
       </c>
       <c r="AL235" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="AM235" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN235" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="AM235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN235" t="s" s="2">
-        <v>957</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31328,7 +31324,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31442,7 +31438,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -31465,13 +31461,13 @@
         <v>89</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>992</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>993</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31522,7 +31518,7 @@
         <v>80</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>78</v>
@@ -31543,7 +31539,7 @@
         <v>80</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>80</v>
@@ -31554,7 +31550,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31666,7 +31662,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31780,7 +31776,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31806,10 +31802,10 @@
         <v>660</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>944</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>662</v>
@@ -31896,7 +31892,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -32012,7 +32008,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -32038,10 +32034,10 @@
         <v>90</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
@@ -32126,7 +32122,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32152,10 +32148,10 @@
         <v>102</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
@@ -32240,7 +32236,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32266,10 +32262,10 @@
         <v>108</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="L245" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="M245" t="s" s="2">
         <v>696</v>
@@ -32304,7 +32300,7 @@
       </c>
       <c r="X245" s="2"/>
       <c r="Y245" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z245" t="s" s="2">
         <v>80</v>
@@ -32354,7 +32350,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32377,13 +32373,13 @@
         <v>89</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="L246" t="s" s="2">
         <v>994</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>995</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
@@ -32434,7 +32430,7 @@
         <v>80</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>78</v>
@@ -32455,7 +32451,7 @@
         <v>80</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>80</v>
@@ -32466,7 +32462,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32578,7 +32574,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -32692,7 +32688,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32718,10 +32714,10 @@
         <v>660</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M249" t="s" s="2">
         <v>662</v>
@@ -32808,7 +32804,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32924,7 +32920,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32950,10 +32946,10 @@
         <v>90</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
@@ -33038,7 +33034,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33064,10 +33060,10 @@
         <v>102</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
@@ -33152,7 +33148,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33178,10 +33174,10 @@
         <v>108</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="L253" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="M253" t="s" s="2">
         <v>696</v>
@@ -33268,7 +33264,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33291,19 +33287,19 @@
         <v>89</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="L254" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="M254" t="s" s="2">
         <v>1003</v>
       </c>
-      <c r="L254" t="s" s="2">
-        <v>1003</v>
-      </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>1004</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>80</v>
@@ -33352,7 +33348,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33373,18 +33369,18 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="AM254" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN254" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="AM254" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN254" t="s" s="2">
-        <v>1008</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33496,7 +33492,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33610,7 +33606,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33633,16 +33629,16 @@
         <v>89</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L257" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="M257" t="s" s="2">
         <v>1012</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>1012</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>1013</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" t="s" s="2">
@@ -33692,7 +33688,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33713,7 +33709,7 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
@@ -33724,7 +33720,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33836,7 +33832,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33950,7 +33946,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33976,13 +33972,13 @@
         <v>660</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L260" t="s" s="2">
+      <c r="M260" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M260" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N260" t="s" s="2">
         <v>663</v>
@@ -34066,7 +34062,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34092,16 +34088,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L261" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M261" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34184,7 +34180,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34210,16 +34206,16 @@
         <v>90</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>80</v>
@@ -34300,7 +34296,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34326,16 +34322,16 @@
         <v>102</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>80</v>
@@ -34364,7 +34360,7 @@
       </c>
       <c r="X263" s="2"/>
       <c r="Y263" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>80</v>
@@ -34414,7 +34410,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34440,16 +34436,16 @@
         <v>108</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L264" t="s" s="2">
+      <c r="M264" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M264" t="s" s="2">
+      <c r="N264" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>80</v>
@@ -34530,7 +34526,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34553,16 +34549,16 @@
         <v>89</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" t="s" s="2">
@@ -34612,7 +34608,7 @@
         <v>80</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>78</v>
@@ -34633,7 +34629,7 @@
         <v>80</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>80</v>
@@ -34644,7 +34640,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34756,7 +34752,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34870,7 +34866,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34896,13 +34892,13 @@
         <v>660</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L268" t="s" s="2">
+      <c r="M268" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M268" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N268" t="s" s="2">
         <v>663</v>
@@ -34986,7 +34982,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -35012,16 +35008,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L269" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M269" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -35104,7 +35100,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35130,16 +35126,16 @@
         <v>90</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>80</v>
@@ -35220,7 +35216,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35246,16 +35242,16 @@
         <v>102</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M271" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>80</v>
@@ -35284,7 +35280,7 @@
       </c>
       <c r="X271" s="2"/>
       <c r="Y271" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>80</v>
@@ -35334,7 +35330,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35360,16 +35356,16 @@
         <v>108</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L272" t="s" s="2">
+      <c r="M272" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M272" t="s" s="2">
+      <c r="N272" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>80</v>
@@ -35450,7 +35446,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35473,19 +35469,19 @@
         <v>89</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="L273" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="M273" t="s" s="2">
         <v>1047</v>
       </c>
-      <c r="L273" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="M273" t="s" s="2">
+      <c r="N273" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35534,7 +35530,7 @@
         <v>80</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>78</v>
@@ -35555,7 +35551,7 @@
         <v>80</v>
       </c>
       <c r="AL273" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AM273" t="s" s="2">
         <v>80</v>
@@ -35566,7 +35562,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35678,7 +35674,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35792,7 +35788,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35818,13 +35814,13 @@
         <v>660</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L276" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L276" t="s" s="2">
+      <c r="M276" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M276" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N276" t="s" s="2">
         <v>663</v>
@@ -35908,7 +35904,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35934,16 +35930,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M277" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -36026,7 +36022,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36052,16 +36048,16 @@
         <v>90</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36142,7 +36138,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36168,16 +36164,16 @@
         <v>102</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M279" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>80</v>
@@ -36206,7 +36202,7 @@
       </c>
       <c r="X279" s="2"/>
       <c r="Y279" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z279" t="s" s="2">
         <v>80</v>
@@ -36256,7 +36252,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36282,16 +36278,16 @@
         <v>108</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L280" t="s" s="2">
+      <c r="M280" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M280" t="s" s="2">
+      <c r="N280" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>80</v>
@@ -36372,7 +36368,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36395,19 +36391,19 @@
         <v>89</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="N281" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36456,7 +36452,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36477,7 +36473,7 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
@@ -36488,7 +36484,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36600,7 +36596,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36714,7 +36710,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36740,13 +36736,13 @@
         <v>660</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L284" t="s" s="2">
+      <c r="M284" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M284" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N284" t="s" s="2">
         <v>663</v>
@@ -36830,7 +36826,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36856,16 +36852,16 @@
         <v>108</v>
       </c>
       <c r="K285" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L285" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M285" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>80</v>
@@ -36948,7 +36944,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36974,16 +36970,16 @@
         <v>90</v>
       </c>
       <c r="K286" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L286" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L286" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M286" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>80</v>
@@ -37064,7 +37060,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37090,16 +37086,16 @@
         <v>102</v>
       </c>
       <c r="K287" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L287" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L287" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>80</v>
@@ -37128,7 +37124,7 @@
       </c>
       <c r="X287" s="2"/>
       <c r="Y287" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>80</v>
@@ -37178,7 +37174,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37204,16 +37200,16 @@
         <v>108</v>
       </c>
       <c r="K288" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L288" t="s" s="2">
+      <c r="M288" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M288" t="s" s="2">
+      <c r="N288" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>80</v>
@@ -37294,7 +37290,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37317,13 +37313,13 @@
         <v>80</v>
       </c>
       <c r="J289" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="K289" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="K289" t="s" s="2">
+      <c r="L289" t="s" s="2">
         <v>1073</v>
-      </c>
-      <c r="L289" t="s" s="2">
-        <v>1074</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -37374,7 +37370,7 @@
         <v>80</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37392,10 +37388,10 @@
         <v>80</v>
       </c>
       <c r="AK289" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="AL289" t="s" s="2">
         <v>1075</v>
-      </c>
-      <c r="AL289" t="s" s="2">
-        <v>1076</v>
       </c>
       <c r="AM289" t="s" s="2">
         <v>80</v>
@@ -37406,7 +37402,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37518,7 +37514,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37628,10 +37624,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="B292" t="s" s="2">
         <v>1078</v>
-      </c>
-      <c r="B292" t="s" s="2">
-        <v>1079</v>
       </c>
       <c r="C292" t="s" s="2">
         <v>80</v>
@@ -37653,13 +37649,13 @@
         <v>80</v>
       </c>
       <c r="J292" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="K292" t="s" s="2">
         <v>1080</v>
       </c>
-      <c r="K292" t="s" s="2">
+      <c r="L292" t="s" s="2">
         <v>1081</v>
-      </c>
-      <c r="L292" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -37742,7 +37738,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37854,7 +37850,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37966,7 +37962,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37992,13 +37988,13 @@
         <v>102</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>1086</v>
       </c>
-      <c r="L295" t="s" s="2">
+      <c r="M295" t="s" s="2">
         <v>1087</v>
-      </c>
-      <c r="M295" t="s" s="2">
-        <v>1088</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" t="s" s="2">
@@ -38006,49 +38002,49 @@
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="R295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE295" t="s" s="2">
         <v>1089</v>
-      </c>
-      <c r="R295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE295" t="s" s="2">
-        <v>1090</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>88</v>
@@ -38080,7 +38076,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38106,10 +38102,10 @@
         <v>189</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -38158,7 +38154,7 @@
         <v>315</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>78</v>
@@ -38190,10 +38186,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C297" t="s" s="2">
         <v>80</v>
@@ -38218,10 +38214,10 @@
         <v>189</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>1095</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>1096</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
@@ -38272,7 +38268,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38304,7 +38300,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38416,7 +38412,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38530,7 +38526,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38556,13 +38552,13 @@
         <v>327</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N300" t="s" s="2">
         <v>331</v>
@@ -38594,7 +38590,7 @@
       </c>
       <c r="X300" s="2"/>
       <c r="Y300" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>80</v>
@@ -38644,7 +38640,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38670,13 +38666,13 @@
         <v>90</v>
       </c>
       <c r="K301" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>1102</v>
       </c>
-      <c r="L301" t="s" s="2">
+      <c r="M301" t="s" s="2">
         <v>1103</v>
-      </c>
-      <c r="M301" t="s" s="2">
-        <v>1104</v>
       </c>
       <c r="N301" t="s" s="2">
         <v>377</v>
@@ -38760,10 +38756,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C302" t="s" s="2">
         <v>80</v>
@@ -38785,13 +38781,13 @@
         <v>80</v>
       </c>
       <c r="J302" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="K302" t="s" s="2">
         <v>1106</v>
       </c>
-      <c r="K302" t="s" s="2">
-        <v>1107</v>
-      </c>
       <c r="L302" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -38874,7 +38870,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38990,7 +38986,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39013,16 +39009,16 @@
         <v>80</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>1110</v>
       </c>
-      <c r="L304" t="s" s="2">
+      <c r="M304" t="s" s="2">
         <v>1111</v>
-      </c>
-      <c r="M304" t="s" s="2">
-        <v>1112</v>
       </c>
       <c r="N304" s="2"/>
       <c r="O304" t="s" s="2">
@@ -39072,7 +39068,7 @@
         <v>80</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>78</v>
@@ -39093,7 +39089,7 @@
         <v>80</v>
       </c>
       <c r="AL304" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AM304" t="s" s="2">
         <v>80</v>
@@ -39104,7 +39100,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39216,7 +39212,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39330,7 +39326,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39446,7 +39442,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39469,16 +39465,16 @@
         <v>80</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>1118</v>
       </c>
-      <c r="L308" t="s" s="2">
-        <v>1119</v>
-      </c>
       <c r="M308" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N308" s="2"/>
       <c r="O308" t="s" s="2">
@@ -39528,7 +39524,7 @@
         <v>80</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>78</v>
@@ -39549,7 +39545,7 @@
         <v>80</v>
       </c>
       <c r="AL308" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AM308" t="s" s="2">
         <v>80</v>
@@ -39560,7 +39556,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39672,7 +39668,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39786,7 +39782,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39812,13 +39808,13 @@
         <v>660</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L311" t="s" s="2">
+      <c r="M311" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M311" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N311" t="s" s="2">
         <v>663</v>
@@ -39902,7 +39898,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39928,16 +39924,16 @@
         <v>108</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L312" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M312" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>80</v>
@@ -40020,7 +40016,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40046,16 +40042,16 @@
         <v>90</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M313" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>80</v>
@@ -40136,7 +40132,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40162,16 +40158,16 @@
         <v>102</v>
       </c>
       <c r="K314" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L314" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>80</v>
@@ -40200,7 +40196,7 @@
       </c>
       <c r="X314" s="2"/>
       <c r="Y314" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z314" t="s" s="2">
         <v>80</v>
@@ -40250,7 +40246,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40276,16 +40272,16 @@
         <v>108</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L315" t="s" s="2">
+      <c r="M315" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M315" t="s" s="2">
+      <c r="N315" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>80</v>
@@ -40366,7 +40362,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40392,13 +40388,13 @@
         <v>654</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>1129</v>
       </c>
-      <c r="L316" t="s" s="2">
-        <v>1130</v>
-      </c>
       <c r="M316" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N316" s="2"/>
       <c r="O316" t="s" s="2">
@@ -40448,7 +40444,7 @@
         <v>80</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>78</v>
@@ -40469,7 +40465,7 @@
         <v>80</v>
       </c>
       <c r="AL316" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AM316" t="s" s="2">
         <v>80</v>
@@ -40480,7 +40476,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40592,7 +40588,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40706,7 +40702,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40732,13 +40728,13 @@
         <v>660</v>
       </c>
       <c r="K319" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L319" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L319" t="s" s="2">
+      <c r="M319" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M319" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N319" t="s" s="2">
         <v>663</v>
@@ -40822,7 +40818,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40848,16 +40844,16 @@
         <v>108</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M320" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>80</v>
@@ -40940,7 +40936,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -40966,16 +40962,16 @@
         <v>90</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M321" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>80</v>
@@ -41056,7 +41052,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -41082,16 +41078,16 @@
         <v>102</v>
       </c>
       <c r="K322" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L322" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M322" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>80</v>
@@ -41172,7 +41168,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41198,16 +41194,16 @@
         <v>108</v>
       </c>
       <c r="K323" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L323" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L323" t="s" s="2">
+      <c r="M323" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M323" t="s" s="2">
+      <c r="N323" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>80</v>
@@ -41288,7 +41284,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41314,13 +41310,13 @@
         <v>654</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>1140</v>
       </c>
-      <c r="L324" t="s" s="2">
-        <v>1141</v>
-      </c>
       <c r="M324" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" t="s" s="2">
@@ -41370,7 +41366,7 @@
         <v>80</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>78</v>
@@ -41391,7 +41387,7 @@
         <v>80</v>
       </c>
       <c r="AL324" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AM324" t="s" s="2">
         <v>80</v>
@@ -41402,7 +41398,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41514,7 +41510,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -41628,7 +41624,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41654,13 +41650,13 @@
         <v>660</v>
       </c>
       <c r="K327" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L327" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L327" t="s" s="2">
+      <c r="M327" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M327" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N327" t="s" s="2">
         <v>663</v>
@@ -41744,7 +41740,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -41770,16 +41766,16 @@
         <v>108</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M328" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>80</v>
@@ -41862,7 +41858,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -41888,16 +41884,16 @@
         <v>90</v>
       </c>
       <c r="K329" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L329" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L329" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M329" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>80</v>
@@ -41978,7 +41974,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -42004,16 +42000,16 @@
         <v>102</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L330" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M330" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>80</v>
@@ -42094,7 +42090,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -42120,16 +42116,16 @@
         <v>108</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L331" t="s" s="2">
+      <c r="M331" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M331" t="s" s="2">
+      <c r="N331" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N331" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>80</v>
@@ -42210,7 +42206,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -42236,16 +42232,16 @@
         <v>218</v>
       </c>
       <c r="K332" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="L332" t="s" s="2">
         <v>1150</v>
       </c>
-      <c r="L332" t="s" s="2">
+      <c r="M332" t="s" s="2">
         <v>1151</v>
       </c>
-      <c r="M332" t="s" s="2">
+      <c r="N332" t="s" s="2">
         <v>1152</v>
-      </c>
-      <c r="N332" t="s" s="2">
-        <v>1153</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>80</v>
@@ -42294,7 +42290,7 @@
         <v>80</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>78</v>
@@ -42312,10 +42308,10 @@
         <v>80</v>
       </c>
       <c r="AK332" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="AL332" t="s" s="2">
         <v>1154</v>
-      </c>
-      <c r="AL332" t="s" s="2">
-        <v>1155</v>
       </c>
       <c r="AM332" t="s" s="2">
         <v>80</v>
@@ -42326,7 +42322,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -42438,7 +42434,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -42552,7 +42548,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -42578,13 +42574,13 @@
         <v>438</v>
       </c>
       <c r="K335" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>1159</v>
       </c>
-      <c r="L335" t="s" s="2">
+      <c r="M335" t="s" s="2">
         <v>1160</v>
-      </c>
-      <c r="M335" t="s" s="2">
-        <v>1161</v>
       </c>
       <c r="N335" s="2"/>
       <c r="O335" t="s" s="2">
@@ -42634,16 +42630,16 @@
         <v>80</v>
       </c>
       <c r="AE335" t="s" s="2">
+        <v>1161</v>
+      </c>
+      <c r="AF335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG335" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH335" t="s" s="2">
         <v>1162</v>
-      </c>
-      <c r="AF335" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG335" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH335" t="s" s="2">
-        <v>1163</v>
       </c>
       <c r="AI335" t="s" s="2">
         <v>100</v>
@@ -42655,18 +42651,18 @@
         <v>80</v>
       </c>
       <c r="AL335" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="AM335" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN335" t="s" s="2">
         <v>1164</v>
-      </c>
-      <c r="AM335" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN335" t="s" s="2">
-        <v>1165</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -42692,66 +42688,66 @@
         <v>438</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="L336" t="s" s="2">
         <v>1167</v>
       </c>
-      <c r="L336" t="s" s="2">
+      <c r="M336" t="s" s="2">
         <v>1168</v>
-      </c>
-      <c r="M336" t="s" s="2">
-        <v>1169</v>
       </c>
       <c r="N336" s="2"/>
       <c r="O336" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P336" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="Q336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE336" t="s" s="2">
         <v>1170</v>
       </c>
-      <c r="Q336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE336" t="s" s="2">
-        <v>1171</v>
-      </c>
       <c r="AF336" t="s" s="2">
         <v>78</v>
       </c>
@@ -42759,7 +42755,7 @@
         <v>88</v>
       </c>
       <c r="AH336" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AI336" t="s" s="2">
         <v>100</v>
@@ -42771,18 +42767,18 @@
         <v>80</v>
       </c>
       <c r="AL336" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="AM336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN336" t="s" s="2">
         <v>1172</v>
-      </c>
-      <c r="AM336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN336" t="s" s="2">
-        <v>1173</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -42808,13 +42804,13 @@
         <v>777</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="L337" t="s" s="2">
         <v>1175</v>
       </c>
-      <c r="L337" t="s" s="2">
+      <c r="M337" t="s" s="2">
         <v>1176</v>
-      </c>
-      <c r="M337" t="s" s="2">
-        <v>1177</v>
       </c>
       <c r="N337" s="2"/>
       <c r="O337" t="s" s="2">
@@ -42864,7 +42860,7 @@
         <v>80</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>78</v>
@@ -42882,21 +42878,21 @@
         <v>80</v>
       </c>
       <c r="AK337" t="s" s="2">
+        <v>1177</v>
+      </c>
+      <c r="AL337" t="s" s="2">
         <v>1178</v>
       </c>
-      <c r="AL337" t="s" s="2">
+      <c r="AM337" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN337" t="s" s="2">
         <v>1179</v>
-      </c>
-      <c r="AM337" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN337" t="s" s="2">
-        <v>1180</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -42919,16 +42915,16 @@
         <v>80</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K338" t="s" s="2">
+        <v>1181</v>
+      </c>
+      <c r="L338" t="s" s="2">
         <v>1182</v>
       </c>
-      <c r="L338" t="s" s="2">
-        <v>1183</v>
-      </c>
       <c r="M338" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N338" s="2"/>
       <c r="O338" t="s" s="2">
@@ -42978,7 +42974,7 @@
         <v>80</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>78</v>
@@ -42996,21 +42992,21 @@
         <v>80</v>
       </c>
       <c r="AK338" t="s" s="2">
+        <v>1183</v>
+      </c>
+      <c r="AL338" t="s" s="2">
         <v>1184</v>
       </c>
-      <c r="AL338" t="s" s="2">
+      <c r="AM338" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN338" t="s" s="2">
         <v>1185</v>
-      </c>
-      <c r="AM338" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN338" t="s" s="2">
-        <v>1186</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -43122,7 +43118,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -43236,7 +43232,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -43262,13 +43258,13 @@
         <v>660</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N341" t="s" s="2">
         <v>663</v>
@@ -43352,7 +43348,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -43378,16 +43374,16 @@
         <v>108</v>
       </c>
       <c r="K342" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L342" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L342" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M342" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>80</v>
@@ -43470,7 +43466,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -43496,16 +43492,16 @@
         <v>90</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="M343" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>80</v>
@@ -43586,7 +43582,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -43612,16 +43608,16 @@
         <v>102</v>
       </c>
       <c r="K344" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L344" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="L344" t="s" s="2">
-        <v>1196</v>
       </c>
       <c r="M344" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>80</v>
@@ -43631,7 +43627,7 @@
         <v>80</v>
       </c>
       <c r="R344" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S344" t="s" s="2">
         <v>80</v>
@@ -43702,7 +43698,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -43728,16 +43724,16 @@
         <v>108</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M345" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="N345" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>80</v>
@@ -43766,7 +43762,7 @@
       </c>
       <c r="X345" s="2"/>
       <c r="Y345" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z345" t="s" s="2">
         <v>80</v>
@@ -43816,7 +43812,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -43842,13 +43838,13 @@
         <v>654</v>
       </c>
       <c r="K346" t="s" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L346" t="s" s="2">
         <v>1201</v>
       </c>
-      <c r="L346" t="s" s="2">
+      <c r="M346" t="s" s="2">
         <v>1202</v>
-      </c>
-      <c r="M346" t="s" s="2">
-        <v>1203</v>
       </c>
       <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
@@ -43898,7 +43894,7 @@
         <v>80</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>78</v>
@@ -43916,10 +43912,10 @@
         <v>80</v>
       </c>
       <c r="AK346" t="s" s="2">
+        <v>1203</v>
+      </c>
+      <c r="AL346" t="s" s="2">
         <v>1204</v>
-      </c>
-      <c r="AL346" t="s" s="2">
-        <v>1205</v>
       </c>
       <c r="AM346" t="s" s="2">
         <v>80</v>
@@ -43930,7 +43926,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -44042,7 +44038,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -44156,7 +44152,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -44182,13 +44178,13 @@
         <v>660</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N349" t="s" s="2">
         <v>663</v>
@@ -44272,7 +44268,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -44298,16 +44294,16 @@
         <v>108</v>
       </c>
       <c r="K350" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L350" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L350" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M350" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>80</v>
@@ -44390,7 +44386,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -44416,16 +44412,16 @@
         <v>90</v>
       </c>
       <c r="K351" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="L351" t="s" s="2">
         <v>1211</v>
-      </c>
-      <c r="L351" t="s" s="2">
-        <v>1212</v>
       </c>
       <c r="M351" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>80</v>
@@ -44506,7 +44502,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -44532,16 +44528,16 @@
         <v>102</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="M352" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>80</v>
@@ -44622,7 +44618,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -44648,16 +44644,16 @@
         <v>108</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M353" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="N353" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>80</v>
@@ -44738,7 +44734,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -44764,10 +44760,10 @@
         <v>225</v>
       </c>
       <c r="K354" t="s" s="2">
+        <v>1217</v>
+      </c>
+      <c r="L354" t="s" s="2">
         <v>1218</v>
-      </c>
-      <c r="L354" t="s" s="2">
-        <v>1219</v>
       </c>
       <c r="M354" t="s" s="2">
         <v>434</v>
@@ -44820,7 +44816,7 @@
         <v>80</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>78</v>
@@ -44841,7 +44837,7 @@
         <v>80</v>
       </c>
       <c r="AL354" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AM354" t="s" s="2">
         <v>471</v>
@@ -44852,7 +44848,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -44875,13 +44871,13 @@
         <v>80</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K355" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="L355" t="s" s="2">
         <v>1222</v>
-      </c>
-      <c r="L355" t="s" s="2">
-        <v>1223</v>
       </c>
       <c r="M355" s="2"/>
       <c r="N355" s="2"/>
@@ -44932,7 +44928,7 @@
         <v>80</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>78</v>
@@ -44950,10 +44946,10 @@
         <v>80</v>
       </c>
       <c r="AK355" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AL355" t="s" s="2">
         <v>1224</v>
-      </c>
-      <c r="AL355" t="s" s="2">
-        <v>1225</v>
       </c>
       <c r="AM355" t="s" s="2">
         <v>80</v>
@@ -44964,7 +44960,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -45076,7 +45072,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -45190,7 +45186,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -45306,7 +45302,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -45332,13 +45328,13 @@
         <v>189</v>
       </c>
       <c r="K359" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="M359" t="s" s="2">
         <v>1230</v>
-      </c>
-      <c r="L359" t="s" s="2">
-        <v>1230</v>
-      </c>
-      <c r="M359" t="s" s="2">
-        <v>1231</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" t="s" s="2">
@@ -45368,7 +45364,7 @@
       </c>
       <c r="X359" s="2"/>
       <c r="Y359" t="s" s="2">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Z359" t="s" s="2">
         <v>80</v>
@@ -45386,7 +45382,7 @@
         <v>80</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>88</v>
@@ -45404,21 +45400,21 @@
         <v>80</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AL359" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="AM359" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN359" t="s" s="2">
         <v>1233</v>
-      </c>
-      <c r="AM359" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN359" t="s" s="2">
-        <v>1234</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -45530,7 +45526,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -45644,7 +45640,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -45670,13 +45666,13 @@
         <v>327</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="L362" t="s" s="2">
         <v>1238</v>
       </c>
-      <c r="L362" t="s" s="2">
-        <v>1239</v>
-      </c>
       <c r="M362" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N362" t="s" s="2">
         <v>331</v>
@@ -45760,7 +45756,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -45872,7 +45868,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -45986,7 +45982,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -46012,10 +46008,10 @@
         <v>102</v>
       </c>
       <c r="K365" t="s" s="2">
+        <v>1242</v>
+      </c>
+      <c r="L365" t="s" s="2">
         <v>1243</v>
-      </c>
-      <c r="L365" t="s" s="2">
-        <v>1244</v>
       </c>
       <c r="M365" t="s" s="2">
         <v>340</v>
@@ -46028,7 +46024,7 @@
       </c>
       <c r="P365" s="2"/>
       <c r="Q365" t="s" s="2">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R365" t="s" s="2">
         <v>80</v>
@@ -46102,7 +46098,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -46216,7 +46212,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -46242,10 +46238,10 @@
         <v>108</v>
       </c>
       <c r="K367" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="L367" t="s" s="2">
         <v>1238</v>
-      </c>
-      <c r="L367" t="s" s="2">
-        <v>1239</v>
       </c>
       <c r="M367" s="2"/>
       <c r="N367" t="s" s="2">
@@ -46330,7 +46326,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -46356,10 +46352,10 @@
         <v>90</v>
       </c>
       <c r="K368" t="s" s="2">
+        <v>1248</v>
+      </c>
+      <c r="L368" t="s" s="2">
         <v>1249</v>
-      </c>
-      <c r="L368" t="s" s="2">
-        <v>1250</v>
       </c>
       <c r="M368" s="2"/>
       <c r="N368" t="s" s="2">
@@ -46444,7 +46440,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -46470,13 +46466,13 @@
         <v>297</v>
       </c>
       <c r="K369" t="s" s="2">
+        <v>1251</v>
+      </c>
+      <c r="L369" t="s" s="2">
         <v>1252</v>
       </c>
-      <c r="L369" t="s" s="2">
+      <c r="M369" t="s" s="2">
         <v>1253</v>
-      </c>
-      <c r="M369" t="s" s="2">
-        <v>1254</v>
       </c>
       <c r="N369" t="s" s="2">
         <v>369</v>
@@ -46560,7 +46556,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -46586,13 +46582,13 @@
         <v>90</v>
       </c>
       <c r="K370" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="L370" t="s" s="2">
         <v>1102</v>
       </c>
-      <c r="L370" t="s" s="2">
+      <c r="M370" t="s" s="2">
         <v>1103</v>
-      </c>
-      <c r="M370" t="s" s="2">
-        <v>1104</v>
       </c>
       <c r="N370" t="s" s="2">
         <v>377</v>
@@ -46676,7 +46672,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -46702,13 +46698,13 @@
         <v>189</v>
       </c>
       <c r="K371" t="s" s="2">
+        <v>1256</v>
+      </c>
+      <c r="L371" t="s" s="2">
         <v>1257</v>
       </c>
-      <c r="L371" t="s" s="2">
+      <c r="M371" t="s" s="2">
         <v>1258</v>
-      </c>
-      <c r="M371" t="s" s="2">
-        <v>1259</v>
       </c>
       <c r="N371" s="2"/>
       <c r="O371" t="s" s="2">
@@ -46737,11 +46733,11 @@
         <v>265</v>
       </c>
       <c r="X371" t="s" s="2">
+        <v>1259</v>
+      </c>
+      <c r="Y371" t="s" s="2">
         <v>1260</v>
       </c>
-      <c r="Y371" t="s" s="2">
-        <v>1261</v>
-      </c>
       <c r="Z371" t="s" s="2">
         <v>80</v>
       </c>
@@ -46758,7 +46754,7 @@
         <v>80</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>78</v>
@@ -46776,21 +46772,21 @@
         <v>80</v>
       </c>
       <c r="AK371" t="s" s="2">
+        <v>1261</v>
+      </c>
+      <c r="AL371" t="s" s="2">
         <v>1262</v>
       </c>
-      <c r="AL371" t="s" s="2">
+      <c r="AM371" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN371" t="s" s="2">
         <v>1263</v>
-      </c>
-      <c r="AM371" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN371" t="s" s="2">
-        <v>1264</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -46813,13 +46809,13 @@
         <v>80</v>
       </c>
       <c r="J372" t="s" s="2">
+        <v>1265</v>
+      </c>
+      <c r="K372" t="s" s="2">
         <v>1266</v>
       </c>
-      <c r="K372" t="s" s="2">
+      <c r="L372" t="s" s="2">
         <v>1267</v>
-      </c>
-      <c r="L372" t="s" s="2">
-        <v>1268</v>
       </c>
       <c r="M372" t="s" s="2">
         <v>434</v>
@@ -46872,7 +46868,7 @@
         <v>80</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>78</v>
@@ -46887,13 +46883,13 @@
         <v>100</v>
       </c>
       <c r="AJ372" t="s" s="2">
+        <v>1268</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>1261</v>
+      </c>
+      <c r="AL372" t="s" s="2">
         <v>1269</v>
-      </c>
-      <c r="AK372" t="s" s="2">
-        <v>1262</v>
-      </c>
-      <c r="AL372" t="s" s="2">
-        <v>1270</v>
       </c>
       <c r="AM372" t="s" s="2">
         <v>80</v>
@@ -46904,11 +46900,11 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -46927,16 +46923,16 @@
         <v>80</v>
       </c>
       <c r="J373" t="s" s="2">
+        <v>1272</v>
+      </c>
+      <c r="K373" t="s" s="2">
         <v>1273</v>
       </c>
-      <c r="K373" t="s" s="2">
+      <c r="L373" t="s" s="2">
         <v>1274</v>
       </c>
-      <c r="L373" t="s" s="2">
+      <c r="M373" t="s" s="2">
         <v>1275</v>
-      </c>
-      <c r="M373" t="s" s="2">
-        <v>1276</v>
       </c>
       <c r="N373" s="2"/>
       <c r="O373" t="s" s="2">
@@ -46986,7 +46982,7 @@
         <v>80</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>78</v>
@@ -47007,7 +47003,7 @@
         <v>80</v>
       </c>
       <c r="AL373" t="s" s="2">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="AM373" t="s" s="2">
         <v>80</v>
@@ -47018,7 +47014,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -47041,16 +47037,16 @@
         <v>80</v>
       </c>
       <c r="J374" t="s" s="2">
+        <v>1278</v>
+      </c>
+      <c r="K374" t="s" s="2">
         <v>1279</v>
       </c>
-      <c r="K374" t="s" s="2">
+      <c r="L374" t="s" s="2">
         <v>1280</v>
       </c>
-      <c r="L374" t="s" s="2">
+      <c r="M374" t="s" s="2">
         <v>1281</v>
-      </c>
-      <c r="M374" t="s" s="2">
-        <v>1282</v>
       </c>
       <c r="N374" s="2"/>
       <c r="O374" t="s" s="2">
@@ -47100,7 +47096,7 @@
         <v>80</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>78</v>
@@ -47115,13 +47111,13 @@
         <v>100</v>
       </c>
       <c r="AJ374" t="s" s="2">
+        <v>1282</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL374" t="s" s="2">
         <v>1283</v>
-      </c>
-      <c r="AK374" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL374" t="s" s="2">
-        <v>1284</v>
       </c>
       <c r="AM374" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1974,10 +1974,10 @@
 </t>
   </si>
   <si>
-    <t>服⽤タイミング</t>
-  </si>
-  <si>
-    <t>服⽤タイミングを記録する。</t>
+    <t>服用タイミング</t>
+  </si>
+  <si>
+    <t>服用タイミングを記録する。</t>
   </si>
   <si>
     <t>Dosage.textが設定されていることが想定されているのとは異なり、この属性は常に設定されていなくてもよい。もし、療法が設定されている場合はDosage.textはDosage.timingを反映させているべきである。</t>
@@ -2007,7 +2007,7 @@
     <t>服用タイミングを示す時刻</t>
   </si>
   <si>
-    <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
@@ -2058,10 +2058,10 @@
 RangePeriod</t>
   </si>
   <si>
-    <t>服⽤開始日から服⽤終了日までの全日数</t>
-  </si>
-  <si>
-    <t>服⽤開始日から服⽤終了日までの全日数。実投与日数ではないことに注意する。</t>
+    <t>服用開始日から服用終了日までの全日数</t>
+  </si>
+  <si>
+    <t>服用開始日から服用終了日までの全日数。実投与日数ではないことに注意する。</t>
   </si>
   <si>
     <t>Timing.repeat.bounds[x]</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -2007,7 +2007,7 @@
     <t>服用タイミングを示す時刻</t>
   </si>
   <si>
-    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
@@ -2491,7 +2491,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓⽤型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
@@ -2513,11 +2513,11 @@
     <t>投与される身体部位</t>
   </si>
   <si>
-    <t>投与される身体部位。外⽤薬で部位を指定する場合に使⽤する。</t>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
   </si>
   <si>
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
-【JP Core仕様】JAMI外⽤部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1978,7 +1978,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>day</t>
+    <t>日</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4180" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -504,7 +504,7 @@
   <si>
     <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
 処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
-このIDは業務手順によって定められた処方オーダーに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
     <t>これは業務IDであって、リソースに対するIDではない。</t>
@@ -743,10 +743,10 @@
     <t>requestIdentifier</t>
   </si>
   <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+    <t>処方オーダに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -800,11 +800,11 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>JP Coreでは"active"に固定される。
-オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】"active"に固定される。
+オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -831,13 +831,10 @@
     <t>MedicationRequest.statusReason</t>
   </si>
   <si>
-    <t>現状の理由</t>
-  </si>
-  <si>
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -858,15 +855,15 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>JP Coreでは "order" に固定される。
+    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】 "order" に固定される。
 投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>
-    <t>処方をオーダーする場合、MedicationRequestのどの段階でオーダーしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
-instance-orderはリクエストあるいはオーダーをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。+    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
+instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
   </si>
@@ -920,10 +917,10 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>オーダの優先度</t>
+  </si>
+  <si>
+    <t>このMedicationRequestオーダの優先度。他のオーダと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -954,10 +951,10 @@
     <t>要求が禁止された行為であればTrue</t>
   </si>
   <si>
-    <t>このオーダーが実施していけないものであればTrueを表示される</t>
-  </si>
-  <si>
-    <t>もし、doNotPerformに指定がなければ、オーダーは実施してもよいものである。(たとえば、「実施せよ」)</t>
+    <t>このオーダが実施していけないものであればTrueを表示される</t>
+  </si>
+  <si>
+    <t>もし、doNotPerformに指定がなければ、オーダは実施してもよいものである。(たとえば、「実施せよ」)</t>
   </si>
   <si>
     <t>SubstanceAdministration.actionNegationInd</t>
@@ -1043,183 +1040,6 @@
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
-    <t>MedicationRequest.medication[x].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
@@ -1234,7 +1054,7 @@
 一般には薬剤が投与される対象となる人（あるいはグループ)を表現するResourceに対するリンク。</t>
   </si>
   <si>
-    <t>処方オーダーの対象は必須項目である。
+    <t>処方オーダの対象は必須項目である。
 二次利用のためにどこに実際の対象がいるのかについての情報は提供されない。特定の対象に対して匿名化することも必要である。</t>
   </si>
   <si>
@@ -1294,7 +1114,7 @@
     <t>薬剤オーダについて補助的情報</t>
   </si>
   <si>
-    <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
+    <t>薬剤をオーダするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
     <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
@@ -1313,7 +1133,7 @@
 </t>
   </si>
   <si>
-    <t>この処方オーダーが最初に記述された日</t>
+    <t>この処方オーダが最初に記述された日</t>
   </si>
   <si>
     <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
@@ -1341,11 +1161,11 @@
 </t>
   </si>
   <si>
-    <t>このオーダーを発行した人・物</t>
+    <t>このオーダを発行した人・物</t>
   </si>
   <si>
     <t>JP Core profileではこのエレメントに対する規定はない。
-このオーダーを発行した責任のある人、組織、機器。</t>
+このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1404,11 +1224,11 @@
 </t>
   </si>
   <si>
-    <t>投薬オーダーの入力者</t>
+    <t>投薬オーダの入力者</t>
   </si>
   <si>
     <t>JP Core profileではこのエレメントに対する規定はない。
-たとえば口答指示や電話でのオーダーにより、他の人の代理で処方を入力した人。</t>
+たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -1424,7 +1244,7 @@
   </si>
   <si>
     <t>このエレメントに対するJP Coreの規定はない。
-薬剤をオーダーするあるいはしないことを示した理由。</t>
+薬剤をオーダするあるいはしないことを示した理由。</t>
   </si>
   <si>
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
@@ -1461,10 +1281,10 @@
     <t>処方箋が書かれた理由について補足するCondition ResourceまたはObservation Resource</t>
   </si>
   <si>
-    <t>薬剤がなぜオーダーされたのかを説明する条件や観察。</t>
-  </si>
-  <si>
-    <t>薬剤オーダーの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
+    <t>薬剤がなぜオーダされたのかを説明する条件や観察。</t>
+  </si>
+  <si>
+    <t>薬剤オーダの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1511,10 +1331,10 @@
 </t>
   </si>
   <si>
-    <t>オーダーが実施される根拠</t>
-  </si>
-  <si>
-    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダー。</t>
+    <t>オーダが実施される根拠</t>
+  </si>
+  <si>
+    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダ。</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -1526,7 +1346,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRequestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1613,10 +1433,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1635,7 +1452,7 @@
     <t>調剤・払い出しについての承認事項</t>
   </si>
   <si>
-    <t>薬剤オーダー(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダーとの一部としての薬剤の払い出しあるいは提供。この情報はオーダーとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
+    <t>薬剤オーダ(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダとの一部としての薬剤の払い出しあるいは提供。この情報はオーダとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
@@ -1860,7 +1677,7 @@
     <t>許可されたリフィル回数</t>
   </si>
   <si>
-    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダが「30錠に加えて3回リフィル可」であれば、このオーダで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
   </si>
   <si>
     <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
@@ -1893,7 +1710,7 @@
     <t>供給される製品が使用されるか、あるいは払い出しが想定されている時間を指定する期間。</t>
   </si>
   <si>
-    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダーされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
+    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
@@ -2132,10 +1949,10 @@
 </t>
   </si>
   <si>
-    <t>前回のオーダー/処方</t>
-  </si>
-  <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
+    <t>前回のオーダ/処方</t>
+  </si>
+  <si>
+    <t>関連する先行オーダや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -2493,7 +2310,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN115"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2512,7 +2329,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7147,10 +6964,10 @@
         <v>263</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7176,13 +6993,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -7215,13 +7032,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -7232,7 +7049,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7258,13 +7075,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7272,7 +7089,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>80</v>
@@ -7293,11 +7110,11 @@
         <v>184</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7314,7 +7131,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -7329,16 +7146,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7346,7 +7163,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7372,13 +7189,13 @@
         <v>190</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7408,7 +7225,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7426,7 +7243,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7444,13 +7261,13 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7458,7 +7275,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7484,13 +7301,13 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7519,11 +7336,11 @@
         <v>184</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7540,7 +7357,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7555,16 +7372,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7572,7 +7389,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7595,16 +7412,16 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7654,7 +7471,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7675,7 +7492,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7686,7 +7503,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7709,13 +7526,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7766,7 +7583,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7787,7 +7604,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7798,7 +7615,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7824,13 +7641,13 @@
         <v>190</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7856,29 +7673,29 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>88</v>
@@ -7893,27 +7710,27 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>80</v>
@@ -7938,13 +7755,13 @@
         <v>190</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7973,11 +7790,11 @@
         <v>112</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7994,7 +7811,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -8009,24 +7826,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8034,7 +7851,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
@@ -8046,18 +7863,20 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8106,10 +7925,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>323</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -8118,38 +7937,38 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8161,16 +7980,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8208,51 +8027,51 @@
         <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>178</v>
+        <v>333</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8260,7 +8079,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>79</v>
@@ -8272,23 +8091,21 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8336,7 +8153,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8351,24 +8168,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8376,7 +8193,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
@@ -8388,16 +8205,16 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>169</v>
+        <v>350</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>170</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8448,7 +8265,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8460,38 +8277,38 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8500,19 +8317,19 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>175</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8550,43 +8367,43 @@
         <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>178</v>
+        <v>358</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8594,7 +8411,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8602,7 +8419,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>88</v>
@@ -8614,23 +8431,21 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8678,7 +8493,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8693,24 +8508,24 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8733,16 +8548,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8768,13 +8583,11 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8792,7 +8605,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8807,24 +8620,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8832,7 +8645,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>88</v>
@@ -8844,21 +8657,21 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>108</v>
+        <v>379</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8906,7 +8719,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8927,18 +8740,18 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8949,7 +8762,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8958,21 +8771,21 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8996,13 +8809,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -9020,13 +8833,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -9035,24 +8848,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9063,7 +8876,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -9072,23 +8885,21 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9136,13 +8947,13 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
@@ -9151,24 +8962,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9179,7 +8990,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -9191,20 +9002,18 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>169</v>
+        <v>403</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9252,13 +9061,13 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
@@ -9267,24 +9076,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9292,10 +9101,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -9307,16 +9116,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9366,13 +9175,13 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
@@ -9381,24 +9190,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9409,7 +9218,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9418,19 +9227,19 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9480,13 +9289,13 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
@@ -9495,24 +9304,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9523,7 +9332,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9532,21 +9341,21 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>402</v>
+        <v>154</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9594,13 +9403,13 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
@@ -9609,16 +9418,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9626,7 +9435,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9634,7 +9443,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>88</v>
@@ -9646,18 +9455,20 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>409</v>
+        <v>190</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9682,13 +9493,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9706,7 +9517,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9721,24 +9532,24 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9749,7 +9560,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9758,19 +9569,19 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9820,13 +9631,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9835,16 +9646,16 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9852,7 +9663,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9863,7 +9674,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9875,16 +9686,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9934,13 +9745,13 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -9949,16 +9760,16 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9966,7 +9777,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9977,7 +9788,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9986,19 +9797,19 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>190</v>
+        <v>446</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10024,11 +9835,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -10046,13 +9859,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -10061,13 +9874,13 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -10078,7 +9891,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10101,17 +9914,15 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10160,7 +9971,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10178,13 +9989,13 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10192,7 +10003,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10203,7 +10014,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -10215,17 +10026,15 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10250,13 +10059,13 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
@@ -10274,39 +10083,39 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>451</v>
+        <v>173</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10329,17 +10138,15 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>455</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -10376,19 +10183,17 @@
         <v>80</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>454</v>
+        <v>178</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10400,19 +10205,19 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10420,9 +10225,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10440,20 +10247,18 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10502,7 +10307,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>178</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10511,19 +10316,19 @@
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10534,9 +10339,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10545,7 +10352,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10554,20 +10361,18 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>465</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10616,7 +10421,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>468</v>
+        <v>178</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10625,10 +10430,10 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
@@ -10637,7 +10442,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10648,11 +10453,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10665,24 +10470,26 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>472</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10730,7 +10537,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10742,16 +10549,16 @@
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>476</v>
+        <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10762,7 +10569,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10782,21 +10589,21 @@
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>154</v>
+        <v>451</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10844,7 +10651,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10859,13 +10666,13 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10876,7 +10683,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10899,17 +10706,15 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>484</v>
+        <v>170</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10934,13 +10739,13 @@
         <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>80</v>
@@ -10958,7 +10763,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>483</v>
+        <v>172</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10970,7 +10775,7 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
@@ -10979,7 +10784,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>489</v>
+        <v>173</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10990,11 +10795,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11013,16 +10818,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>491</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>492</v>
+        <v>175</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>176</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>405</v>
+        <v>149</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11072,7 +10877,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>490</v>
+        <v>178</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11084,16 +10889,16 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>495</v>
+        <v>173</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11104,11 +10909,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11121,24 +10926,26 @@
         <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>497</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11186,7 +10993,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11198,16 +11005,16 @@
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>503</v>
+        <v>131</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11218,7 +11025,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11229,7 +11036,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -11241,16 +11048,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11300,19 +11107,19 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>486</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11321,18 +11128,18 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11355,15 +11162,17 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>80</v>
@@ -11412,7 +11221,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11430,10 +11239,10 @@
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11444,7 +11253,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11467,15 +11276,17 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>169</v>
+        <v>490</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>80</v>
@@ -11524,7 +11335,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>172</v>
+        <v>494</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11536,7 +11347,7 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11545,7 +11356,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>173</v>
+        <v>493</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11556,7 +11367,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11567,7 +11378,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11579,16 +11390,20 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>134</v>
+        <v>498</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11624,38 +11439,40 @@
         <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB80" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>178</v>
+        <v>497</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11666,11 +11483,9 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11679,7 +11494,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -11691,13 +11506,13 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>521</v>
+        <v>169</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>522</v>
+        <v>170</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>523</v>
+        <v>171</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11748,19 +11563,19 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>80</v>
@@ -11769,7 +11584,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11780,20 +11595,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -11805,15 +11618,17 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>525</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>526</v>
+        <v>175</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>80</v>
@@ -11850,16 +11665,16 @@
         <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>178</v>
@@ -11871,7 +11686,7 @@
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>139</v>
@@ -11883,7 +11698,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11894,43 +11709,41 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11978,19 +11791,19 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>80</v>
@@ -11999,18 +11812,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>131</v>
+        <v>512</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12030,25 +11843,27 @@
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>511</v>
+        <v>350</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12092,7 +11907,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12101,7 +11916,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -12113,18 +11928,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12147,15 +11962,17 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>170</v>
+        <v>524</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>80</v>
@@ -12204,7 +12021,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>172</v>
+        <v>522</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12216,38 +12033,38 @@
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>173</v>
+        <v>528</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>80</v>
@@ -12259,16 +12076,16 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>133</v>
+        <v>482</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>175</v>
+        <v>531</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>176</v>
+        <v>532</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>149</v>
+        <v>485</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12318,19 +12135,19 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>139</v>
+        <v>486</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>80</v>
@@ -12339,54 +12156,52 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>173</v>
+        <v>487</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>133</v>
+        <v>490</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12434,28 +12249,28 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>131</v>
+        <v>538</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12466,7 +12281,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12489,17 +12304,15 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>542</v>
+        <v>169</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>543</v>
+        <v>170</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>80</v>
@@ -12548,7 +12361,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>541</v>
+        <v>172</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12557,10 +12370,10 @@
         <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
@@ -12569,29 +12382,29 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>547</v>
+        <v>173</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>80</v>
@@ -12603,16 +12416,16 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>550</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>551</v>
+        <v>175</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>552</v>
+        <v>176</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>545</v>
+        <v>149</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12650,31 +12463,31 @@
         <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>549</v>
+        <v>178</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12683,7 +12496,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>553</v>
+        <v>173</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12694,7 +12507,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12714,21 +12527,23 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12776,7 +12591,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12797,18 +12612,18 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12825,30 +12640,30 @@
         <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="Q91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12868,13 +12683,13 @@
         <v>80</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12910,21 +12725,21 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12944,25 +12759,27 @@
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>170</v>
+        <v>561</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>171</v>
+        <v>562</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>80</v>
@@ -13004,7 +12821,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>172</v>
+        <v>565</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13016,7 +12833,7 @@
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>80</v>
@@ -13025,29 +12842,29 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>173</v>
+        <v>566</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>80</v>
@@ -13056,27 +12873,27 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>175</v>
+        <v>569</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>80</v>
@@ -13106,31 +12923,31 @@
         <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>178</v>
+        <v>573</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>80</v>
@@ -13139,18 +12956,18 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>173</v>
+        <v>575</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13173,24 +12990,26 @@
         <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>409</v>
+        <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>80</v>
@@ -13232,7 +13051,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13241,7 +13060,7 @@
         <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>100</v>
@@ -13253,18 +13072,18 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13284,27 +13103,25 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>409</v>
+        <v>585</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>577</v>
+        <v>346</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P95" t="s" s="2">
-        <v>578</v>
-      </c>
+      <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13348,7 +13165,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13357,7 +13174,7 @@
         <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
@@ -13369,18 +13186,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13403,17 +13220,15 @@
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>80</v>
@@ -13462,7 +13277,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13480,21 +13295,21 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13517,17 +13332,15 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>542</v>
+        <v>169</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>591</v>
+        <v>170</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>80</v>
@@ -13576,7 +13389,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>590</v>
+        <v>172</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13585,10 +13398,10 @@
         <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>80</v>
@@ -13597,29 +13410,29 @@
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>547</v>
+        <v>173</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>80</v>
@@ -13631,16 +13444,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>550</v>
+        <v>133</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>594</v>
+        <v>175</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>595</v>
+        <v>176</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>596</v>
+        <v>149</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13690,28 +13503,28 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>593</v>
+        <v>178</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>598</v>
+        <v>173</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -13722,39 +13535,43 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13802,19 +13619,19 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>172</v>
+        <v>472</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>80</v>
@@ -13823,7 +13640,7 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13834,18 +13651,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
@@ -13857,16 +13674,16 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>175</v>
+        <v>598</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>176</v>
+        <v>598</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>149</v>
+        <v>599</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13892,63 +13709,61 @@
         <v>80</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>178</v>
+        <v>597</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>173</v>
+        <v>601</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>80</v>
+        <v>602</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13968,23 +13783,21 @@
         <v>80</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>602</v>
+        <v>190</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N101" t="s" s="2">
         <v>606</v>
       </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14008,13 +13821,13 @@
         <v>80</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>80</v>
@@ -14032,7 +13845,7 @@
         <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14050,21 +13863,21 @@
         <v>80</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14081,74 +13894,72 @@
         <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>108</v>
+        <v>613</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="Q102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14163,35 +13974,35 @@
         <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>619</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>80</v>
+        <v>619</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>80</v>
@@ -14200,10 +14011,10 @@
         <v>80</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>169</v>
+        <v>620</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>621</v>
@@ -14211,16 +14022,16 @@
       <c r="L103" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>623</v>
       </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>80</v>
@@ -14262,13 +14073,13 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>80</v>
@@ -14283,18 +14094,18 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>627</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14305,7 +14116,7 @@
         <v>78</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>80</v>
@@ -14314,27 +14125,27 @@
         <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>102</v>
+        <v>626</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L104" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>631</v>
-      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>632</v>
+        <v>80</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>80</v>
@@ -14376,1285 +14187,33 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X111" s="2"/>
-      <c r="Y111" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN115" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1414,7 +1414,7 @@
     <t>他の属性では伝えることができなかったMedicationRequestについての付加的情報。</t>
   </si>
   <si>
-    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザーの行動を強制することはほぼ不可能であるからである。</t>
+    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザの行動を強制することはほぼ不可能であるからである。</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1924,7 +1924,7 @@
     <t>代替品にしなければならなかった、あるいは代替品が認められなかった理由を示す。</t>
   </si>
   <si>
-    <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>代替品の理由を表す一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
@@ -1994,7 +1994,7 @@
     <t>ライフサイクルで関心のあるイベントのリスト</t>
   </si>
   <si>
-    <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
+    <t>このリソースの現在のバージョンをユーザから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
     <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1085,7 +1085,7 @@
     <t>encounter/admission/stay のいずれかとして記録された診察</t>
   </si>
   <si>
-    <t>JP Core profileでの使用は規定されていない。
+    <t>JP Coreでの使用は規定されていない。
 この対象となるリソース[x]が作成される間やこの記録が作成される対象のencounterは密接に関連している。</t>
   </si>
   <si>
@@ -1136,7 +1136,7 @@
     <t>この処方オーダが最初に記述された日</t>
   </si>
   <si>
-    <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
+    <t>JP Coreでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1164,7 +1164,7 @@
     <t>このオーダを発行した人・物</t>
   </si>
   <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。
 このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
@@ -1227,7 +1227,7 @@
     <t>投薬オーダの入力者</t>
   </si>
   <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。
 たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -800,7 +800,7 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される。</t>
+    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される</t>
   </si>
   <si>
     <t>【JP Core仕様】"active"に固定される。
@@ -855,7 +855,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする。</t>
+    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする</t>
   </si>
   <si>
     <t>【JP Core仕様】 "order" に固定される。
@@ -13677,7 +13677,7 @@
         <v>190</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>598</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="631">
   <si>
     <t>Property</t>
   </si>
@@ -800,11 +800,10 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】"active"に固定される。
-オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。</t>
+  </si>
+  <si>
+    <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -855,20 +854,16 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】 "order" に固定される。
-投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
+    <t>投薬指示の意図</t>
+  </si>
+  <si>
+    <t>投薬指示の意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>
     <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
 instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>The kind of medication order.</t>
@@ -7089,7 +7084,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>80</v>
@@ -7110,10 +7105,10 @@
         <v>184</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -7146,16 +7141,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7163,7 +7158,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7189,13 +7184,13 @@
         <v>190</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7225,7 +7220,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7243,7 +7238,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7261,13 +7256,13 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7275,7 +7270,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7301,13 +7296,13 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7336,11 +7331,11 @@
         <v>184</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7357,7 +7352,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7372,16 +7367,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7389,7 +7384,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7412,16 +7407,16 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7471,7 +7466,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7492,7 +7487,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7503,7 +7498,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7526,13 +7521,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7583,7 +7578,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7604,7 +7599,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7615,7 +7610,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7641,13 +7636,13 @@
         <v>190</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7676,26 +7671,26 @@
         <v>265</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>88</v>
@@ -7710,27 +7705,27 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>80</v>
@@ -7755,13 +7750,13 @@
         <v>190</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7790,11 +7785,11 @@
         <v>112</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7811,7 +7806,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -7826,24 +7821,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7866,16 +7861,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7925,7 +7920,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>88</v>
@@ -7940,24 +7935,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7980,16 +7975,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8039,7 +8034,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8054,24 +8049,24 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>259</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8094,16 +8089,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8153,7 +8148,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8168,16 +8163,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8185,7 +8180,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8208,13 +8203,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8265,7 +8260,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8280,24 +8275,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8320,16 +8315,16 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8379,7 +8374,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8394,16 +8389,16 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8411,7 +8406,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8434,16 +8429,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8493,7 +8488,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8508,16 +8503,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8525,7 +8520,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8551,13 +8546,13 @@
         <v>190</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8587,7 +8582,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8605,7 +8600,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8620,13 +8615,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8637,7 +8632,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8660,16 +8655,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8719,7 +8714,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8740,10 +8735,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8751,7 +8746,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8777,13 +8772,13 @@
         <v>190</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8812,11 +8807,11 @@
         <v>265</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8833,7 +8828,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8848,24 +8843,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8888,16 +8883,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8947,7 +8942,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8962,16 +8957,16 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>259</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8979,7 +8974,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9002,16 +8997,16 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9061,7 +9056,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9076,13 +9071,13 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -9093,7 +9088,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9119,13 +9114,13 @@
         <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9175,7 +9170,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9196,7 +9191,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9207,7 +9202,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9230,16 +9225,16 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9289,7 +9284,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9304,13 +9299,13 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9321,7 +9316,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9347,14 +9342,14 @@
         <v>154</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9403,7 +9398,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9418,13 +9413,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9435,7 +9430,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9461,13 +9456,13 @@
         <v>190</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9496,11 +9491,11 @@
         <v>265</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9517,7 +9512,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9538,7 +9533,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9549,7 +9544,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9572,16 +9567,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9631,7 +9626,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9646,13 +9641,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9663,7 +9658,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9686,16 +9681,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9745,7 +9740,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9760,13 +9755,13 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9777,7 +9772,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9800,16 +9795,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9859,7 +9854,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9880,7 +9875,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9891,7 +9886,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9914,13 +9909,13 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9971,7 +9966,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9989,10 +9984,10 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10003,7 +9998,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10029,10 +10024,10 @@
         <v>169</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10115,7 +10110,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10225,10 +10220,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>80</v>
@@ -10250,13 +10245,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10339,10 +10334,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>80</v>
@@ -10364,13 +10359,13 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10453,11 +10448,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10479,10 +10474,10 @@
         <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>149</v>
@@ -10537,7 +10532,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10569,7 +10564,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10592,16 +10587,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10651,7 +10646,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10672,7 +10667,7 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10683,7 +10678,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10795,7 +10790,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10909,11 +10904,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10935,10 +10930,10 @@
         <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>149</v>
@@ -10993,7 +10988,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11025,7 +11020,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11048,16 +11043,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11107,7 +11102,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11119,27 +11114,27 @@
         <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11162,16 +11157,16 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11221,7 +11216,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11242,7 +11237,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11253,7 +11248,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11276,16 +11271,16 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="M79" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11335,7 +11330,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11356,7 +11351,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11367,7 +11362,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11393,16 +11388,16 @@
         <v>219</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11451,7 +11446,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11469,10 +11464,10 @@
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11483,7 +11478,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11595,7 +11590,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11709,7 +11704,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11732,16 +11727,16 @@
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11791,16 +11786,16 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -11812,18 +11807,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11846,69 +11841,69 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Q84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Q84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11916,7 +11911,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -11928,18 +11923,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11962,16 +11957,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12021,7 +12016,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12039,21 +12034,21 @@
         <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12076,16 +12071,16 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="M86" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12135,7 +12130,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12147,27 +12142,27 @@
         <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AJ86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12190,16 +12185,16 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12249,7 +12244,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12267,10 +12262,10 @@
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12281,7 +12276,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12393,7 +12388,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12507,7 +12502,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12530,19 +12525,19 @@
         <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>80</v>
@@ -12591,7 +12586,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12612,18 +12607,18 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12649,20 +12644,20 @@
         <v>108</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P91" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>80</v>
@@ -12686,28 +12681,28 @@
         <v>184</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12728,18 +12723,18 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>559</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12765,63 +12760,63 @@
         <v>169</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12842,18 +12837,18 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>567</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12879,72 +12874,72 @@
         <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="R93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE93" t="s" s="2">
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH93" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -12956,18 +12951,18 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12993,65 +12988,65 @@
         <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13072,18 +13067,18 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13106,16 +13101,16 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="M95" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13165,7 +13160,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13186,10 +13181,10 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>80</v>
@@ -13197,7 +13192,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13220,13 +13215,13 @@
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13277,7 +13272,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13295,10 +13290,10 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13309,7 +13304,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13421,7 +13416,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13535,11 +13530,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13561,10 +13556,10 @@
         <v>133</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>149</v>
@@ -13619,7 +13614,7 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13651,7 +13646,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13677,13 +13672,13 @@
         <v>190</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13713,7 +13708,7 @@
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>80</v>
@@ -13731,7 +13726,7 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>88</v>
@@ -13749,21 +13744,21 @@
         <v>80</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>602</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13789,13 +13784,13 @@
         <v>190</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13824,11 +13819,11 @@
         <v>265</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>608</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>80</v>
       </c>
@@ -13845,7 +13840,7 @@
         <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -13863,21 +13858,21 @@
         <v>80</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AL101" t="s" s="2">
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>611</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13900,16 +13895,16 @@
         <v>80</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L102" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="M102" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13959,7 +13954,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -13974,13 +13969,13 @@
         <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
@@ -13991,11 +13986,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14014,16 +14009,16 @@
         <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14073,7 +14068,7 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14094,7 +14089,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -14105,7 +14100,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14128,16 +14123,16 @@
         <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="K104" t="s" s="2">
+      <c r="L104" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14187,7 +14182,7 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14202,13 +14197,13 @@
         <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -758,7 +758,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -896,7 +896,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategory_VS</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -1032,7 +1032,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1203,7 +1203,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1901,7 +1901,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -2338,7 +2338,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2022-10-31</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはJP_MedicationRequestBaseリソースに対して、内服・外用薬剤処方のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
+    <t>このプロファイルはMedicationRequestリソースに対して、内服・外用薬剤処方のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -265,7 +265,7 @@
     <t>患者あるいはグループに対しての処方オーダ</t>
   </si>
   <si>
-    <t>患者への薬の供給と内服・外用薬剤処方の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
+    <t>患者への薬の供給と内服・外用薬剤処方の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。MedicationRequestプロファイルからの派生プロファイルである。</t>
   </si>
   <si>
     <t>Request</t>
@@ -739,61 +739,73 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>orderInRp</t>
+  </si>
+  <si>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
+  </si>
+  <si>
+    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番</t>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
+  </si>
+  <si>
+    <t>requestIdentifierCommon</t>
+  </si>
+  <si>
+    <t>処方箋に対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。system 要素には、保険医療機関番号を含む処方箋ID（urn:oid:1.2.392.100495.20.3.11.1[保険医療機関コード(10 桁)]）を指定する。全国で⼀意になる発番ルールにもとづく場合には urn:oid:1.2.392.100495.20.3.11 とする。</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.11</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>requestIdentifier</t>
   </si>
   <si>
     <t>処方オーダに対するID</t>
   </si>
   <si>
-    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>薬剤をオーダする単位としての処方依頼に対するID。MedicationRequestは単一の薬剤でインスタンスが作成される。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>orderInRp</t>
-  </si>
-  <si>
-    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
-  </si>
-  <si>
-    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
-  </si>
-  <si>
-    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
-  </si>
-  <si>
-    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
-  </si>
-  <si>
-    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.82</t>
-  </si>
-  <si>
-    <t>RP番号内（剤グループ内）の連番</t>
-  </si>
-  <si>
-    <t>剤グループ内連番。</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -1028,6 +1040,15 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
@@ -1939,7 +1960,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase)
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -2304,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4765,10 +4786,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -5477,7 +5498,7 @@
         <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5788,14 +5809,14 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>88</v>
@@ -5813,13 +5834,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6385,10 +6406,10 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>203</v>
@@ -6401,7 +6422,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
@@ -6501,13 +6522,13 @@
         <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6815,30 +6836,32 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>253</v>
@@ -6847,7 +6870,7 @@
         <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6873,13 +6896,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6897,13 +6920,13 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
@@ -6912,24 +6935,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6952,17 +6975,15 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6987,13 +7008,13 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -7011,7 +7032,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -7023,16 +7044,16 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -7043,39 +7064,39 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7101,55 +7122,55 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7157,7 +7178,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7168,30 +7189,32 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7215,11 +7238,13 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
@@ -7237,13 +7262,13 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
@@ -7255,21 +7280,21 @@
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7292,18 +7317,20 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7327,13 +7354,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7351,7 +7378,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7366,24 +7393,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7391,7 +7418,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
@@ -7400,36 +7427,38 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>296</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>81</v>
@@ -7465,7 +7494,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7486,18 +7515,18 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7505,7 +7534,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
@@ -7520,15 +7549,17 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7541,7 +7572,7 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>81</v>
@@ -7577,7 +7608,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7598,18 +7629,18 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7617,7 +7648,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
@@ -7632,17 +7663,15 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7667,32 +7696,34 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7704,34 +7735,32 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>318</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>88</v>
@@ -7746,16 +7775,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7781,13 +7810,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7805,10 +7834,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7820,24 +7849,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>318</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7854,22 +7883,22 @@
         <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7895,13 +7924,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7919,7 +7948,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>88</v>
@@ -7934,24 +7963,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7974,16 +8003,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8009,13 +8038,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -8033,7 +8062,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8048,24 +8077,24 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8073,31 +8102,31 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8123,13 +8152,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -8147,13 +8176,13 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
@@ -8162,16 +8191,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8179,7 +8208,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8187,10 +8216,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>81</v>
@@ -8199,18 +8228,20 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8235,13 +8266,11 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
@@ -8259,13 +8288,13 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
@@ -8274,24 +8303,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8314,16 +8343,16 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8349,13 +8378,13 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>81</v>
@@ -8373,7 +8402,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8388,16 +8417,16 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>362</v>
+        <v>298</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8405,7 +8434,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8422,22 +8451,22 @@
         <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8487,7 +8516,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8502,16 +8531,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8519,7 +8548,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8542,17 +8571,15 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>81</v>
@@ -8577,11 +8604,13 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8599,7 +8628,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8614,13 +8643,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8631,7 +8660,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8639,7 +8668,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>88</v>
@@ -8651,19 +8680,19 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>378</v>
+        <v>190</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8689,34 +8718,32 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>88</v>
@@ -8728,35 +8755,37 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8765,19 +8794,19 @@
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8803,13 +8832,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8827,13 +8856,13 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>81</v>
@@ -8842,24 +8871,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>389</v>
+        <v>318</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>393</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8867,10 +8896,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8879,19 +8908,19 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8941,13 +8970,13 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>81</v>
@@ -8956,24 +8985,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8984,7 +9013,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8993,19 +9022,19 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9055,13 +9084,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -9070,24 +9099,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9107,19 +9136,19 @@
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>102</v>
+        <v>349</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9169,7 +9198,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9184,16 +9213,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9201,7 +9230,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9209,10 +9238,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9224,17 +9253,15 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9283,13 +9310,13 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>81</v>
@@ -9298,24 +9325,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9338,18 +9365,18 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9397,7 +9424,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9412,16 +9439,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9429,7 +9456,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9452,16 +9479,16 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>190</v>
+        <v>371</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9487,13 +9514,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9511,7 +9538,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9526,16 +9553,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9543,7 +9570,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9554,7 +9581,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9563,19 +9590,19 @@
         <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>431</v>
+        <v>190</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9601,13 +9628,11 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9625,13 +9650,13 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
@@ -9640,13 +9665,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9657,7 +9682,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9668,7 +9693,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9680,16 +9705,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9739,13 +9764,13 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>81</v>
@@ -9754,16 +9779,16 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9771,7 +9796,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9794,16 +9819,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>445</v>
+        <v>190</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9829,13 +9854,13 @@
         <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -9853,7 +9878,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9868,24 +9893,24 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9896,7 +9921,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9908,15 +9933,17 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9965,13 +9992,13 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
@@ -9980,16 +10007,16 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>81</v>
+        <v>406</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>453</v>
+        <v>263</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9997,7 +10024,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10008,7 +10035,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -10017,18 +10044,20 @@
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>169</v>
+        <v>409</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10077,28 +10106,28 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>173</v>
+        <v>414</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -10109,7 +10138,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10129,18 +10158,20 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10177,17 +10208,19 @@
         <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10199,7 +10232,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>81</v>
@@ -10208,7 +10241,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10219,11 +10252,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10241,18 +10272,20 @@
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10301,7 +10334,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10310,19 +10343,19 @@
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10333,11 +10366,9 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10355,19 +10386,21 @@
         <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10415,28 +10448,28 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10447,43 +10480,41 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10507,13 +10538,13 @@
         <v>81</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>81</v>
@@ -10531,19 +10562,19 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>81</v>
@@ -10552,7 +10583,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>436</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10563,7 +10594,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10574,7 +10605,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
@@ -10586,16 +10617,16 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>475</v>
+        <v>352</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10645,13 +10676,13 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
@@ -10660,13 +10691,13 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10677,7 +10708,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10688,7 +10719,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>81</v>
@@ -10700,15 +10731,17 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>169</v>
+        <v>444</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>170</v>
+        <v>445</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
@@ -10757,28 +10790,28 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>172</v>
+        <v>443</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10789,11 +10822,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10812,16 +10845,16 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>175</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>176</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>149</v>
+        <v>454</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10871,7 +10904,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>178</v>
+        <v>451</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10883,7 +10916,7 @@
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -10892,7 +10925,7 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>173</v>
+        <v>455</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -10903,43 +10936,39 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10987,28 +11016,28 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -11019,7 +11048,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11042,17 +11071,15 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>481</v>
+        <v>169</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11101,7 +11128,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>480</v>
+        <v>172</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11110,10 +11137,10 @@
         <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
@@ -11122,18 +11149,18 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>486</v>
+        <v>173</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11144,7 +11171,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>81</v>
@@ -11156,17 +11183,15 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>489</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>490</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11203,31 +11228,29 @@
         <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>488</v>
+        <v>178</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
@@ -11236,7 +11259,7 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11247,9 +11270,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11258,7 +11283,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11270,17 +11295,15 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11329,19 +11352,19 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>493</v>
+        <v>178</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>81</v>
@@ -11350,7 +11373,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11361,9 +11384,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11384,20 +11409,16 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>219</v>
+        <v>471</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11445,28 +11466,28 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>496</v>
+        <v>178</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11477,39 +11498,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>170</v>
+        <v>476</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11557,19 +11582,19 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>172</v>
+        <v>478</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>81</v>
@@ -11578,7 +11603,7 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
@@ -11589,18 +11614,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>81</v>
@@ -11612,16 +11637,16 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>175</v>
+        <v>480</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>176</v>
+        <v>481</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
+        <v>482</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11659,31 +11684,31 @@
         <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>178</v>
+        <v>479</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>81</v>
@@ -11692,7 +11717,7 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>173</v>
+        <v>483</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
@@ -11703,7 +11728,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11723,20 +11748,18 @@
         <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>506</v>
+        <v>170</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>81</v>
@@ -11785,7 +11808,7 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>509</v>
+        <v>172</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11794,10 +11817,10 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>81</v>
@@ -11806,29 +11829,29 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>511</v>
+        <v>173</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>81</v>
@@ -11837,27 +11860,25 @@
         <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>514</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>515</v>
+        <v>176</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P84" t="s" s="2">
-        <v>517</v>
-      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>81</v>
       </c>
@@ -11901,19 +11922,19 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>518</v>
+        <v>178</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>81</v>
@@ -11922,52 +11943,54 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>519</v>
+        <v>173</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>522</v>
+        <v>133</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12015,39 +12038,39 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>527</v>
+        <v>131</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12070,16 +12093,16 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12129,7 +12152,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -12141,7 +12164,7 @@
         <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
@@ -12150,18 +12173,18 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12184,16 +12207,16 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12243,7 +12266,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12261,10 +12284,10 @@
         <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12275,7 +12298,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12298,15 +12321,17 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>169</v>
+        <v>496</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>170</v>
+        <v>501</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>81</v>
@@ -12355,7 +12380,7 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>172</v>
+        <v>500</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
@@ -12367,7 +12392,7 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>81</v>
@@ -12376,7 +12401,7 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>173</v>
+        <v>499</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12387,18 +12412,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>81</v>
@@ -12410,18 +12435,20 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>175</v>
+        <v>504</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>176</v>
+        <v>505</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12457,40 +12484,40 @@
         <v>81</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>178</v>
+        <v>503</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>173</v>
+        <v>509</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12501,7 +12528,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12521,23 +12548,19 @@
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>541</v>
+        <v>169</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>542</v>
+        <v>170</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12585,7 +12608,7 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>546</v>
+        <v>172</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -12597,7 +12620,7 @@
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>81</v>
@@ -12606,58 +12629,56 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>547</v>
+        <v>173</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>548</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>550</v>
+        <v>175</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P91" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>81</v>
       </c>
@@ -12677,43 +12698,43 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>554</v>
+        <v>81</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>555</v>
+        <v>81</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>556</v>
+        <v>178</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>81</v>
@@ -12722,18 +12743,18 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>557</v>
+        <v>173</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>558</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12756,24 +12777,24 @@
         <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>169</v>
+        <v>356</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>81</v>
@@ -12815,7 +12836,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12824,7 +12845,7 @@
         <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>100</v>
@@ -12836,18 +12857,18 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>566</v>
+        <v>519</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12870,24 +12891,26 @@
         <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>102</v>
+        <v>356</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="Q93" t="s" s="2">
-        <v>571</v>
+        <v>81</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>81</v>
@@ -12929,7 +12952,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12938,7 +12961,7 @@
         <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -12950,18 +12973,18 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>566</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12981,29 +13004,27 @@
         <v>81</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>108</v>
+        <v>529</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>576</v>
+        <v>530</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>577</v>
+        <v>531</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>580</v>
+        <v>81</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>81</v>
@@ -13045,7 +13066,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -13063,21 +13084,21 @@
         <v>81</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13100,16 +13121,16 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>584</v>
+        <v>488</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>586</v>
+        <v>538</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>345</v>
+        <v>491</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13159,7 +13180,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13168,10 +13189,10 @@
         <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>81</v>
@@ -13180,18 +13201,18 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>587</v>
+        <v>493</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13214,15 +13235,17 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>81</v>
@@ -13271,7 +13294,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13289,10 +13312,10 @@
         <v>81</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
@@ -13303,7 +13326,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13415,7 +13438,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13485,16 +13508,16 @@
         <v>81</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>178</v>
@@ -13529,42 +13552,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>133</v>
+        <v>548</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>149</v>
+        <v>551</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>150</v>
+        <v>552</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>81</v>
@@ -13613,19 +13636,19 @@
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>471</v>
+        <v>553</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>81</v>
@@ -13634,18 +13657,18 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>131</v>
+        <v>554</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>81</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13653,7 +13676,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>88</v>
@@ -13662,28 +13685,30 @@
         <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="Q100" t="s" s="2">
         <v>81</v>
       </c>
@@ -13703,11 +13728,13 @@
         <v>81</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X100" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="Y100" t="s" s="2">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>81</v>
@@ -13725,10 +13752,10 @@
         <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -13743,21 +13770,21 @@
         <v>81</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>591</v>
+        <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>601</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13777,27 +13804,27 @@
         <v>81</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>81</v>
+        <v>570</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>81</v>
@@ -13815,13 +13842,13 @@
         <v>81</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>606</v>
+        <v>81</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>81</v>
@@ -13839,7 +13866,7 @@
         <v>81</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>79</v>
@@ -13857,21 +13884,21 @@
         <v>81</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>610</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>611</v>
+        <v>574</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13891,27 +13918,27 @@
         <v>81</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>612</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>81</v>
+        <v>578</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>81</v>
@@ -13953,7 +13980,7 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -13962,41 +13989,41 @@
         <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>580</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>615</v>
+        <v>81</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>81</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>618</v>
+        <v>81</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>81</v>
@@ -14005,27 +14032,29 @@
         <v>81</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>619</v>
+        <v>108</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>81</v>
@@ -14067,13 +14096,13 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>81</v>
@@ -14088,18 +14117,18 @@
         <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>81</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14110,7 +14139,7 @@
         <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>81</v>
@@ -14122,16 +14151,16 @@
         <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>628</v>
+        <v>352</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14181,13 +14210,13 @@
         <v>81</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>81</v>
@@ -14196,18 +14225,1040 @@
         <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X109" s="2"/>
+      <c r="Y109" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL104" t="s" s="2">
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AM112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>患者あるいはグループに対しての処方オーダ</t>
@@ -2652,13 +2656,13 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2724,13 +2728,13 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2741,10 +2745,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2755,7 +2759,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2764,19 +2768,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2826,13 +2830,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2858,10 +2862,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2872,7 +2876,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2881,16 +2885,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2941,19 +2945,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2973,10 +2977,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2987,28 +2991,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -3058,19 +3062,19 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
@@ -3090,10 +3094,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3104,7 +3108,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -3116,16 +3120,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3151,13 +3155,13 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>82</v>
@@ -3175,19 +3179,19 @@
         <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3207,21 +3211,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3233,16 +3237,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3292,19 +3296,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3313,7 +3317,7 @@
         <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -3324,14 +3328,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3350,16 +3354,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3409,7 +3413,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3430,7 +3434,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -3441,10 +3445,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3467,13 +3471,13 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3512,17 +3516,17 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3534,7 +3538,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3554,13 +3558,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>82</v>
@@ -3582,13 +3586,13 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3639,7 +3643,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3648,10 +3652,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3671,14 +3675,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3691,25 +3695,25 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3758,7 +3762,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3770,7 +3774,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3779,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>82</v>
@@ -3790,10 +3794,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3801,7 +3805,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>81</v>
@@ -3816,16 +3820,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3863,17 +3867,17 @@
         <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3885,43 +3889,43 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
@@ -3933,16 +3937,16 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3992,7 +3996,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -4004,30 +4008,30 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4038,7 +4042,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -4050,13 +4054,13 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4107,13 +4111,13 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
@@ -4128,7 +4132,7 @@
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -4139,14 +4143,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4165,16 +4169,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4212,19 +4216,19 @@
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4236,7 +4240,7 @@
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4245,7 +4249,7 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
@@ -4256,10 +4260,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4270,31 +4274,31 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4319,13 +4323,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4343,19 +4347,19 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>82</v>
@@ -4364,21 +4368,21 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4389,7 +4393,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
@@ -4398,22 +4402,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4438,13 +4442,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4462,19 +4466,19 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4483,21 +4487,21 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4505,10 +4509,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4517,35 +4521,35 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -4581,19 +4585,19 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4602,21 +4606,21 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4624,10 +4628,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4636,19 +4640,19 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4662,7 +4666,7 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>82</v>
@@ -4698,19 +4702,19 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
@@ -4719,21 +4723,21 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4744,7 +4748,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4753,16 +4757,16 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4813,19 +4817,19 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
@@ -4834,21 +4838,21 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4859,7 +4863,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4868,19 +4872,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4930,19 +4934,19 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
@@ -4951,34 +4955,34 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4990,16 +4994,16 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -5049,7 +5053,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5061,30 +5065,30 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5095,7 +5099,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5107,13 +5111,13 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5164,13 +5168,13 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
@@ -5185,7 +5189,7 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5196,14 +5200,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5222,16 +5226,16 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5269,19 +5273,19 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5293,7 +5297,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5302,7 +5306,7 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -5313,10 +5317,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5327,31 +5331,31 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5376,13 +5380,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5400,19 +5404,19 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5421,21 +5425,21 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5446,7 +5450,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5455,22 +5459,22 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5495,13 +5499,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5519,19 +5523,19 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5540,21 +5544,21 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5562,10 +5566,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5574,35 +5578,35 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>82</v>
@@ -5638,19 +5642,19 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5659,21 +5663,21 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5681,10 +5685,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5693,19 +5697,19 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5719,7 +5723,7 @@
         <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>82</v>
@@ -5755,19 +5759,19 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5776,21 +5780,21 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5801,7 +5805,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5810,16 +5814,16 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5870,19 +5874,19 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5891,21 +5895,21 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5916,7 +5920,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5925,19 +5929,19 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5987,19 +5991,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -6008,24 +6012,24 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>82</v>
@@ -6035,7 +6039,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6047,16 +6051,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6106,7 +6110,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6118,30 +6122,30 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6152,7 +6156,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -6164,13 +6168,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6221,13 +6225,13 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
@@ -6242,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6253,14 +6257,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6279,16 +6283,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6326,19 +6330,19 @@
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6350,7 +6354,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6359,7 +6363,7 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -6370,10 +6374,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6384,31 +6388,31 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6433,13 +6437,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6457,19 +6461,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6478,21 +6482,21 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6503,7 +6507,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6512,22 +6516,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6552,13 +6556,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6576,19 +6580,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6597,21 +6601,21 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6619,10 +6623,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6631,35 +6635,35 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>82</v>
@@ -6695,19 +6699,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6716,21 +6720,21 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6738,10 +6742,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6750,19 +6754,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6776,7 +6780,7 @@
         <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>82</v>
@@ -6812,19 +6816,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6833,21 +6837,21 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6858,7 +6862,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6867,16 +6871,16 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6927,19 +6931,19 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6948,21 +6952,21 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6973,7 +6977,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6982,19 +6986,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7044,19 +7048,19 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7065,24 +7069,24 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7104,16 +7108,16 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7163,7 +7167,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7175,30 +7179,30 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7209,7 +7213,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7221,13 +7225,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7278,13 +7282,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -7299,7 +7303,7 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7310,14 +7314,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7336,16 +7340,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7383,19 +7387,19 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7407,7 +7411,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7416,7 +7420,7 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
@@ -7427,10 +7431,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7441,31 +7445,31 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7490,13 +7494,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7514,19 +7518,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7535,21 +7539,21 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7560,7 +7564,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7569,22 +7573,22 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7609,13 +7613,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7633,19 +7637,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7654,21 +7658,21 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7676,10 +7680,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7688,35 +7692,35 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>82</v>
@@ -7752,19 +7756,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7773,21 +7777,21 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7795,10 +7799,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7807,19 +7811,19 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7833,7 +7837,7 @@
         <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>82</v>
@@ -7869,19 +7873,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7890,21 +7894,21 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7915,7 +7919,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7924,16 +7928,16 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7984,19 +7988,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8005,21 +8009,21 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8030,7 +8034,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8039,19 +8043,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8101,19 +8105,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8122,21 +8126,21 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8144,31 +8148,31 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8194,13 +8198,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8218,31 +8222,31 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8250,10 +8254,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8264,7 +8268,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8276,16 +8280,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8311,13 +8315,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8335,28 +8339,28 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -8367,10 +8371,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8378,31 +8382,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8428,13 +8432,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8452,31 +8456,31 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8484,10 +8488,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8510,16 +8514,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8545,11 +8549,11 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8567,7 +8571,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8579,19 +8583,19 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8599,10 +8603,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8613,7 +8617,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8622,19 +8626,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8660,13 +8664,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8684,31 +8688,31 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8716,10 +8720,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8730,28 +8734,28 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8801,19 +8805,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8822,7 +8826,7 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -8833,10 +8837,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8847,7 +8851,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8856,16 +8860,16 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8916,19 +8920,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8937,7 +8941,7 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -8948,10 +8952,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8959,10 +8963,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8971,19 +8975,19 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9009,77 +9013,77 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9088,19 +9092,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9126,13 +9130,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9150,42 +9154,42 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9193,10 +9197,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9205,19 +9209,19 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9267,42 +9271,42 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9313,7 +9317,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9325,16 +9329,16 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9384,42 +9388,42 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9442,16 +9446,16 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9501,7 +9505,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9513,19 +9517,19 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9533,10 +9537,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9544,10 +9548,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9556,16 +9560,16 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9616,42 +9620,42 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9662,7 +9666,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9671,19 +9675,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9733,31 +9737,31 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9765,10 +9769,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9779,7 +9783,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9791,16 +9795,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9850,31 +9854,31 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9882,10 +9886,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9896,7 +9900,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9905,19 +9909,19 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9943,11 +9947,11 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9965,28 +9969,28 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9997,10 +10001,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10011,7 +10015,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10023,16 +10027,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10082,19 +10086,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10103,10 +10107,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10114,10 +10118,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10140,16 +10144,16 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10175,13 +10179,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10199,7 +10203,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10211,30 +10215,30 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10257,16 +10261,16 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10316,7 +10320,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10328,19 +10332,19 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10348,10 +10352,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10371,19 +10375,19 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10433,7 +10437,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10445,16 +10449,16 @@
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10465,10 +10469,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10488,19 +10492,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10550,7 +10554,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10562,7 +10566,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10571,7 +10575,7 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10582,10 +10586,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10605,19 +10609,19 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10667,7 +10671,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10679,16 +10683,16 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10699,10 +10703,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10713,7 +10717,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10722,20 +10726,20 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10784,28 +10788,28 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10816,10 +10820,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10830,7 +10834,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10842,16 +10846,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10877,13 +10881,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10901,19 +10905,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10922,7 +10926,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10933,10 +10937,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10959,16 +10963,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11018,7 +11022,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11030,16 +11034,16 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -11050,10 +11054,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11076,16 +11080,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11135,7 +11139,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11147,16 +11151,16 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11167,10 +11171,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11193,16 +11197,16 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11252,7 +11256,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11264,7 +11268,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11273,7 +11277,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11284,10 +11288,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11298,7 +11302,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11310,13 +11314,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11367,28 +11371,28 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11399,10 +11403,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11413,7 +11417,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11425,13 +11429,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11482,13 +11486,13 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
@@ -11503,7 +11507,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11514,10 +11518,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11540,13 +11544,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11585,17 +11589,17 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11607,7 +11611,7 @@
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11627,13 +11631,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="B79" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="C79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -11655,13 +11659,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11712,7 +11716,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11721,10 +11725,10 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -11744,13 +11748,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>82</v>
@@ -11760,7 +11764,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11772,13 +11776,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11829,7 +11833,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11838,10 +11842,10 @@
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11861,14 +11865,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11881,25 +11885,25 @@
         <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11948,7 +11952,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11960,7 +11964,7 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11969,7 +11973,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11980,10 +11984,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11994,7 +11998,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12006,16 +12010,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12065,19 +12069,19 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12086,7 +12090,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -12097,10 +12101,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12111,7 +12115,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12123,13 +12127,13 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12180,13 +12184,13 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
@@ -12201,7 +12205,7 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12212,14 +12216,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12238,16 +12242,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12297,7 +12301,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12309,7 +12313,7 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12318,7 +12322,7 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12329,14 +12333,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12349,25 +12353,25 @@
         <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12416,7 +12420,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12428,7 +12432,7 @@
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12437,7 +12441,7 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
@@ -12448,10 +12452,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12462,7 +12466,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12474,16 +12478,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12533,19 +12537,19 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12554,21 +12558,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12579,7 +12583,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12591,16 +12595,16 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12650,19 +12654,19 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12671,7 +12675,7 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12682,10 +12686,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12696,7 +12700,7 @@
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12708,16 +12712,16 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12767,28 +12771,28 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12799,10 +12803,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12813,7 +12817,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -12825,19 +12829,19 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12886,28 +12890,28 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -12918,10 +12922,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12932,7 +12936,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -12944,13 +12948,13 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13001,13 +13005,13 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
@@ -13022,7 +13026,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -13033,14 +13037,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13059,16 +13063,16 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13106,19 +13110,19 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13130,7 +13134,7 @@
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13139,7 +13143,7 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
@@ -13150,10 +13154,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13164,7 +13168,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13173,19 +13177,19 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13235,19 +13239,19 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13256,21 +13260,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13281,7 +13285,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13290,26 +13294,26 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q93" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>82</v>
@@ -13354,19 +13358,19 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13375,21 +13379,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13400,7 +13404,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13412,16 +13416,16 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13471,42 +13475,42 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13517,7 +13521,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13529,16 +13533,16 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13588,19 +13592,19 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
@@ -13609,21 +13613,21 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13634,7 +13638,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13646,16 +13650,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13705,28 +13709,28 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13737,10 +13741,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13751,7 +13755,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13763,13 +13767,13 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13820,13 +13824,13 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
@@ -13841,7 +13845,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13852,14 +13856,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13878,16 +13882,16 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13925,19 +13929,19 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13949,7 +13953,7 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -13958,7 +13962,7 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
@@ -13969,10 +13973,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13983,7 +13987,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
@@ -13992,22 +13996,22 @@
         <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14056,19 +14060,19 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14077,21 +14081,21 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14102,35 +14106,35 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q100" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>82</v>
@@ -14151,13 +14155,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14175,19 +14179,19 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14196,21 +14200,21 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14221,7 +14225,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14230,27 +14234,27 @@
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14292,19 +14296,19 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14313,21 +14317,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14338,7 +14342,7 @@
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14347,27 +14351,27 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>82</v>
@@ -14409,19 +14413,19 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14430,21 +14434,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14455,7 +14459,7 @@
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
@@ -14464,29 +14468,29 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>82</v>
@@ -14528,19 +14532,19 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14549,21 +14553,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14574,7 +14578,7 @@
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -14586,16 +14590,16 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14645,19 +14649,19 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
@@ -14666,10 +14670,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14677,10 +14681,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14691,7 +14695,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -14703,13 +14707,13 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14760,28 +14764,28 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
@@ -14792,10 +14796,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14806,7 +14810,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -14818,13 +14822,13 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14875,13 +14879,13 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>82</v>
@@ -14896,7 +14900,7 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
@@ -14907,14 +14911,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14933,16 +14937,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14992,7 +14996,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15004,7 +15008,7 @@
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15013,7 +15017,7 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
@@ -15024,14 +15028,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15044,25 +15048,25 @@
         <v>82</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15111,7 +15115,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15123,7 +15127,7 @@
         <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
@@ -15132,7 +15136,7 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>82</v>
@@ -15143,10 +15147,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15154,10 +15158,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15169,16 +15173,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15204,11 +15208,11 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15226,42 +15230,42 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15272,7 +15276,7 @@
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15284,16 +15288,16 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15319,13 +15323,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15343,42 +15347,42 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15389,7 +15393,7 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15401,16 +15405,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15460,28 +15464,28 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>82</v>
@@ -15492,14 +15496,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15518,16 +15522,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15577,7 +15581,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15589,7 +15593,7 @@
         <v>82</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -15598,7 +15602,7 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>82</v>
@@ -15609,10 +15613,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15635,16 +15639,16 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15694,7 +15698,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15706,16 +15710,16 @@
         <v>82</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -297,13 +297,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -316,16 +316,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -336,13 +336,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -355,19 +355,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -387,13 +387,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -413,13 +413,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -451,8 +451,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationRequest.extension:preparation</t>
@@ -482,17 +482,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -563,10 +564,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -581,10 +582,10 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -599,22 +600,22 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -636,22 +637,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -675,10 +676,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -733,10 +734,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -758,13 +759,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -842,7 +843,7 @@
     <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。system 要素には、保険医療機関番号を含む処方箋ID（urn:oid:1.2.392.100495.20.3.11.1[保険医療機関コード(10 桁)]）を指定する。全国で⼀意になる発番ルールにもとづく場合には urn:oid:1.2.392.100495.20.3.11 とする。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>MedicationRequest.identifier:requestIdentifierCommon.id</t>
@@ -860,10 +861,10 @@
     <t>MedicationRequest.identifier:requestIdentifierCommon.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.11</t>
@@ -872,13 +873,13 @@
     <t>MedicationRequest.identifier:requestIdentifierCommon.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.identifier:requestIdentifierCommon.period</t>
@@ -938,7 +939,7 @@
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
   </si>
   <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+    <t>処方イベントの状態を指定するコード化された概念。処方箋のライフサイクルについて説明します。 / A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
@@ -968,7 +969,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Identifies the reasons for a given status.</t>
+    <t>特定のステータスの理由を特定します。 / Identifies the reasons for a given status.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
@@ -995,7 +996,7 @@
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>The kind of medication order.</t>
+    <t>種類の薬順。 / The kind of medication order.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
@@ -1050,7 +1051,7 @@
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
   </si>
   <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+    <t>リクエストの実行に割り当てられる重要性のレベルを特定します。 / Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
@@ -1121,7 +1122,7 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
+    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1161,13 +1162,13 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+    <t>服用する薬 / Medication to be taken</t>
+  </si>
+  <si>
+    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
@@ -1386,7 +1387,7 @@
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
   </si>
   <si>
-    <t>A coded concept indicating why the medication was ordered.</t>
+    <t>薬が注文された理由を示すコード化された概念。 / A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -1509,7 +1510,7 @@
     <t>この属性は薬剤プロトコールと混同してはならない。</t>
   </si>
   <si>
-    <t>Identifies the overall pattern of medication administratio.</t>
+    <t>投薬投与の全体的なパターンを特定します。 / Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
@@ -1572,7 +1573,7 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
-    <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
+    <t>薬の要求には、経口投与または静脈内または筋肉内の用量のオプションが含まれる場合があります。たとえば、「吐き気に必要に応じて、1日に2回Ondansetron 8mgまたはIV」または「Compazine®（プロクロロペラジン）5-10mg POまたは25mg PR BID PRN吐き気または嘔吐」。これらの場合、グループ化できる2つの投薬要求が作成されます。使用する投与経路の決定は、用量が必要な時点での患者の状態に基づいています。 / There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
@@ -1648,10 +1649,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1698,8 +1700,8 @@
     <t>このエレメントはどのような量を表現するか定義するためにコンテキストにあわせてよく定義される。したがって、どのような単位でも利用することができる。使用されるコンテキストによってcomparatorエレメントで値が定義されることもある。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1742,10 +1744,10 @@
     <t>このエレメントは処方の有効期間（処方が失効する日）を示す。</t>
   </si>
   <si>
-    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+    <t>それは、処方箋の妥当性に対する処方者の視点を反映しています。この期間以外の処方箋に対して分配してはなりません。分配ウィンドウの下限は、処方箋が初めて満たすことができる最も早い日付を意味します。上限が指定されていない場合、処方箋はオープンエンドであるか、規制に基づいて古い日付にデフォルトになります。 / It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>処方箋がいつ有効になるか、そしてそれが不可欠な処方箋であることを停止することを示します。 / Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
@@ -1797,7 +1799,7 @@
     <t>終了時刻は全ての日付・時刻に対応する。たとえば、2012-02-03T10:00:00は2012-02-03を終了時刻(end)の値とする期間を示す。</t>
   </si>
   <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
+    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -1874,16 +1876,16 @@
 </t>
   </si>
   <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>数値（暗黙の精度を持つ） / Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>測定量の値。値には、値の表示に暗黙の精度が含まれます。 / The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -1898,19 +1900,19 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -1928,13 +1930,13 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>ユニット表現 / Unit representation</t>
+  </si>
+  <si>
+    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -1952,13 +1954,13 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.system</t>
   </si>
   <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>コード化されたユニットフォームを定義するシステム / System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>ユニットのコード化された形式を提供するシステムの識別。 / The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -1977,16 +1979,16 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>ユニットのコード化された形式 / Coded form of the unit</t>
+  </si>
+  <si>
+    <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -2069,7 +2071,7 @@
     <t>代替品の理由を表す一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -2485,7 +2487,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="178.55859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="676">
   <si>
     <t>Property</t>
   </si>
@@ -431,21 +431,21 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -455,31 +455,7 @@
 ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:preparation</t>
-  </si>
-  <si>
-    <t>preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
-</t>
-  </si>
-  <si>
-    <t>調剤結果</t>
-  </si>
-  <si>
-    <t>薬剤単位の調剤結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
@@ -490,9 +466,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -524,6 +497,9 @@
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -582,10 +558,11 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1610,6 +1587,12 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.extension:instructionForDispense</t>
   </si>
   <si>
@@ -1624,6 +1607,10 @@
   </si>
   <si>
     <t>薬剤単位の調剤指示を格納する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.extension:expectedRepeatCount</t>
@@ -2454,7 +2441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO113"/>
+  <dimension ref="A1:AO112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3454,7 +3441,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3473,15 +3460,17 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -3518,14 +3507,16 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3549,7 +3540,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3563,13 +3554,11 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3582,22 +3571,26 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3645,7 +3638,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3654,7 +3647,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3666,7 +3659,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3677,18 +3670,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>81</v>
@@ -3697,13 +3690,13 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>150</v>
@@ -3714,9 +3707,7 @@
       <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3752,19 +3743,17 @@
         <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3776,41 +3765,43 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3822,16 +3813,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3869,17 +3860,19 @@
         <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3894,37 +3887,35 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>90</v>
@@ -3939,17 +3930,15 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3998,34 +3987,34 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -4037,14 +4026,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -4056,15 +4045,17 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -4101,16 +4092,16 @@
         <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>177</v>
@@ -4119,13 +4110,13 @@
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4134,7 +4125,7 @@
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -4145,44 +4136,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
       </c>
@@ -4206,43 +4199,43 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4251,21 +4244,21 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4282,25 +4275,25 @@
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4325,13 +4318,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4349,7 +4342,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4370,21 +4363,21 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4392,7 +4385,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -4407,32 +4400,32 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>82</v>
@@ -4444,13 +4437,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4468,7 +4461,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4489,21 +4482,21 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4526,32 +4519,30 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -4587,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4608,21 +4599,21 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4630,7 +4621,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
@@ -4645,17 +4636,15 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4668,7 +4657,7 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>82</v>
@@ -4704,7 +4693,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4725,21 +4714,21 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4762,15 +4751,17 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4819,7 +4810,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4840,29 +4831,31 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
@@ -4874,19 +4867,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4936,13 +4929,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4951,37 +4944,35 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4996,17 +4987,15 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5055,53 +5044,53 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>173</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5113,15 +5102,17 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5158,16 +5149,16 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>177</v>
@@ -5176,13 +5167,13 @@
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5191,7 +5182,7 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5202,44 +5193,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5263,43 +5256,43 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5308,21 +5301,21 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5339,25 +5332,25 @@
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5382,13 +5375,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5406,7 +5399,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5427,21 +5420,21 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5449,7 +5442,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5464,32 +5457,32 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>82</v>
@@ -5501,13 +5494,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5525,7 +5518,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5546,21 +5539,21 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5583,32 +5576,30 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>82</v>
@@ -5644,7 +5635,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5665,21 +5656,21 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5687,7 +5678,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5702,17 +5693,15 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5725,7 +5714,7 @@
         <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>82</v>
@@ -5761,7 +5750,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5782,21 +5771,21 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5819,15 +5808,17 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5876,7 +5867,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5897,23 +5888,25 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5931,19 +5924,19 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5993,13 +5986,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -6008,31 +6001,29 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>82</v>
       </c>
@@ -6053,17 +6044,15 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6112,53 +6101,53 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>173</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -6170,15 +6159,17 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6215,16 +6206,16 @@
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>177</v>
@@ -6233,13 +6224,13 @@
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6248,7 +6239,7 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6259,44 +6250,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6320,43 +6313,43 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6365,21 +6358,21 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6396,25 +6389,25 @@
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6439,13 +6432,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6463,7 +6456,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6484,21 +6477,21 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6506,7 +6499,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -6521,32 +6514,32 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>82</v>
@@ -6558,13 +6551,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6582,7 +6575,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6603,21 +6596,21 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6640,32 +6633,30 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>82</v>
@@ -6701,7 +6692,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6722,21 +6713,21 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6744,7 +6735,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6759,17 +6750,15 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6782,7 +6771,7 @@
         <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>82</v>
@@ -6818,7 +6807,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6839,21 +6828,21 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6876,15 +6865,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6933,7 +6924,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6954,23 +6945,25 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6979,7 +6972,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6988,19 +6981,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7050,13 +7043,13 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -7065,31 +7058,29 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7098,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -7110,17 +7101,15 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7169,53 +7158,53 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>173</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7227,15 +7216,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7272,16 +7263,16 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>177</v>
@@ -7290,13 +7281,13 @@
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7305,7 +7296,7 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7316,44 +7307,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7377,43 +7370,43 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7422,21 +7415,21 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7453,25 +7446,25 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7496,13 +7489,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7520,7 +7513,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7541,21 +7534,21 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7563,7 +7556,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>90</v>
@@ -7578,32 +7571,32 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>82</v>
@@ -7615,13 +7608,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7639,7 +7632,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7660,21 +7653,21 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7697,32 +7690,30 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>82</v>
@@ -7758,7 +7749,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7779,21 +7770,21 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7801,7 +7792,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7816,17 +7807,15 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7839,7 +7828,7 @@
         <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>82</v>
@@ -7875,7 +7864,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7896,21 +7885,21 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7933,15 +7922,17 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7990,7 +7981,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8011,21 +8002,21 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8033,7 +8024,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -8042,22 +8033,22 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8083,13 +8074,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -8107,10 +8098,10 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -8122,27 +8113,27 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8150,7 +8141,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
@@ -8159,22 +8150,22 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8200,13 +8191,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8224,10 +8215,10 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -8239,16 +8230,16 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8256,10 +8247,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8267,7 +8258,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>90</v>
@@ -8276,22 +8267,22 @@
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8317,13 +8308,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8341,10 +8332,10 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>90</v>
@@ -8356,16 +8347,16 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8373,10 +8364,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8384,31 +8375,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8434,13 +8425,11 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8458,13 +8447,13 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8473,16 +8462,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8504,7 +8493,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8513,10 +8502,10 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>323</v>
@@ -8551,11 +8540,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8579,7 +8570,7 @@
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
@@ -8588,16 +8579,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8605,10 +8596,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8625,22 +8616,22 @@
         <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8666,13 +8657,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8690,7 +8681,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8705,7 +8696,7 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8714,7 +8705,7 @@
         <v>336</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8722,10 +8713,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8742,23 +8733,21 @@
         <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8807,7 +8796,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8828,7 +8817,7 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -8839,10 +8828,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8850,7 +8839,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>90</v>
@@ -8865,15 +8854,17 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8898,34 +8889,32 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>90</v>
@@ -8937,29 +8926,31 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8980,16 +8971,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9015,29 +9006,31 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>90</v>
@@ -9052,19 +9045,19 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57">
@@ -9072,11 +9065,9 @@
         <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9097,7 +9088,7 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>363</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>364</v>
@@ -9132,13 +9123,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9156,7 +9147,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>90</v>
@@ -9171,27 +9162,27 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9199,7 +9190,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>90</v>
@@ -9211,19 +9202,19 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9273,10 +9264,10 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>90</v>
@@ -9288,27 +9279,27 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9319,7 +9310,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9331,16 +9322,16 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9390,13 +9381,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9405,19 +9396,19 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -9433,10 +9424,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9445,7 +9436,7 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>389</v>
@@ -9456,9 +9447,7 @@
       <c r="M60" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9513,7 +9502,7 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9522,27 +9511,27 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>394</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9550,7 +9539,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>90</v>
@@ -9565,15 +9554,17 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9622,7 +9613,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9637,27 +9628,27 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>402</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9677,19 +9668,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9739,7 +9730,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9754,13 +9745,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>409</v>
@@ -9794,19 +9785,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9832,13 +9823,11 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9871,16 +9860,16 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9911,19 +9900,19 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>198</v>
+        <v>418</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9949,11 +9938,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9986,16 +9977,16 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10003,10 +9994,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10017,7 +10008,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10029,16 +10020,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10064,13 +10055,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10088,13 +10079,13 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
@@ -10103,27 +10094,27 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10146,16 +10137,16 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10181,31 +10172,31 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10220,19 +10211,19 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>437</v>
+        <v>295</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
@@ -10260,7 +10251,7 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>442</v>
@@ -10340,13 +10331,13 @@
         <v>446</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10380,16 +10371,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10454,13 +10445,13 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10471,10 +10462,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10497,16 +10488,16 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10556,7 +10547,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10571,13 +10562,13 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10588,10 +10579,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10602,7 +10593,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10614,18 +10605,18 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10673,13 +10664,13 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
@@ -10688,13 +10679,13 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10705,10 +10696,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10728,21 +10719,21 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10766,13 +10757,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10790,7 +10781,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10805,7 +10796,7 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
@@ -10836,7 +10827,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10848,16 +10839,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>471</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>473</v>
+        <v>385</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10883,13 +10874,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10913,7 +10904,7 @@
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -10922,13 +10913,13 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10939,10 +10930,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10965,16 +10956,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11024,7 +11015,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11042,10 +11033,10 @@
         <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -11056,10 +11047,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11082,10 +11073,10 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>486</v>
@@ -11141,7 +11132,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11156,13 +11147,13 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11173,10 +11164,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11187,7 +11178,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11199,17 +11190,15 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>494</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11258,13 +11247,13 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
@@ -11276,10 +11265,10 @@
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11290,10 +11279,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11316,13 +11305,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11373,7 +11362,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>496</v>
+        <v>170</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11385,16 +11374,16 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>501</v>
+        <v>171</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11405,10 +11394,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11419,7 +11408,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11431,13 +11420,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11476,16 +11465,14 @@
         <v>82</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AC77" s="2"/>
       <c r="AD77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>177</v>
@@ -11494,13 +11481,13 @@
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11509,7 +11496,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11520,12 +11507,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11546,13 +11535,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11591,17 +11580,19 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC78" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11610,7 +11601,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>141</v>
@@ -11633,13 +11624,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -11649,7 +11640,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11661,13 +11652,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11718,7 +11709,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11727,7 +11718,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>147</v>
+        <v>506</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>141</v>
@@ -11750,35 +11741,33 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C80" t="s" s="2">
         <v>512</v>
       </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>513</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>513</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>514</v>
@@ -11786,8 +11775,12 @@
       <c r="M80" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11835,7 +11828,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>184</v>
+        <v>516</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11844,7 +11837,7 @@
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>141</v>
@@ -11856,7 +11849,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11867,33 +11860,33 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>135</v>
+        <v>490</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>518</v>
@@ -11902,11 +11895,9 @@
         <v>519</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -11954,19 +11945,19 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11975,7 +11966,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11986,10 +11977,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12012,17 +12003,15 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>167</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>522</v>
+        <v>168</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12071,7 +12060,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>521</v>
+        <v>170</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12083,7 +12072,7 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12092,7 +12081,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>525</v>
+        <v>171</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -12103,21 +12092,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12129,15 +12118,17 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12192,13 +12183,13 @@
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12207,7 +12198,7 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12218,14 +12209,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>149</v>
+        <v>513</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12238,24 +12229,26 @@
         <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>181</v>
+        <v>514</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>182</v>
+        <v>515</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12303,7 +12296,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>184</v>
+        <v>516</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12324,7 +12317,7 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12335,46 +12328,44 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>135</v>
+        <v>526</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12422,19 +12413,19 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>141</v>
+        <v>530</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12443,21 +12434,21 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>133</v>
+        <v>531</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12480,16 +12471,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12539,7 +12530,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12548,10 +12539,10 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>534</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12560,21 +12551,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12597,7 +12588,7 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>539</v>
@@ -12606,7 +12597,7 @@
         <v>540</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12656,7 +12647,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12677,7 +12668,7 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12688,10 +12679,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12714,18 +12705,20 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>538</v>
+        <v>223</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12773,7 +12766,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12791,10 +12784,10 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12805,10 +12798,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12831,20 +12824,16 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>546</v>
+        <v>168</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12892,7 +12881,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>545</v>
+        <v>170</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12904,16 +12893,16 @@
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>551</v>
+        <v>171</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -12924,21 +12913,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -12950,15 +12939,17 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -12995,16 +12986,16 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>177</v>
@@ -13013,13 +13004,13 @@
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13028,7 +13019,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -13039,21 +13030,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13062,19 +13053,19 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>181</v>
+        <v>551</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>182</v>
+        <v>552</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>152</v>
+        <v>553</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13112,31 +13103,31 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>184</v>
+        <v>554</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13145,21 +13136,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>178</v>
+        <v>556</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13182,22 +13173,24 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="R92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13241,7 +13234,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13250,7 +13243,7 @@
         <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>102</v>
@@ -13262,21 +13255,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13296,72 +13289,70 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>396</v>
+        <v>567</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q93" t="s" s="2">
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF93" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="R93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13369,7 +13360,7 @@
         <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>102</v>
@@ -13378,24 +13369,24 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13418,16 +13409,16 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>571</v>
+        <v>526</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13477,7 +13468,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13486,33 +13477,33 @@
         <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>102</v>
+        <v>530</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>577</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13535,16 +13526,16 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13594,7 +13585,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13603,33 +13594,33 @@
         <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>534</v>
+        <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13652,17 +13643,15 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>538</v>
+        <v>167</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>582</v>
+        <v>168</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13711,7 +13700,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>581</v>
+        <v>170</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13723,16 +13712,16 @@
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>585</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>586</v>
+        <v>171</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13743,21 +13732,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13769,15 +13758,17 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13814,16 +13805,16 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>177</v>
@@ -13832,13 +13823,13 @@
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -13847,7 +13838,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13858,21 +13849,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -13881,21 +13872,23 @@
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>135</v>
+        <v>586</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>181</v>
+        <v>587</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>182</v>
+        <v>588</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -13931,31 +13924,31 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>184</v>
+        <v>591</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -13964,21 +13957,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>178</v>
+        <v>592</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13995,30 +13988,30 @@
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>590</v>
+        <v>110</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="R99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14038,13 +14031,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14062,7 +14055,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14083,21 +14076,21 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14114,32 +14107,30 @@
         <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q100" t="s" s="2">
-        <v>602</v>
-      </c>
+      <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>82</v>
+        <v>608</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>82</v>
@@ -14157,13 +14148,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14181,7 +14172,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14202,21 +14193,21 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14239,24 +14230,24 @@
         <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14298,7 +14289,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14307,7 +14298,7 @@
         <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>102</v>
@@ -14319,21 +14310,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14356,24 +14347,26 @@
         <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O102" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>82</v>
@@ -14415,7 +14408,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14424,7 +14417,7 @@
         <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>622</v>
+        <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>102</v>
@@ -14436,21 +14429,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14470,29 +14463,27 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>110</v>
+        <v>629</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>82</v>
@@ -14534,7 +14525,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14555,21 +14546,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14592,7 +14583,7 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>633</v>
+        <v>490</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>634</v>
@@ -14600,9 +14591,7 @@
       <c r="M104" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14651,7 +14640,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14669,13 +14658,13 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14683,10 +14672,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14709,13 +14698,13 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>497</v>
+        <v>167</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>638</v>
+        <v>168</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>639</v>
+        <v>169</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14766,7 +14755,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>637</v>
+        <v>170</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14778,16 +14767,16 @@
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>641</v>
+        <v>171</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
@@ -14798,21 +14787,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -14824,15 +14813,17 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L106" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -14887,13 +14878,13 @@
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
@@ -14902,7 +14893,7 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
@@ -14913,14 +14904,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>149</v>
+        <v>513</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14933,24 +14924,26 @@
         <v>82</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>181</v>
+        <v>514</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>182</v>
+        <v>515</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -14998,7 +14991,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>184</v>
+        <v>516</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15019,7 +15012,7 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
@@ -15030,46 +15023,44 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>518</v>
+        <v>634</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>519</v>
+        <v>642</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15093,13 +15084,11 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>82</v>
+        <v>644</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15117,42 +15106,42 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>133</v>
+        <v>645</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>82</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15160,7 +15149,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>90</v>
@@ -15175,16 +15164,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15210,11 +15199,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y109" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="Z109" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15232,10 +15223,10 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>90</v>
@@ -15250,24 +15241,24 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15290,16 +15281,16 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>198</v>
+        <v>657</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>654</v>
+        <v>385</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15325,31 +15316,31 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>655</v>
+        <v>82</v>
       </c>
       <c r="Z110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15364,38 +15355,38 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>82</v>
+        <v>660</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>659</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>82</v>
+        <v>663</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15407,16 +15398,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>392</v>
+        <v>667</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15466,13 +15457,13 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>82</v>
@@ -15481,13 +15472,13 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>664</v>
+        <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>657</v>
+        <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>82</v>
@@ -15498,14 +15489,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15524,16 +15515,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15583,7 +15574,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15598,135 +15589,18 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO113" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="667">
   <si>
     <t>Property</t>
   </si>
@@ -1099,17 +1099,10 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1131,27 +1124,6 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>服用する薬 / Medication to be taken</t>
-  </si>
-  <si>
-    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -2441,7 +2413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO112"/>
+  <dimension ref="A1:AO111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2452,7 +2424,7 @@
   <cols>
     <col min="1" max="1" width="69.44921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="69.44921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="24.5703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -8889,7 +8861,7 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="Y55" t="s" s="2">
         <v>346</v>
@@ -8901,14 +8873,16 @@
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>342</v>
@@ -8926,31 +8900,29 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8971,16 +8943,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9006,13 +8978,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9030,7 +9002,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>90</v>
@@ -9045,27 +9017,27 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9073,7 +9045,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
@@ -9085,19 +9057,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9147,10 +9119,10 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>90</v>
@@ -9162,10 +9134,10 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>369</v>
@@ -9193,7 +9165,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9270,7 +9242,7 @@
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -9282,24 +9254,24 @@
         <v>377</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9307,10 +9279,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9319,20 +9291,18 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9381,13 +9351,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9396,19 +9366,19 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -9424,7 +9394,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
@@ -9447,7 +9417,9 @@
       <c r="M60" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9514,24 +9486,24 @@
         <v>392</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AO60" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9551,19 +9523,19 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9613,7 +9585,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9628,16 +9600,16 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9645,10 +9617,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9668,19 +9640,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9706,13 +9678,11 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9730,7 +9700,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9745,16 +9715,16 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9762,10 +9732,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9785,19 +9755,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9823,11 +9793,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9845,7 +9817,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9860,16 +9832,16 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9877,10 +9849,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9891,7 +9863,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9903,16 +9875,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>418</v>
+        <v>191</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9938,13 +9910,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9962,13 +9934,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
@@ -9977,27 +9949,27 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10020,16 +9992,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>191</v>
+        <v>426</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10055,13 +10027,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10079,7 +10051,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10094,27 +10066,27 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>430</v>
+        <v>295</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>431</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10134,19 +10106,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10196,7 +10168,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10211,16 +10183,16 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10228,10 +10200,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10254,16 +10226,16 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>442</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10313,7 +10285,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10328,13 +10300,13 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10345,10 +10317,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10371,16 +10343,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10430,7 +10402,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10445,7 +10417,7 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -10462,10 +10434,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10476,7 +10448,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10488,18 +10460,18 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10547,13 +10519,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10562,13 +10534,13 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10579,10 +10551,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10602,21 +10574,21 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10640,13 +10612,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10664,7 +10636,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10679,13 +10651,13 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10696,10 +10668,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10710,7 +10682,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10722,16 +10694,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>191</v>
+        <v>462</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10757,13 +10729,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10781,13 +10753,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -10796,13 +10768,13 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10813,10 +10785,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10839,16 +10811,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10898,7 +10870,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10913,13 +10885,13 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10930,10 +10902,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10956,16 +10928,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11015,7 +10987,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11030,13 +11002,13 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -11047,10 +11019,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11061,7 +11033,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11073,17 +11045,15 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11132,13 +11102,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
@@ -11150,10 +11120,10 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11164,10 +11134,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11190,13 +11160,13 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11247,7 +11217,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>489</v>
+        <v>170</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11259,16 +11229,16 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11279,10 +11249,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11293,7 +11263,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11305,13 +11275,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11350,31 +11320,29 @@
         <v>82</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11383,7 +11351,7 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11394,12 +11362,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11420,13 +11390,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>136</v>
+        <v>494</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11465,14 +11435,16 @@
         <v>82</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>177</v>
@@ -11484,7 +11456,7 @@
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>141</v>
@@ -11507,13 +11479,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
@@ -11523,7 +11495,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11535,13 +11507,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11601,7 +11573,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>141</v>
@@ -11624,44 +11596,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>509</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11709,7 +11683,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>177</v>
+        <v>507</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11718,7 +11692,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>141</v>
@@ -11730,7 +11704,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11741,46 +11715,44 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11828,19 +11800,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11849,7 +11821,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>133</v>
+        <v>512</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11860,10 +11832,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11886,17 +11858,15 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>518</v>
+        <v>168</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11945,7 +11915,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>517</v>
+        <v>170</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11957,7 +11927,7 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11966,7 +11936,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>521</v>
+        <v>171</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11977,21 +11947,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12003,15 +11973,17 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12060,19 +12032,19 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12092,14 +12064,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>135</v>
+        <v>504</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12112,24 +12084,26 @@
         <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>174</v>
+        <v>506</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12177,7 +12151,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>177</v>
+        <v>507</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12198,7 +12172,7 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12209,46 +12183,44 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>136</v>
+        <v>517</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12302,13 +12274,13 @@
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>141</v>
+        <v>521</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12317,21 +12289,21 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>133</v>
+        <v>522</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>82</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12354,16 +12326,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="N85" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12413,7 +12385,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12422,10 +12394,10 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>530</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12434,21 +12406,21 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12471,16 +12443,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12530,7 +12502,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12551,7 +12523,7 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -12562,10 +12534,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12588,18 +12560,20 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="N87" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12647,7 +12621,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12665,10 +12639,10 @@
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12679,10 +12653,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12705,20 +12679,16 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>542</v>
+        <v>168</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12766,7 +12736,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>541</v>
+        <v>170</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12778,16 +12748,16 @@
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>547</v>
+        <v>171</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12798,21 +12768,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -12824,15 +12794,17 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12869,31 +12841,31 @@
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -12913,21 +12885,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -12936,19 +12908,19 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>137</v>
+        <v>542</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>174</v>
+        <v>543</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>139</v>
+        <v>544</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12986,31 +12958,31 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>177</v>
+        <v>545</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13019,21 +12991,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>171</v>
+        <v>547</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13056,22 +13028,24 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="R91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13124,7 +13098,7 @@
         <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>102</v>
@@ -13136,21 +13110,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>557</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13170,10 +13144,10 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>389</v>
+        <v>558</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>559</v>
@@ -13188,9 +13162,7 @@
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q92" t="s" s="2">
-        <v>562</v>
-      </c>
+      <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13234,7 +13206,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13243,7 +13215,7 @@
         <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>555</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>102</v>
@@ -13252,24 +13224,24 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>565</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13292,16 +13264,16 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>569</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13351,7 +13323,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13360,33 +13332,33 @@
         <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>102</v>
+        <v>521</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>573</v>
+        <v>523</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13409,16 +13381,16 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13468,7 +13440,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13477,33 +13449,33 @@
         <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>530</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13526,17 +13498,15 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>534</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>578</v>
+        <v>168</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13585,7 +13555,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>577</v>
+        <v>170</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13597,16 +13567,16 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>582</v>
+        <v>171</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
@@ -13617,21 +13587,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13643,15 +13613,17 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13688,31 +13660,31 @@
         <v>82</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -13732,21 +13704,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13755,21 +13727,23 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>136</v>
+        <v>577</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>137</v>
+        <v>578</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>174</v>
+        <v>579</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13805,31 +13779,31 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>177</v>
+        <v>582</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -13838,13 +13812,13 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>171</v>
+        <v>583</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98">
@@ -13869,56 +13843,56 @@
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="P98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q98" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="O98" t="s" s="2">
+      <c r="R98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="P98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z98" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -13936,7 +13910,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13957,21 +13931,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13988,32 +13962,30 @@
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q99" t="s" s="2">
-        <v>598</v>
-      </c>
+      <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>82</v>
@@ -14031,31 +14003,31 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="Z99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14076,21 +14048,21 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>603</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14113,75 +14085,75 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF100" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="S100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF100" t="s" s="2">
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI100" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>102</v>
@@ -14199,15 +14171,15 @@
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14230,15 +14202,17 @@
         <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>615</v>
       </c>
@@ -14298,7 +14272,7 @@
         <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>618</v>
+        <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>102</v>
@@ -14310,21 +14284,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14344,10 +14318,10 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>110</v>
+        <v>620</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>621</v>
@@ -14356,17 +14330,15 @@
         <v>622</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>625</v>
+        <v>82</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>82</v>
@@ -14408,7 +14380,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14429,21 +14401,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>611</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14466,17 +14438,15 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>629</v>
+        <v>481</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14525,7 +14495,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14543,13 +14513,13 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>82</v>
+        <v>627</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14557,10 +14527,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14583,13 +14553,13 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>634</v>
+        <v>168</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>635</v>
+        <v>169</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14640,7 +14610,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>633</v>
+        <v>170</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14652,16 +14622,16 @@
         <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>636</v>
+        <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>637</v>
+        <v>171</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
@@ -14672,21 +14642,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -14698,15 +14668,17 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -14755,19 +14727,19 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
@@ -14787,14 +14759,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>135</v>
+        <v>504</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14807,24 +14779,26 @@
         <v>82</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>174</v>
+        <v>506</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
@@ -14872,7 +14846,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>177</v>
+        <v>507</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14893,7 +14867,7 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
@@ -14904,46 +14878,44 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>515</v>
+        <v>633</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -14967,13 +14939,11 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>82</v>
+        <v>635</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -14991,42 +14961,42 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>516</v>
+        <v>632</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>82</v>
+        <v>627</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>133</v>
+        <v>636</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>82</v>
+        <v>637</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15034,7 +15004,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>90</v>
@@ -15052,13 +15022,13 @@
         <v>191</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15084,11 +15054,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y108" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="Z108" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15106,10 +15078,10 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>90</v>
@@ -15124,7 +15096,7 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>645</v>
@@ -15164,16 +15136,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>191</v>
+        <v>648</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>650</v>
+        <v>376</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15199,13 +15171,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>651</v>
+        <v>82</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>652</v>
+        <v>82</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15238,38 +15210,38 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>82</v>
+        <v>651</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>655</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>82</v>
+        <v>654</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15281,16 +15253,16 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15340,13 +15312,13 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>82</v>
@@ -15355,13 +15327,13 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>660</v>
+        <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>653</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
@@ -15372,14 +15344,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>663</v>
+        <v>82</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15398,16 +15370,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15457,7 +15429,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15472,135 +15444,18 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>82</v>
+        <v>665</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -907,7 +907,7 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。</t>
+    <t>オーダの現在の状態を示すコード</t>
   </si>
   <si>
     <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -539,9 +539,6 @@
     <t>urn:oid:1.2.392.100495.20.3.81</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -564,9 +561,6 @@
   </si>
   <si>
     <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -2317,7 +2311,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -4148,43 +4142,43 @@
         <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -4205,21 +4199,21 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4245,13 +4239,13 @@
         <v>126</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4265,7 +4259,7 @@
         <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>41</v>
@@ -4301,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4322,21 +4316,21 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4359,13 +4353,13 @@
         <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4416,7 +4410,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4437,21 +4431,21 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4474,16 +4468,16 @@
         <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4533,7 +4527,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4554,24 +4548,24 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
@@ -4596,13 +4590,13 @@
         <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4684,7 +4678,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>125</v>
@@ -4799,7 +4793,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>132</v>
@@ -4916,7 +4910,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>138</v>
@@ -5035,7 +5029,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>149</v>
@@ -5154,7 +5148,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>161</v>
@@ -5183,10 +5177,10 @@
         <v>63</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>164</v>
@@ -5199,49 +5193,49 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5262,21 +5256,21 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5302,13 +5296,13 @@
         <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5322,7 +5316,7 @@
         <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>41</v>
@@ -5358,7 +5352,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5379,21 +5373,21 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5416,13 +5410,13 @@
         <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5473,7 +5467,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5494,21 +5488,21 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5531,16 +5525,16 @@
         <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5590,7 +5584,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5611,24 +5605,24 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>41</v>
@@ -5653,13 +5647,13 @@
         <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5741,7 +5735,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>125</v>
@@ -5856,7 +5850,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>132</v>
@@ -5973,7 +5967,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>138</v>
@@ -6092,7 +6086,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>149</v>
@@ -6211,7 +6205,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>161</v>
@@ -6240,10 +6234,10 @@
         <v>63</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>164</v>
@@ -6256,49 +6250,49 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6319,21 +6313,21 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6359,13 +6353,13 @@
         <v>126</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6379,7 +6373,7 @@
         <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>41</v>
@@ -6415,7 +6409,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6436,21 +6430,21 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6473,13 +6467,13 @@
         <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6530,7 +6524,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6551,21 +6545,21 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6588,16 +6582,16 @@
         <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6647,7 +6641,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6668,24 +6662,24 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>41</v>
@@ -6710,13 +6704,13 @@
         <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6798,7 +6792,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>125</v>
@@ -6913,7 +6907,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>132</v>
@@ -7030,7 +7024,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>138</v>
@@ -7149,7 +7143,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>149</v>
@@ -7268,7 +7262,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>161</v>
@@ -7297,10 +7291,10 @@
         <v>63</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>164</v>
@@ -7313,49 +7307,49 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="T43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7376,21 +7370,21 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7416,13 +7410,13 @@
         <v>126</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7436,7 +7430,7 @@
         <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>41</v>
@@ -7472,7 +7466,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7493,21 +7487,21 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7530,13 +7524,13 @@
         <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7587,7 +7581,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7608,21 +7602,21 @@
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7645,16 +7639,16 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7704,7 +7698,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7725,21 +7719,21 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7765,13 +7759,13 @@
         <v>69</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7800,10 +7794,10 @@
         <v>143</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7821,7 +7815,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>49</v>
@@ -7836,16 +7830,16 @@
         <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7853,10 +7847,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7882,13 +7876,13 @@
         <v>150</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7914,14 +7908,14 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
       </c>
@@ -7938,7 +7932,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7953,13 +7947,13 @@
         <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7970,10 +7964,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7999,13 +7993,13 @@
         <v>69</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8034,10 +8028,10 @@
         <v>143</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -8055,7 +8049,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>49</v>
@@ -8070,16 +8064,16 @@
         <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8087,10 +8081,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8116,13 +8110,13 @@
         <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8152,7 +8146,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>41</v>
@@ -8170,7 +8164,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8188,13 +8182,13 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8202,10 +8196,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8231,13 +8225,13 @@
         <v>69</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8266,10 +8260,10 @@
         <v>143</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8287,7 +8281,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8302,16 +8296,16 @@
         <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8319,10 +8313,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8345,16 +8339,16 @@
         <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8404,7 +8398,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8425,7 +8419,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -8436,10 +8430,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8462,13 +8456,13 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8519,7 +8513,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8540,7 +8534,7 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -8551,10 +8545,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8580,13 +8574,13 @@
         <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8615,10 +8609,10 @@
         <v>73</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -8636,7 +8630,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>49</v>
@@ -8651,27 +8645,27 @@
         <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8694,16 +8688,16 @@
         <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8753,7 +8747,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>49</v>
@@ -8768,27 +8762,27 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8811,16 +8805,16 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8870,7 +8864,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8885,27 +8879,27 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8928,16 +8922,16 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8987,7 +8981,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -9002,16 +8996,16 @@
         <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9019,10 +9013,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9045,13 +9039,13 @@
         <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9102,7 +9096,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9117,27 +9111,27 @@
         <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9160,16 +9154,16 @@
         <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9219,7 +9213,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9234,16 +9228,16 @@
         <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9251,10 +9245,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9277,16 +9271,16 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9336,7 +9330,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9351,16 +9345,16 @@
         <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9368,10 +9362,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9397,13 +9391,13 @@
         <v>150</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9429,11 +9423,11 @@
         <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>41</v>
@@ -9451,7 +9445,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9466,13 +9460,13 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -9483,10 +9477,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9509,16 +9503,16 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9568,7 +9562,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9589,10 +9583,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9600,10 +9594,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9629,13 +9623,13 @@
         <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9661,13 +9655,13 @@
         <v>41</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9685,7 +9679,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9700,27 +9694,27 @@
         <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9743,16 +9737,16 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9802,7 +9796,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9817,16 +9811,16 @@
         <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9834,10 +9828,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9860,16 +9854,16 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9919,7 +9913,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9934,13 +9928,13 @@
         <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9951,10 +9945,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9980,13 +9974,13 @@
         <v>63</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10036,7 +10030,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -10057,7 +10051,7 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -10068,10 +10062,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10094,16 +10088,16 @@
         <v>50</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10153,7 +10147,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10168,13 +10162,13 @@
         <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -10185,10 +10179,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10214,14 +10208,14 @@
         <v>108</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10270,7 +10264,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10285,13 +10279,13 @@
         <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -10302,10 +10296,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10331,13 +10325,13 @@
         <v>150</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10363,13 +10357,13 @@
         <v>41</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>41</v>
@@ -10387,7 +10381,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10408,7 +10402,7 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -10419,10 +10413,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10445,16 +10439,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10504,7 +10498,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10519,13 +10513,13 @@
         <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -10536,10 +10530,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10562,16 +10556,16 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10621,7 +10615,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10636,13 +10630,13 @@
         <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -10653,10 +10647,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10679,16 +10673,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10738,7 +10732,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10759,7 +10753,7 @@
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -10770,10 +10764,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10796,13 +10790,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10853,7 +10847,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10871,10 +10865,10 @@
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>41</v>
@@ -10885,10 +10879,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10914,10 +10908,10 @@
         <v>126</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11000,10 +10994,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11029,10 +11023,10 @@
         <v>95</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11113,13 +11107,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>41</v>
@@ -11141,13 +11135,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11207,7 +11201,7 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>100</v>
@@ -11230,13 +11224,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>41</v>
@@ -11258,13 +11252,13 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11324,7 +11318,7 @@
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -11347,14 +11341,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11376,10 +11370,10 @@
         <v>95</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>98</v>
@@ -11434,7 +11428,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11466,10 +11460,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11492,16 +11486,16 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11551,7 +11545,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11572,7 +11566,7 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>
@@ -11583,10 +11577,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11698,10 +11692,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11815,14 +11809,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11844,10 +11838,10 @@
         <v>95</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>98</v>
@@ -11902,7 +11896,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11934,10 +11928,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11960,16 +11954,16 @@
         <v>41</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12019,7 +12013,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12028,33 +12022,33 @@
         <v>49</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12077,16 +12071,16 @@
         <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12136,7 +12130,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12157,7 +12151,7 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>41</v>
@@ -12168,10 +12162,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12194,16 +12188,16 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12253,7 +12247,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12274,7 +12268,7 @@
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>41</v>
@@ -12285,10 +12279,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12311,19 +12305,19 @@
         <v>41</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12372,7 +12366,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12390,10 +12384,10 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>41</v>
@@ -12404,10 +12398,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12519,10 +12513,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12636,10 +12630,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12662,16 +12656,16 @@
         <v>50</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12721,7 +12715,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12730,7 +12724,7 @@
         <v>49</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>61</v>
@@ -12742,21 +12736,21 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12779,23 +12773,23 @@
         <v>50</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q90" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>41</v>
@@ -12840,7 +12834,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -12849,7 +12843,7 @@
         <v>49</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>61</v>
@@ -12861,21 +12855,21 @@
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12898,16 +12892,16 @@
         <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12957,7 +12951,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12975,24 +12969,24 @@
         <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13015,16 +13009,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13074,7 +13068,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13083,33 +13077,33 @@
         <v>49</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13132,16 +13126,16 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13191,7 +13185,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13209,10 +13203,10 @@
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>41</v>
@@ -13223,10 +13217,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13338,10 +13332,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13455,10 +13449,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13481,19 +13475,19 @@
         <v>50</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>41</v>
@@ -13542,7 +13536,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13563,21 +13557,21 @@
         <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13603,20 +13597,20 @@
         <v>69</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q97" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>41</v>
@@ -13640,28 +13634,28 @@
         <v>143</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13682,21 +13676,21 @@
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13722,21 +13716,21 @@
         <v>126</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>41</v>
@@ -13778,7 +13772,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13799,21 +13793,21 @@
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13839,72 +13833,72 @@
         <v>63</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI99" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>61</v>
@@ -13916,21 +13910,21 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13956,23 +13950,23 @@
         <v>69</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>41</v>
@@ -14014,7 +14008,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -14035,21 +14029,21 @@
         <v>41</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14072,16 +14066,16 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L101" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="N101" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14131,7 +14125,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14152,10 +14146,10 @@
         <v>41</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
@@ -14163,10 +14157,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14189,13 +14183,13 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14246,7 +14240,7 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
@@ -14264,10 +14258,10 @@
         <v>41</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>41</v>
@@ -14278,10 +14272,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14393,10 +14387,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14510,14 +14504,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14539,10 +14533,10 @@
         <v>95</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>98</v>
@@ -14597,7 +14591,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14629,10 +14623,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14658,13 +14652,13 @@
         <v>150</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14694,7 +14688,7 @@
       </c>
       <c r="Y106" s="2"/>
       <c r="Z106" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>41</v>
@@ -14712,7 +14706,7 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>49</v>
@@ -14730,24 +14724,24 @@
         <v>41</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14773,13 +14767,13 @@
         <v>150</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14805,13 +14799,13 @@
         <v>41</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>41</v>
@@ -14829,7 +14823,7 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
@@ -14847,24 +14841,24 @@
         <v>41</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>605</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14887,16 +14881,16 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L108" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N108" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14946,7 +14940,7 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
@@ -14961,13 +14955,13 @@
         <v>61</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>41</v>
@@ -14978,14 +14972,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15004,16 +14998,16 @@
         <v>41</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15063,7 +15057,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15084,7 +15078,7 @@
         <v>41</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>41</v>
@@ -15095,10 +15089,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15121,16 +15115,16 @@
         <v>41</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15180,7 +15174,7 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>39</v>
@@ -15195,13 +15189,13 @@
         <v>61</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="625">
   <si>
     <t>Property</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>患者への薬の供給と内服・外用薬剤処方の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。MedicationRequestプロファイルからの派生プロファイルである。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2431,16 +2435,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -2451,10 +2455,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2465,7 +2469,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2474,19 +2478,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2536,13 +2540,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2568,10 +2572,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2582,7 +2586,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2591,16 +2595,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2651,19 +2655,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2683,10 +2687,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2697,28 +2701,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2768,19 +2772,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2800,10 +2804,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2814,7 +2818,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2826,16 +2830,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2861,13 +2865,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2885,19 +2889,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2917,21 +2921,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2943,16 +2947,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3002,19 +3006,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -3023,7 +3027,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -3034,14 +3038,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3060,16 +3064,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3119,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -3140,7 +3144,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -3151,14 +3155,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3177,16 +3181,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3236,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3248,7 +3252,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3257,7 +3261,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -3268,14 +3272,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3288,25 +3292,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3355,7 +3359,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3367,7 +3371,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3376,7 +3380,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -3387,10 +3391,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3398,7 +3402,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -3413,16 +3417,16 @@
         <v>41</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3460,17 +3464,17 @@
         <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3482,43 +3486,43 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>41</v>
@@ -3530,16 +3534,16 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3589,7 +3593,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3601,30 +3605,30 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3635,7 +3639,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
@@ -3647,13 +3651,13 @@
         <v>41</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3704,13 +3708,13 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>41</v>
@@ -3725,7 +3729,7 @@
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -3736,14 +3740,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3762,16 +3766,16 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3809,19 +3813,19 @@
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3833,7 +3837,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
@@ -3842,7 +3846,7 @@
         <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -3853,10 +3857,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3867,31 +3871,31 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3916,13 +3920,13 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3940,19 +3944,19 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3961,21 +3965,21 @@
         <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3986,7 +3990,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3995,22 +3999,22 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -4035,13 +4039,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -4059,19 +4063,19 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -4080,21 +4084,21 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4102,10 +4106,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -4114,29 +4118,29 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>41</v>
@@ -4178,19 +4182,19 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -4199,21 +4203,21 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4221,10 +4225,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -4233,19 +4237,19 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4295,19 +4299,19 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -4316,21 +4320,21 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4341,7 +4345,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -4350,16 +4354,16 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4410,19 +4414,19 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4431,21 +4435,21 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4456,7 +4460,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -4465,19 +4469,19 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4527,19 +4531,19 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -4548,34 +4552,34 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -4587,16 +4591,16 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4646,7 +4650,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4658,30 +4662,30 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4692,7 +4696,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4704,13 +4708,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4761,13 +4765,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4782,7 +4786,7 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4793,14 +4797,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4819,16 +4823,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4866,19 +4870,19 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4890,7 +4894,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4899,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4910,10 +4914,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4924,31 +4928,31 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4973,13 +4977,13 @@
         <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>41</v>
@@ -4997,19 +5001,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -5018,21 +5022,21 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5043,7 +5047,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -5052,22 +5056,22 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -5092,13 +5096,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
@@ -5116,19 +5120,19 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -5137,21 +5141,21 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5159,10 +5163,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -5171,29 +5175,29 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>41</v>
@@ -5235,19 +5239,19 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -5256,21 +5260,21 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5278,10 +5282,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -5290,19 +5294,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5352,19 +5356,19 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -5373,21 +5377,21 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5398,7 +5402,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5407,16 +5411,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5467,19 +5471,19 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5488,21 +5492,21 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5513,7 +5517,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -5522,19 +5526,19 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5584,19 +5588,19 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -5605,24 +5609,24 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>41</v>
@@ -5632,7 +5636,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5644,16 +5648,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5703,7 +5707,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5715,30 +5719,30 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5749,7 +5753,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -5761,13 +5765,13 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5818,13 +5822,13 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
@@ -5839,7 +5843,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5850,14 +5854,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5876,16 +5880,16 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5923,19 +5927,19 @@
         <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5947,7 +5951,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5956,7 +5960,7 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5967,10 +5971,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5981,31 +5985,31 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -6030,13 +6034,13 @@
         <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>41</v>
@@ -6054,19 +6058,19 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -6075,21 +6079,21 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6100,7 +6104,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -6109,22 +6113,22 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -6149,13 +6153,13 @@
         <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>41</v>
@@ -6173,19 +6177,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -6194,21 +6198,21 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6216,10 +6220,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -6228,29 +6232,29 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>41</v>
@@ -6292,19 +6296,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -6313,21 +6317,21 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6335,10 +6339,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -6347,19 +6351,19 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6409,19 +6413,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6430,21 +6434,21 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6455,7 +6459,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6464,16 +6468,16 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6524,19 +6528,19 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -6545,21 +6549,21 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6570,7 +6574,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6579,19 +6583,19 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6641,19 +6645,19 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -6662,24 +6666,24 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>41</v>
@@ -6701,16 +6705,16 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6760,7 +6764,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6772,30 +6776,30 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6806,7 +6810,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6818,13 +6822,13 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6875,13 +6879,13 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
@@ -6896,7 +6900,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6907,14 +6911,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6933,16 +6937,16 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6980,19 +6984,19 @@
         <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -7004,7 +7008,7 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -7013,7 +7017,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -7024,10 +7028,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7038,31 +7042,31 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -7087,13 +7091,13 @@
         <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>41</v>
@@ -7111,19 +7115,19 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -7132,21 +7136,21 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7157,7 +7161,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -7166,22 +7170,22 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7206,13 +7210,13 @@
         <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
@@ -7230,19 +7234,19 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -7251,21 +7255,21 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7273,10 +7277,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -7285,29 +7289,29 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>41</v>
@@ -7349,19 +7353,19 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -7370,21 +7374,21 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7392,10 +7396,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -7404,19 +7408,19 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7466,19 +7470,19 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -7487,21 +7491,21 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7512,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -7521,16 +7525,16 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7581,19 +7585,19 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -7602,21 +7606,21 @@
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7627,7 +7631,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -7636,19 +7640,19 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7698,19 +7702,19 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -7719,21 +7723,21 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7741,31 +7745,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7791,13 +7795,13 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7815,31 +7819,31 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7847,10 +7851,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7861,7 +7865,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7873,16 +7877,16 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7908,13 +7912,13 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7932,28 +7936,28 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7964,10 +7968,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7975,31 +7979,31 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8025,13 +8029,13 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -8049,31 +8053,31 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8081,10 +8085,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8107,16 +8111,16 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8142,11 +8146,11 @@
         <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>41</v>
@@ -8164,7 +8168,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8176,19 +8180,19 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8196,10 +8200,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8210,7 +8214,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -8219,19 +8223,19 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8257,13 +8261,13 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8281,31 +8285,31 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8313,10 +8317,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8327,28 +8331,28 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8398,19 +8402,19 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
@@ -8419,7 +8423,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -8430,10 +8434,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8444,7 +8448,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -8453,16 +8457,16 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8513,19 +8517,19 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8534,7 +8538,7 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -8545,10 +8549,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8556,10 +8560,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -8568,19 +8572,19 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8606,13 +8610,13 @@
         <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -8630,42 +8634,42 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8673,10 +8677,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8685,19 +8689,19 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8747,42 +8751,42 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8793,7 +8797,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8805,16 +8809,16 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8864,42 +8868,42 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8922,16 +8926,16 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8981,7 +8985,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8993,19 +8997,19 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9013,10 +9017,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9024,10 +9028,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -9036,16 +9040,16 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9096,42 +9100,42 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9142,7 +9146,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9151,19 +9155,19 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9213,31 +9217,31 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9245,10 +9249,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9259,7 +9263,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9271,16 +9275,16 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9330,31 +9334,31 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9362,10 +9366,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9376,7 +9380,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9385,19 +9389,19 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9423,11 +9427,11 @@
         <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>41</v>
@@ -9445,28 +9449,28 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -9477,10 +9481,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9491,7 +9495,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>41</v>
@@ -9503,16 +9507,16 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9562,19 +9566,19 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
@@ -9583,10 +9587,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9594,10 +9598,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9620,16 +9624,16 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9655,13 +9659,13 @@
         <v>41</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9679,7 +9683,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9691,30 +9695,30 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9737,16 +9741,16 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9796,7 +9800,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9808,19 +9812,19 @@
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9828,10 +9832,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9851,19 +9855,19 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9913,7 +9917,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9925,16 +9929,16 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9945,10 +9949,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9968,19 +9972,19 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10030,7 +10034,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -10042,7 +10046,7 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -10051,7 +10055,7 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -10062,10 +10066,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10085,19 +10089,19 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10147,7 +10151,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10159,16 +10163,16 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -10179,10 +10183,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10193,7 +10197,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -10202,20 +10206,20 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10264,28 +10268,28 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -10296,10 +10300,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10310,7 +10314,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10322,16 +10326,16 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10357,13 +10361,13 @@
         <v>41</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>41</v>
@@ -10381,19 +10385,19 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10402,7 +10406,7 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -10413,10 +10417,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10439,16 +10443,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10498,7 +10502,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10510,16 +10514,16 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -10530,10 +10534,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10556,16 +10560,16 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10615,7 +10619,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10627,16 +10631,16 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -10647,10 +10651,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10673,16 +10677,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10732,7 +10736,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10744,7 +10748,7 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
@@ -10753,7 +10757,7 @@
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -10764,10 +10768,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10778,7 +10782,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>41</v>
@@ -10790,13 +10794,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10847,28 +10851,28 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>41</v>
@@ -10879,10 +10883,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10893,7 +10897,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -10905,13 +10909,13 @@
         <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10962,13 +10966,13 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
@@ -10983,7 +10987,7 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
@@ -10994,10 +10998,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11020,13 +11024,13 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11065,17 +11069,17 @@
         <v>41</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11087,7 +11091,7 @@
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -11107,13 +11111,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>41</v>
@@ -11135,13 +11139,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11192,7 +11196,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11201,10 +11205,10 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>41</v>
@@ -11224,13 +11228,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>41</v>
@@ -11240,7 +11244,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -11252,13 +11256,13 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11309,7 +11313,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11318,10 +11322,10 @@
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
@@ -11341,14 +11345,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11361,25 +11365,25 @@
         <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11428,7 +11432,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11440,7 +11444,7 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>41</v>
@@ -11449,7 +11453,7 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -11460,10 +11464,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11474,7 +11478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>41</v>
@@ -11486,16 +11490,16 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11545,19 +11549,19 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
@@ -11566,7 +11570,7 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>
@@ -11577,10 +11581,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11591,7 +11595,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -11603,13 +11607,13 @@
         <v>41</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11660,13 +11664,13 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>41</v>
@@ -11681,7 +11685,7 @@
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>41</v>
@@ -11692,14 +11696,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11718,16 +11722,16 @@
         <v>41</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11777,7 +11781,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11789,7 +11793,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11798,7 +11802,7 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>41</v>
@@ -11809,14 +11813,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11829,25 +11833,25 @@
         <v>41</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -11896,7 +11900,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11908,7 +11912,7 @@
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
@@ -11917,7 +11921,7 @@
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>41</v>
@@ -11928,10 +11932,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11942,7 +11946,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>41</v>
@@ -11954,16 +11958,16 @@
         <v>41</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12013,19 +12017,19 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>41</v>
@@ -12034,21 +12038,21 @@
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12059,7 +12063,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
@@ -12071,16 +12075,16 @@
         <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12130,19 +12134,19 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
@@ -12151,7 +12155,7 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>41</v>
@@ -12162,10 +12166,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12176,7 +12180,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -12188,16 +12192,16 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12247,28 +12251,28 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>41</v>
@@ -12279,10 +12283,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12293,7 +12297,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -12305,19 +12309,19 @@
         <v>41</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12366,28 +12370,28 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>41</v>
@@ -12398,10 +12402,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12412,7 +12416,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>41</v>
@@ -12424,13 +12428,13 @@
         <v>41</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12481,13 +12485,13 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>41</v>
@@ -12502,7 +12506,7 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>41</v>
@@ -12513,14 +12517,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12539,16 +12543,16 @@
         <v>41</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12586,19 +12590,19 @@
         <v>41</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12610,7 +12614,7 @@
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>41</v>
@@ -12619,7 +12623,7 @@
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>41</v>
@@ -12630,10 +12634,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12644,7 +12648,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>41</v>
@@ -12653,19 +12657,19 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12715,19 +12719,19 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>41</v>
@@ -12736,21 +12740,21 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12761,7 +12765,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12770,26 +12774,26 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q90" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>41</v>
@@ -12834,19 +12838,19 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>41</v>
@@ -12855,21 +12859,21 @@
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12880,7 +12884,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>41</v>
@@ -12892,16 +12896,16 @@
         <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12951,42 +12955,42 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12997,7 +13001,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>41</v>
@@ -13009,16 +13013,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13068,19 +13072,19 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>41</v>
@@ -13089,21 +13093,21 @@
         <v>41</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13114,7 +13118,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -13126,16 +13130,16 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13185,28 +13189,28 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>41</v>
@@ -13217,10 +13221,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13231,7 +13235,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -13243,13 +13247,13 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13300,13 +13304,13 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>41</v>
@@ -13321,7 +13325,7 @@
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>41</v>
@@ -13332,14 +13336,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13358,16 +13362,16 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13405,19 +13409,19 @@
         <v>41</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13429,7 +13433,7 @@
         <v>41</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>41</v>
@@ -13438,7 +13442,7 @@
         <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>41</v>
@@ -13449,10 +13453,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13463,7 +13467,7 @@
         <v>39</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>41</v>
@@ -13472,22 +13476,22 @@
         <v>41</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>41</v>
@@ -13536,19 +13540,19 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>41</v>
@@ -13557,21 +13561,21 @@
         <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13582,35 +13586,35 @@
         <v>39</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>41</v>
@@ -13631,13 +13635,13 @@
         <v>41</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>41</v>
@@ -13655,19 +13659,19 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>41</v>
@@ -13676,21 +13680,21 @@
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13701,7 +13705,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>41</v>
@@ -13710,27 +13714,27 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>41</v>
@@ -13772,19 +13776,19 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>41</v>
@@ -13793,21 +13797,21 @@
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13818,7 +13822,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>41</v>
@@ -13827,27 +13831,27 @@
         <v>41</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>41</v>
@@ -13889,19 +13893,19 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>41</v>
@@ -13910,21 +13914,21 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13935,7 +13939,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>41</v>
@@ -13944,29 +13948,29 @@
         <v>41</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>41</v>
@@ -14008,19 +14012,19 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>41</v>
@@ -14029,21 +14033,21 @@
         <v>41</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14054,7 +14058,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>41</v>
@@ -14066,16 +14070,16 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14125,19 +14129,19 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>41</v>
@@ -14146,10 +14150,10 @@
         <v>41</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
@@ -14157,10 +14161,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14171,7 +14175,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>41</v>
@@ -14183,13 +14187,13 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14240,28 +14244,28 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>41</v>
@@ -14272,10 +14276,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14286,7 +14290,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>41</v>
@@ -14298,13 +14302,13 @@
         <v>41</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14355,13 +14359,13 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>41</v>
@@ -14376,7 +14380,7 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>41</v>
@@ -14387,14 +14391,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14413,16 +14417,16 @@
         <v>41</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14472,7 +14476,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14484,7 +14488,7 @@
         <v>41</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>41</v>
@@ -14493,7 +14497,7 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>41</v>
@@ -14504,14 +14508,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14524,25 +14528,25 @@
         <v>41</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>41</v>
@@ -14591,7 +14595,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14603,7 +14607,7 @@
         <v>41</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>41</v>
@@ -14612,7 +14616,7 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>41</v>
@@ -14623,10 +14627,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14634,10 +14638,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>41</v>
@@ -14649,16 +14653,16 @@
         <v>41</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14684,11 +14688,11 @@
         <v>41</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y106" s="2"/>
       <c r="Z106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>41</v>
@@ -14706,42 +14710,42 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14752,7 +14756,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>41</v>
@@ -14764,16 +14768,16 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14799,13 +14803,13 @@
         <v>41</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>41</v>
@@ -14823,42 +14827,42 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14869,7 +14873,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -14881,16 +14885,16 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14940,28 +14944,28 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>41</v>
@@ -14972,14 +14976,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14998,16 +15002,16 @@
         <v>41</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15057,7 +15061,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15069,7 +15073,7 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>41</v>
@@ -15078,7 +15082,7 @@
         <v>41</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>41</v>
@@ -15089,10 +15093,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15115,16 +15119,16 @@
         <v>41</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15174,7 +15178,7 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>39</v>
@@ -15186,16 +15190,16 @@
         <v>41</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -458,7 +458,7 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -1819,7 +1819,7 @@
     <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -366,8 +366,8 @@
     <t>外部から参照されるID</t>
   </si>
   <si>
-    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
-処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。  
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。  
 このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
@@ -842,9 +842,8 @@
     <t>投薬指示の意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>
-    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
-instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。-
+    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。  
+instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。  
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
@@ -869,9 +868,9 @@
     <t>薬剤使用区分</t>
   </si>
   <si>
-    <t>このMedicationRequest Resourceが使用される区分を示す。日本では「院外」「院内」「入院」「外来」などの区分を想定する。
-一般的には、外来や入院などどこでこの薬剤が投与、内服されるかを想定した区分である。
-処方病棟や処方した診療科をOrganization resourceで表現することが冗長である場合にはこの区分が用いられることもある。
+    <t>このMedicationRequest Resourceが使用される区分を示す。日本では「院外」「院内」「入院」「外来」などの区分を想定する。  
+一般的には、外来や入院などどこでこの薬剤が投与、内服されるかを想定した区分である。  
+処方病棟や処方した診療科をOrganization resourceで表現することが冗長である場合にはこの区分が用いられることもある。  
 HL7 FHIRではvalue setとして http://terminology.hl7.org/CodeSystem/medicationrequest-category がデフォルトで用いられるが、日本での使用の場合持参薬をカバーする必要があり、JAHIS処方データ規約V3.0Cに記載されているMERIT-9処方オーダ表7とJHSP0007表を組み合わせて持ちいることとする。</t>
   </si>
   <si>
@@ -959,18 +958,16 @@
     <t>What medication was supplied　医薬品</t>
   </si>
   <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.  
 投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
   </si>
   <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.  
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。  
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。  
+なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。  
+ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。  
+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。  
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
@@ -1011,11 +1008,11 @@
     <t>処方箋が発行された対象(個人あるいはグループ)</t>
   </si>
   <si>
-    <t>JP Coreでは患者を表すPatientリソースへの参照。
+    <t>JP Coreでは患者を表すPatientリソースへの参照。  
 一般には薬剤が投与される対象となる人（あるいはグループ)を表現するResourceに対するリンク。</t>
   </si>
   <si>
-    <t>処方オーダの対象は必須項目である。
+    <t>処方オーダの対象は必須項目である。  
 二次利用のためにどこに実際の対象がいるのかについての情報は提供されない。特定の対象に対して匿名化することも必要である。</t>
   </si>
   <si>
@@ -1046,7 +1043,7 @@
     <t>encounter/admission/stay のいずれかとして記録された診察</t>
   </si>
   <si>
-    <t>JP Coreでの使用は規定されていない。
+    <t>JP Coreでの使用は規定されていない。  
 この対象となるリソース[x]が作成される間やこの記録が作成される対象のencounterは密接に関連している。</t>
   </si>
   <si>
@@ -1125,7 +1122,7 @@
     <t>このオーダを発行した人・物</t>
   </si>
   <si>
-    <t>JP Coreではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。  
 このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
@@ -1188,7 +1185,7 @@
     <t>投薬オーダの入力者</t>
   </si>
   <si>
-    <t>JP Coreではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。  
 たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>
@@ -1204,7 +1201,7 @@
     <t>薬を注文するあるいは注文しない理由や適応</t>
   </si>
   <si>
-    <t>このエレメントに対するJP Coreの規定はない。
+    <t>このエレメントに対するJP Coreの規定はない。  
 薬剤をオーダするあるいはしないことを示した理由。</t>
   </si>
   <si>
@@ -1844,7 +1841,7 @@
     <t>想定された払い出し薬局</t>
   </si>
   <si>
-    <t>処方者によって指定される調剤・払い出しを行うと想定されているOrganizationを示す。
+    <t>処方者によって指定される調剤・払い出しを行うと想定されているOrganizationを示す。  
 Indicates the intended dispensing Organization specified by the prescriber.</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest.xlsx
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`d